--- a/01_基本設計書/20200220リリース/SC-K17_成形金型番号別不良分析.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K17_成形金型番号別不良分析.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\20191017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C58FDB3-00EA-4C95-BFA0-8D2C96B9619A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74F06D0-CA8C-4EA3-918E-1FAAEE488CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="335">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1266,10 +1266,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>不良現象マスタの不良現象名</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>検索条件の入力チェックをする。</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
@@ -1779,10 +1775,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>・不良現象マスタ.不良現象名</t>
-    <phoneticPr fontId="19"/>
-  </si>
-  <si>
     <t>・コードマスタ.コード名称</t>
     <phoneticPr fontId="19"/>
   </si>
@@ -2040,10 +2032,6 @@
   </si>
   <si>
     <t>・実績管理データ.品名コード</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>・不良現象マスタ.不良現象名</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -2315,6 +2303,21 @@
   </si>
   <si>
     <t>uncheck</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ON 実績登録データ.理由コード=不良現象マスタ.不良コード</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>不良現象マスタの判定理由</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>・不良現象マスタ.判定理由</t>
+  </si>
+  <si>
+    <t>・不良現象マスタ.判定理由</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -3226,6 +3229,47 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3256,58 +3300,11 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3333,6 +3330,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3351,13 +3354,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5391,1770 +5394,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58"/>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
-      <c r="P1" s="138"/>
-      <c r="Q1" s="138"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="138"/>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="138"/>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="138"/>
-      <c r="AD1" s="138"/>
-      <c r="AE1" s="138"/>
-      <c r="AF1" s="138"/>
-      <c r="AG1" s="138"/>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="138"/>
-      <c r="AJ1" s="138"/>
-      <c r="AK1" s="138"/>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138"/>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138"/>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138"/>
-      <c r="AS1" s="138"/>
-      <c r="AT1" s="138"/>
-      <c r="AU1" s="138"/>
-      <c r="AV1" s="138"/>
-      <c r="AW1" s="138"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
+      <c r="Q1" s="153"/>
+      <c r="R1" s="153"/>
+      <c r="S1" s="153"/>
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="153"/>
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="153"/>
+      <c r="AD1" s="153"/>
+      <c r="AE1" s="153"/>
+      <c r="AF1" s="153"/>
+      <c r="AG1" s="153"/>
+      <c r="AH1" s="153"/>
+      <c r="AI1" s="153"/>
+      <c r="AJ1" s="153"/>
+      <c r="AK1" s="153"/>
+      <c r="AL1" s="153"/>
+      <c r="AM1" s="153"/>
+      <c r="AN1" s="153"/>
+      <c r="AO1" s="153"/>
+      <c r="AP1" s="153"/>
+      <c r="AQ1" s="153"/>
+      <c r="AR1" s="153"/>
+      <c r="AS1" s="153"/>
+      <c r="AT1" s="153"/>
+      <c r="AU1" s="153"/>
+      <c r="AV1" s="153"/>
+      <c r="AW1" s="153"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="139"/>
-      <c r="X2" s="139"/>
-      <c r="Y2" s="139"/>
-      <c r="Z2" s="139"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="139"/>
-      <c r="AC2" s="139"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="139"/>
-      <c r="AF2" s="139"/>
-      <c r="AG2" s="139"/>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="139"/>
-      <c r="AJ2" s="139"/>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="139"/>
-      <c r="AN2" s="139"/>
-      <c r="AO2" s="139"/>
-      <c r="AP2" s="139"/>
-      <c r="AQ2" s="139"/>
-      <c r="AR2" s="139"/>
-      <c r="AS2" s="139"/>
-      <c r="AT2" s="139"/>
-      <c r="AU2" s="139"/>
-      <c r="AV2" s="139"/>
-      <c r="AW2" s="139"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="154"/>
+      <c r="J2" s="154"/>
+      <c r="K2" s="154"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="154"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="154"/>
+      <c r="U2" s="154"/>
+      <c r="V2" s="154"/>
+      <c r="W2" s="154"/>
+      <c r="X2" s="154"/>
+      <c r="Y2" s="154"/>
+      <c r="Z2" s="154"/>
+      <c r="AA2" s="154"/>
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="154"/>
+      <c r="AD2" s="154"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="154"/>
+      <c r="AG2" s="154"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="154"/>
+      <c r="AJ2" s="154"/>
+      <c r="AK2" s="154"/>
+      <c r="AL2" s="154"/>
+      <c r="AM2" s="154"/>
+      <c r="AN2" s="154"/>
+      <c r="AO2" s="154"/>
+      <c r="AP2" s="154"/>
+      <c r="AQ2" s="154"/>
+      <c r="AR2" s="154"/>
+      <c r="AS2" s="154"/>
+      <c r="AT2" s="154"/>
+      <c r="AU2" s="154"/>
+      <c r="AV2" s="154"/>
+      <c r="AW2" s="154"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="142" t="s">
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="143"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="142" t="s">
+      <c r="K3" s="158"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="140" t="s">
+      <c r="N3" s="158"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="158"/>
+      <c r="Q3" s="158"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="140"/>
-      <c r="U3" s="140"/>
-      <c r="V3" s="140" t="s">
+      <c r="T3" s="155"/>
+      <c r="U3" s="155"/>
+      <c r="V3" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="140"/>
-      <c r="X3" s="140"/>
-      <c r="Y3" s="140"/>
-      <c r="Z3" s="140"/>
-      <c r="AA3" s="140"/>
-      <c r="AB3" s="140"/>
-      <c r="AC3" s="140"/>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="140"/>
-      <c r="AG3" s="140"/>
-      <c r="AH3" s="140"/>
-      <c r="AI3" s="140"/>
-      <c r="AJ3" s="140"/>
-      <c r="AK3" s="140"/>
-      <c r="AL3" s="140"/>
-      <c r="AM3" s="140"/>
-      <c r="AN3" s="140" t="s">
+      <c r="W3" s="155"/>
+      <c r="X3" s="155"/>
+      <c r="Y3" s="155"/>
+      <c r="Z3" s="155"/>
+      <c r="AA3" s="155"/>
+      <c r="AB3" s="155"/>
+      <c r="AC3" s="155"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="155"/>
+      <c r="AG3" s="155"/>
+      <c r="AH3" s="155"/>
+      <c r="AI3" s="155"/>
+      <c r="AJ3" s="155"/>
+      <c r="AK3" s="155"/>
+      <c r="AL3" s="155"/>
+      <c r="AM3" s="155"/>
+      <c r="AN3" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="140"/>
-      <c r="AP3" s="140"/>
-      <c r="AQ3" s="140"/>
-      <c r="AR3" s="140"/>
-      <c r="AS3" s="140" t="s">
+      <c r="AO3" s="155"/>
+      <c r="AP3" s="155"/>
+      <c r="AQ3" s="155"/>
+      <c r="AR3" s="155"/>
+      <c r="AS3" s="155" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="140"/>
-      <c r="AU3" s="140"/>
-      <c r="AV3" s="140"/>
-      <c r="AW3" s="140"/>
+      <c r="AT3" s="155"/>
+      <c r="AU3" s="155"/>
+      <c r="AV3" s="155"/>
+      <c r="AW3" s="155"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
-      <c r="B4" s="141"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="146"/>
-      <c r="L4" s="147"/>
-      <c r="M4" s="145"/>
-      <c r="N4" s="146"/>
-      <c r="O4" s="146"/>
-      <c r="P4" s="146"/>
-      <c r="Q4" s="146"/>
-      <c r="R4" s="147"/>
-      <c r="S4" s="141"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="141"/>
-      <c r="V4" s="141"/>
-      <c r="W4" s="141"/>
-      <c r="X4" s="141"/>
-      <c r="Y4" s="141"/>
-      <c r="Z4" s="141"/>
-      <c r="AA4" s="141"/>
-      <c r="AB4" s="141"/>
-      <c r="AC4" s="141"/>
-      <c r="AD4" s="141"/>
-      <c r="AE4" s="141"/>
-      <c r="AF4" s="141"/>
-      <c r="AG4" s="141"/>
-      <c r="AH4" s="141"/>
-      <c r="AI4" s="141"/>
-      <c r="AJ4" s="141"/>
-      <c r="AK4" s="141"/>
-      <c r="AL4" s="141"/>
-      <c r="AM4" s="141"/>
-      <c r="AN4" s="141"/>
-      <c r="AO4" s="141"/>
-      <c r="AP4" s="141"/>
-      <c r="AQ4" s="141"/>
-      <c r="AR4" s="141"/>
-      <c r="AS4" s="141"/>
-      <c r="AT4" s="141"/>
-      <c r="AU4" s="141"/>
-      <c r="AV4" s="141"/>
-      <c r="AW4" s="141"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="162"/>
+      <c r="S4" s="156"/>
+      <c r="T4" s="156"/>
+      <c r="U4" s="156"/>
+      <c r="V4" s="156"/>
+      <c r="W4" s="156"/>
+      <c r="X4" s="156"/>
+      <c r="Y4" s="156"/>
+      <c r="Z4" s="156"/>
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="156"/>
+      <c r="AC4" s="156"/>
+      <c r="AD4" s="156"/>
+      <c r="AE4" s="156"/>
+      <c r="AF4" s="156"/>
+      <c r="AG4" s="156"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="156"/>
+      <c r="AJ4" s="156"/>
+      <c r="AK4" s="156"/>
+      <c r="AL4" s="156"/>
+      <c r="AM4" s="156"/>
+      <c r="AN4" s="156"/>
+      <c r="AO4" s="156"/>
+      <c r="AP4" s="156"/>
+      <c r="AQ4" s="156"/>
+      <c r="AR4" s="156"/>
+      <c r="AS4" s="156"/>
+      <c r="AT4" s="156"/>
+      <c r="AU4" s="156"/>
+      <c r="AV4" s="156"/>
+      <c r="AW4" s="156"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
-      <c r="B5" s="149">
+      <c r="B5" s="139">
         <v>1</v>
       </c>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="150">
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="140">
         <v>43711</v>
       </c>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="151" t="s">
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="151"/>
-      <c r="L5" s="151"/>
-      <c r="M5" s="151" t="s">
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="151"/>
-      <c r="O5" s="151"/>
-      <c r="P5" s="151"/>
-      <c r="Q5" s="151"/>
-      <c r="R5" s="151"/>
-      <c r="S5" s="148" t="s">
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="141"/>
+      <c r="S5" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="148"/>
-      <c r="U5" s="148"/>
-      <c r="V5" s="153" t="s">
+      <c r="T5" s="138"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="153"/>
-      <c r="AE5" s="153"/>
-      <c r="AF5" s="153"/>
-      <c r="AG5" s="153"/>
-      <c r="AH5" s="153"/>
-      <c r="AI5" s="153"/>
-      <c r="AJ5" s="153"/>
-      <c r="AK5" s="153"/>
-      <c r="AL5" s="153"/>
-      <c r="AM5" s="153"/>
-      <c r="AN5" s="148" t="s">
+      <c r="W5" s="150"/>
+      <c r="X5" s="150"/>
+      <c r="Y5" s="150"/>
+      <c r="Z5" s="150"/>
+      <c r="AA5" s="150"/>
+      <c r="AB5" s="150"/>
+      <c r="AC5" s="150"/>
+      <c r="AD5" s="150"/>
+      <c r="AE5" s="150"/>
+      <c r="AF5" s="150"/>
+      <c r="AG5" s="150"/>
+      <c r="AH5" s="150"/>
+      <c r="AI5" s="150"/>
+      <c r="AJ5" s="150"/>
+      <c r="AK5" s="150"/>
+      <c r="AL5" s="150"/>
+      <c r="AM5" s="150"/>
+      <c r="AN5" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="AO5" s="148"/>
-      <c r="AP5" s="148"/>
-      <c r="AQ5" s="148"/>
-      <c r="AR5" s="148"/>
-      <c r="AS5" s="148"/>
-      <c r="AT5" s="148"/>
-      <c r="AU5" s="148"/>
-      <c r="AV5" s="148"/>
-      <c r="AW5" s="148"/>
+      <c r="AO5" s="138"/>
+      <c r="AP5" s="138"/>
+      <c r="AQ5" s="138"/>
+      <c r="AR5" s="138"/>
+      <c r="AS5" s="138"/>
+      <c r="AT5" s="138"/>
+      <c r="AU5" s="138"/>
+      <c r="AV5" s="138"/>
+      <c r="AW5" s="138"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
-      <c r="K6" s="151"/>
-      <c r="L6" s="151"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
       <c r="M6" s="152"/>
       <c r="N6" s="152"/>
       <c r="O6" s="152"/>
       <c r="P6" s="152"/>
       <c r="Q6" s="152"/>
       <c r="R6" s="152"/>
-      <c r="S6" s="148"/>
-      <c r="T6" s="148"/>
-      <c r="U6" s="148"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="153"/>
-      <c r="AA6" s="153"/>
-      <c r="AB6" s="153"/>
-      <c r="AC6" s="153"/>
-      <c r="AD6" s="153"/>
-      <c r="AE6" s="153"/>
-      <c r="AF6" s="153"/>
-      <c r="AG6" s="153"/>
-      <c r="AH6" s="153"/>
-      <c r="AI6" s="153"/>
-      <c r="AJ6" s="153"/>
-      <c r="AK6" s="153"/>
-      <c r="AL6" s="153"/>
-      <c r="AM6" s="153"/>
-      <c r="AN6" s="148"/>
-      <c r="AO6" s="148"/>
-      <c r="AP6" s="148"/>
-      <c r="AQ6" s="148"/>
-      <c r="AR6" s="148"/>
-      <c r="AS6" s="148"/>
-      <c r="AT6" s="148"/>
-      <c r="AU6" s="148"/>
-      <c r="AV6" s="148"/>
-      <c r="AW6" s="148"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="138"/>
+      <c r="U6" s="138"/>
+      <c r="V6" s="150"/>
+      <c r="W6" s="150"/>
+      <c r="X6" s="150"/>
+      <c r="Y6" s="150"/>
+      <c r="Z6" s="150"/>
+      <c r="AA6" s="150"/>
+      <c r="AB6" s="150"/>
+      <c r="AC6" s="150"/>
+      <c r="AD6" s="150"/>
+      <c r="AE6" s="150"/>
+      <c r="AF6" s="150"/>
+      <c r="AG6" s="150"/>
+      <c r="AH6" s="150"/>
+      <c r="AI6" s="150"/>
+      <c r="AJ6" s="150"/>
+      <c r="AK6" s="150"/>
+      <c r="AL6" s="150"/>
+      <c r="AM6" s="150"/>
+      <c r="AN6" s="138"/>
+      <c r="AO6" s="138"/>
+      <c r="AP6" s="138"/>
+      <c r="AQ6" s="138"/>
+      <c r="AR6" s="138"/>
+      <c r="AS6" s="138"/>
+      <c r="AT6" s="138"/>
+      <c r="AU6" s="138"/>
+      <c r="AV6" s="138"/>
+      <c r="AW6" s="138"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
       <c r="M7" s="152"/>
       <c r="N7" s="152"/>
       <c r="O7" s="152"/>
       <c r="P7" s="152"/>
       <c r="Q7" s="152"/>
       <c r="R7" s="152"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="148"/>
-      <c r="U7" s="148"/>
-      <c r="V7" s="153"/>
-      <c r="W7" s="153"/>
-      <c r="X7" s="153"/>
-      <c r="Y7" s="153"/>
-      <c r="Z7" s="153"/>
-      <c r="AA7" s="153"/>
-      <c r="AB7" s="153"/>
-      <c r="AC7" s="153"/>
-      <c r="AD7" s="153"/>
-      <c r="AE7" s="153"/>
-      <c r="AF7" s="153"/>
-      <c r="AG7" s="153"/>
-      <c r="AH7" s="153"/>
-      <c r="AI7" s="153"/>
-      <c r="AJ7" s="153"/>
-      <c r="AK7" s="153"/>
-      <c r="AL7" s="153"/>
-      <c r="AM7" s="153"/>
-      <c r="AN7" s="148"/>
-      <c r="AO7" s="148"/>
-      <c r="AP7" s="148"/>
-      <c r="AQ7" s="148"/>
-      <c r="AR7" s="148"/>
-      <c r="AS7" s="148"/>
-      <c r="AT7" s="148"/>
-      <c r="AU7" s="148"/>
-      <c r="AV7" s="148"/>
-      <c r="AW7" s="148"/>
+      <c r="S7" s="138"/>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="150"/>
+      <c r="W7" s="150"/>
+      <c r="X7" s="150"/>
+      <c r="Y7" s="150"/>
+      <c r="Z7" s="150"/>
+      <c r="AA7" s="150"/>
+      <c r="AB7" s="150"/>
+      <c r="AC7" s="150"/>
+      <c r="AD7" s="150"/>
+      <c r="AE7" s="150"/>
+      <c r="AF7" s="150"/>
+      <c r="AG7" s="150"/>
+      <c r="AH7" s="150"/>
+      <c r="AI7" s="150"/>
+      <c r="AJ7" s="150"/>
+      <c r="AK7" s="150"/>
+      <c r="AL7" s="150"/>
+      <c r="AM7" s="150"/>
+      <c r="AN7" s="138"/>
+      <c r="AO7" s="138"/>
+      <c r="AP7" s="138"/>
+      <c r="AQ7" s="138"/>
+      <c r="AR7" s="138"/>
+      <c r="AS7" s="138"/>
+      <c r="AT7" s="138"/>
+      <c r="AU7" s="138"/>
+      <c r="AV7" s="138"/>
+      <c r="AW7" s="138"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="60"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
       <c r="M8" s="152"/>
       <c r="N8" s="152"/>
       <c r="O8" s="152"/>
       <c r="P8" s="152"/>
       <c r="Q8" s="152"/>
       <c r="R8" s="152"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="148"/>
-      <c r="V8" s="153"/>
-      <c r="W8" s="153"/>
-      <c r="X8" s="153"/>
-      <c r="Y8" s="153"/>
-      <c r="Z8" s="153"/>
-      <c r="AA8" s="153"/>
-      <c r="AB8" s="153"/>
-      <c r="AC8" s="153"/>
-      <c r="AD8" s="153"/>
-      <c r="AE8" s="153"/>
-      <c r="AF8" s="153"/>
-      <c r="AG8" s="153"/>
-      <c r="AH8" s="153"/>
-      <c r="AI8" s="153"/>
-      <c r="AJ8" s="153"/>
-      <c r="AK8" s="153"/>
-      <c r="AL8" s="153"/>
-      <c r="AM8" s="153"/>
-      <c r="AN8" s="148"/>
-      <c r="AO8" s="148"/>
-      <c r="AP8" s="148"/>
-      <c r="AQ8" s="148"/>
-      <c r="AR8" s="148"/>
-      <c r="AS8" s="148"/>
-      <c r="AT8" s="148"/>
-      <c r="AU8" s="148"/>
-      <c r="AV8" s="148"/>
-      <c r="AW8" s="148"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="150"/>
+      <c r="Y8" s="150"/>
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="150"/>
+      <c r="AB8" s="150"/>
+      <c r="AC8" s="150"/>
+      <c r="AD8" s="150"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="150"/>
+      <c r="AG8" s="150"/>
+      <c r="AH8" s="150"/>
+      <c r="AI8" s="150"/>
+      <c r="AJ8" s="150"/>
+      <c r="AK8" s="150"/>
+      <c r="AL8" s="150"/>
+      <c r="AM8" s="150"/>
+      <c r="AN8" s="138"/>
+      <c r="AO8" s="138"/>
+      <c r="AP8" s="138"/>
+      <c r="AQ8" s="138"/>
+      <c r="AR8" s="138"/>
+      <c r="AS8" s="138"/>
+      <c r="AT8" s="138"/>
+      <c r="AU8" s="138"/>
+      <c r="AV8" s="138"/>
+      <c r="AW8" s="138"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="60"/>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="151"/>
-      <c r="K9" s="151"/>
-      <c r="L9" s="151"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
       <c r="M9" s="152"/>
       <c r="N9" s="152"/>
       <c r="O9" s="152"/>
       <c r="P9" s="152"/>
       <c r="Q9" s="152"/>
       <c r="R9" s="152"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="153"/>
-      <c r="W9" s="153"/>
-      <c r="X9" s="153"/>
-      <c r="Y9" s="153"/>
-      <c r="Z9" s="153"/>
-      <c r="AA9" s="153"/>
-      <c r="AB9" s="153"/>
-      <c r="AC9" s="153"/>
-      <c r="AD9" s="153"/>
-      <c r="AE9" s="153"/>
-      <c r="AF9" s="153"/>
-      <c r="AG9" s="153"/>
-      <c r="AH9" s="153"/>
-      <c r="AI9" s="153"/>
-      <c r="AJ9" s="153"/>
-      <c r="AK9" s="153"/>
-      <c r="AL9" s="153"/>
-      <c r="AM9" s="153"/>
-      <c r="AN9" s="148"/>
-      <c r="AO9" s="148"/>
-      <c r="AP9" s="148"/>
-      <c r="AQ9" s="148"/>
-      <c r="AR9" s="148"/>
-      <c r="AS9" s="148"/>
-      <c r="AT9" s="148"/>
-      <c r="AU9" s="148"/>
-      <c r="AV9" s="148"/>
-      <c r="AW9" s="148"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="150"/>
+      <c r="X9" s="150"/>
+      <c r="Y9" s="150"/>
+      <c r="Z9" s="150"/>
+      <c r="AA9" s="150"/>
+      <c r="AB9" s="150"/>
+      <c r="AC9" s="150"/>
+      <c r="AD9" s="150"/>
+      <c r="AE9" s="150"/>
+      <c r="AF9" s="150"/>
+      <c r="AG9" s="150"/>
+      <c r="AH9" s="150"/>
+      <c r="AI9" s="150"/>
+      <c r="AJ9" s="150"/>
+      <c r="AK9" s="150"/>
+      <c r="AL9" s="150"/>
+      <c r="AM9" s="150"/>
+      <c r="AN9" s="138"/>
+      <c r="AO9" s="138"/>
+      <c r="AP9" s="138"/>
+      <c r="AQ9" s="138"/>
+      <c r="AR9" s="138"/>
+      <c r="AS9" s="138"/>
+      <c r="AT9" s="138"/>
+      <c r="AU9" s="138"/>
+      <c r="AV9" s="138"/>
+      <c r="AW9" s="138"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="60"/>
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="150"/>
-      <c r="I10" s="150"/>
-      <c r="J10" s="151"/>
-      <c r="K10" s="151"/>
-      <c r="L10" s="151"/>
+      <c r="B10" s="139"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
       <c r="M10" s="152"/>
       <c r="N10" s="152"/>
       <c r="O10" s="152"/>
       <c r="P10" s="152"/>
       <c r="Q10" s="152"/>
       <c r="R10" s="152"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="153"/>
-      <c r="W10" s="153"/>
-      <c r="X10" s="153"/>
-      <c r="Y10" s="153"/>
-      <c r="Z10" s="153"/>
-      <c r="AA10" s="153"/>
-      <c r="AB10" s="153"/>
-      <c r="AC10" s="153"/>
-      <c r="AD10" s="153"/>
-      <c r="AE10" s="153"/>
-      <c r="AF10" s="153"/>
-      <c r="AG10" s="153"/>
-      <c r="AH10" s="153"/>
-      <c r="AI10" s="153"/>
-      <c r="AJ10" s="153"/>
-      <c r="AK10" s="153"/>
-      <c r="AL10" s="153"/>
-      <c r="AM10" s="153"/>
-      <c r="AN10" s="148"/>
-      <c r="AO10" s="148"/>
-      <c r="AP10" s="148"/>
-      <c r="AQ10" s="148"/>
-      <c r="AR10" s="148"/>
-      <c r="AS10" s="148"/>
-      <c r="AT10" s="148"/>
-      <c r="AU10" s="148"/>
-      <c r="AV10" s="148"/>
-      <c r="AW10" s="148"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="150"/>
+      <c r="Y10" s="150"/>
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="150"/>
+      <c r="AD10" s="150"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="150"/>
+      <c r="AG10" s="150"/>
+      <c r="AH10" s="150"/>
+      <c r="AI10" s="150"/>
+      <c r="AJ10" s="150"/>
+      <c r="AK10" s="150"/>
+      <c r="AL10" s="150"/>
+      <c r="AM10" s="150"/>
+      <c r="AN10" s="138"/>
+      <c r="AO10" s="138"/>
+      <c r="AP10" s="138"/>
+      <c r="AQ10" s="138"/>
+      <c r="AR10" s="138"/>
+      <c r="AS10" s="138"/>
+      <c r="AT10" s="138"/>
+      <c r="AU10" s="138"/>
+      <c r="AV10" s="138"/>
+      <c r="AW10" s="138"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="60"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="149"/>
-      <c r="D11" s="149"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="154"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="155"/>
-      <c r="W11" s="156"/>
-      <c r="X11" s="156"/>
-      <c r="Y11" s="156"/>
-      <c r="Z11" s="156"/>
-      <c r="AA11" s="156"/>
-      <c r="AB11" s="156"/>
-      <c r="AC11" s="156"/>
-      <c r="AD11" s="156"/>
-      <c r="AE11" s="156"/>
-      <c r="AF11" s="156"/>
-      <c r="AG11" s="156"/>
-      <c r="AH11" s="156"/>
-      <c r="AI11" s="156"/>
-      <c r="AJ11" s="156"/>
-      <c r="AK11" s="156"/>
-      <c r="AL11" s="156"/>
-      <c r="AM11" s="156"/>
-      <c r="AN11" s="148"/>
-      <c r="AO11" s="148"/>
-      <c r="AP11" s="148"/>
-      <c r="AQ11" s="148"/>
-      <c r="AR11" s="148"/>
-      <c r="AS11" s="148"/>
-      <c r="AT11" s="148"/>
-      <c r="AU11" s="148"/>
-      <c r="AV11" s="148"/>
-      <c r="AW11" s="148"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="146"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="146"/>
+      <c r="S11" s="138"/>
+      <c r="T11" s="138"/>
+      <c r="U11" s="138"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="151"/>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="151"/>
+      <c r="Z11" s="151"/>
+      <c r="AA11" s="151"/>
+      <c r="AB11" s="151"/>
+      <c r="AC11" s="151"/>
+      <c r="AD11" s="151"/>
+      <c r="AE11" s="151"/>
+      <c r="AF11" s="151"/>
+      <c r="AG11" s="151"/>
+      <c r="AH11" s="151"/>
+      <c r="AI11" s="151"/>
+      <c r="AJ11" s="151"/>
+      <c r="AK11" s="151"/>
+      <c r="AL11" s="151"/>
+      <c r="AM11" s="151"/>
+      <c r="AN11" s="138"/>
+      <c r="AO11" s="138"/>
+      <c r="AP11" s="138"/>
+      <c r="AQ11" s="138"/>
+      <c r="AR11" s="138"/>
+      <c r="AS11" s="138"/>
+      <c r="AT11" s="138"/>
+      <c r="AU11" s="138"/>
+      <c r="AV11" s="138"/>
+      <c r="AW11" s="138"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="60"/>
-      <c r="B12" s="149"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
-      <c r="O12" s="154"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="155"/>
-      <c r="W12" s="155"/>
-      <c r="X12" s="155"/>
-      <c r="Y12" s="155"/>
-      <c r="Z12" s="155"/>
-      <c r="AA12" s="155"/>
-      <c r="AB12" s="155"/>
-      <c r="AC12" s="155"/>
-      <c r="AD12" s="155"/>
-      <c r="AE12" s="155"/>
-      <c r="AF12" s="155"/>
-      <c r="AG12" s="155"/>
-      <c r="AH12" s="155"/>
-      <c r="AI12" s="155"/>
-      <c r="AJ12" s="155"/>
-      <c r="AK12" s="155"/>
-      <c r="AL12" s="155"/>
-      <c r="AM12" s="155"/>
-      <c r="AN12" s="148"/>
-      <c r="AO12" s="148"/>
-      <c r="AP12" s="148"/>
-      <c r="AQ12" s="148"/>
-      <c r="AR12" s="148"/>
-      <c r="AS12" s="148"/>
-      <c r="AT12" s="148"/>
-      <c r="AU12" s="148"/>
-      <c r="AV12" s="148"/>
-      <c r="AW12" s="148"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="146"/>
+      <c r="S12" s="138"/>
+      <c r="T12" s="138"/>
+      <c r="U12" s="138"/>
+      <c r="V12" s="144"/>
+      <c r="W12" s="144"/>
+      <c r="X12" s="144"/>
+      <c r="Y12" s="144"/>
+      <c r="Z12" s="144"/>
+      <c r="AA12" s="144"/>
+      <c r="AB12" s="144"/>
+      <c r="AC12" s="144"/>
+      <c r="AD12" s="144"/>
+      <c r="AE12" s="144"/>
+      <c r="AF12" s="144"/>
+      <c r="AG12" s="144"/>
+      <c r="AH12" s="144"/>
+      <c r="AI12" s="144"/>
+      <c r="AJ12" s="144"/>
+      <c r="AK12" s="144"/>
+      <c r="AL12" s="144"/>
+      <c r="AM12" s="144"/>
+      <c r="AN12" s="138"/>
+      <c r="AO12" s="138"/>
+      <c r="AP12" s="138"/>
+      <c r="AQ12" s="138"/>
+      <c r="AR12" s="138"/>
+      <c r="AS12" s="138"/>
+      <c r="AT12" s="138"/>
+      <c r="AU12" s="138"/>
+      <c r="AV12" s="138"/>
+      <c r="AW12" s="138"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="60"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="155"/>
-      <c r="W13" s="155"/>
-      <c r="X13" s="155"/>
-      <c r="Y13" s="155"/>
-      <c r="Z13" s="155"/>
-      <c r="AA13" s="155"/>
-      <c r="AB13" s="155"/>
-      <c r="AC13" s="155"/>
-      <c r="AD13" s="155"/>
-      <c r="AE13" s="155"/>
-      <c r="AF13" s="155"/>
-      <c r="AG13" s="155"/>
-      <c r="AH13" s="155"/>
-      <c r="AI13" s="155"/>
-      <c r="AJ13" s="155"/>
-      <c r="AK13" s="155"/>
-      <c r="AL13" s="155"/>
-      <c r="AM13" s="155"/>
-      <c r="AN13" s="148"/>
-      <c r="AO13" s="148"/>
-      <c r="AP13" s="148"/>
-      <c r="AQ13" s="148"/>
-      <c r="AR13" s="148"/>
-      <c r="AS13" s="148"/>
-      <c r="AT13" s="148"/>
-      <c r="AU13" s="148"/>
-      <c r="AV13" s="148"/>
-      <c r="AW13" s="148"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="146"/>
+      <c r="O13" s="146"/>
+      <c r="P13" s="146"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="146"/>
+      <c r="S13" s="138"/>
+      <c r="T13" s="138"/>
+      <c r="U13" s="138"/>
+      <c r="V13" s="144"/>
+      <c r="W13" s="144"/>
+      <c r="X13" s="144"/>
+      <c r="Y13" s="144"/>
+      <c r="Z13" s="144"/>
+      <c r="AA13" s="144"/>
+      <c r="AB13" s="144"/>
+      <c r="AC13" s="144"/>
+      <c r="AD13" s="144"/>
+      <c r="AE13" s="144"/>
+      <c r="AF13" s="144"/>
+      <c r="AG13" s="144"/>
+      <c r="AH13" s="144"/>
+      <c r="AI13" s="144"/>
+      <c r="AJ13" s="144"/>
+      <c r="AK13" s="144"/>
+      <c r="AL13" s="144"/>
+      <c r="AM13" s="144"/>
+      <c r="AN13" s="138"/>
+      <c r="AO13" s="138"/>
+      <c r="AP13" s="138"/>
+      <c r="AQ13" s="138"/>
+      <c r="AR13" s="138"/>
+      <c r="AS13" s="138"/>
+      <c r="AT13" s="138"/>
+      <c r="AU13" s="138"/>
+      <c r="AV13" s="138"/>
+      <c r="AW13" s="138"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="60"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="154"/>
-      <c r="O14" s="154"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="158"/>
-      <c r="W14" s="153"/>
-      <c r="X14" s="153"/>
-      <c r="Y14" s="153"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="153"/>
-      <c r="AB14" s="153"/>
-      <c r="AC14" s="153"/>
-      <c r="AD14" s="153"/>
-      <c r="AE14" s="153"/>
-      <c r="AF14" s="153"/>
-      <c r="AG14" s="153"/>
-      <c r="AH14" s="153"/>
-      <c r="AI14" s="153"/>
-      <c r="AJ14" s="153"/>
-      <c r="AK14" s="153"/>
-      <c r="AL14" s="153"/>
-      <c r="AM14" s="153"/>
-      <c r="AN14" s="148"/>
-      <c r="AO14" s="148"/>
-      <c r="AP14" s="148"/>
-      <c r="AQ14" s="148"/>
-      <c r="AR14" s="148"/>
-      <c r="AS14" s="148"/>
-      <c r="AT14" s="148"/>
-      <c r="AU14" s="148"/>
-      <c r="AV14" s="148"/>
-      <c r="AW14" s="148"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="146"/>
+      <c r="S14" s="138"/>
+      <c r="T14" s="138"/>
+      <c r="U14" s="138"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="150"/>
+      <c r="X14" s="150"/>
+      <c r="Y14" s="150"/>
+      <c r="Z14" s="150"/>
+      <c r="AA14" s="150"/>
+      <c r="AB14" s="150"/>
+      <c r="AC14" s="150"/>
+      <c r="AD14" s="150"/>
+      <c r="AE14" s="150"/>
+      <c r="AF14" s="150"/>
+      <c r="AG14" s="150"/>
+      <c r="AH14" s="150"/>
+      <c r="AI14" s="150"/>
+      <c r="AJ14" s="150"/>
+      <c r="AK14" s="150"/>
+      <c r="AL14" s="150"/>
+      <c r="AM14" s="150"/>
+      <c r="AN14" s="138"/>
+      <c r="AO14" s="138"/>
+      <c r="AP14" s="138"/>
+      <c r="AQ14" s="138"/>
+      <c r="AR14" s="138"/>
+      <c r="AS14" s="138"/>
+      <c r="AT14" s="138"/>
+      <c r="AU14" s="138"/>
+      <c r="AV14" s="138"/>
+      <c r="AW14" s="138"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="60"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="154"/>
-      <c r="O15" s="154"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="155"/>
-      <c r="X15" s="155"/>
-      <c r="Y15" s="155"/>
-      <c r="Z15" s="155"/>
-      <c r="AA15" s="155"/>
-      <c r="AB15" s="155"/>
-      <c r="AC15" s="155"/>
-      <c r="AD15" s="155"/>
-      <c r="AE15" s="155"/>
-      <c r="AF15" s="155"/>
-      <c r="AG15" s="155"/>
-      <c r="AH15" s="155"/>
-      <c r="AI15" s="155"/>
-      <c r="AJ15" s="155"/>
-      <c r="AK15" s="155"/>
-      <c r="AL15" s="155"/>
-      <c r="AM15" s="155"/>
-      <c r="AN15" s="148"/>
-      <c r="AO15" s="148"/>
-      <c r="AP15" s="148"/>
-      <c r="AQ15" s="148"/>
-      <c r="AR15" s="148"/>
-      <c r="AS15" s="148"/>
-      <c r="AT15" s="148"/>
-      <c r="AU15" s="148"/>
-      <c r="AV15" s="148"/>
-      <c r="AW15" s="148"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="146"/>
+      <c r="P15" s="146"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="146"/>
+      <c r="S15" s="138"/>
+      <c r="T15" s="138"/>
+      <c r="U15" s="138"/>
+      <c r="V15" s="144"/>
+      <c r="W15" s="144"/>
+      <c r="X15" s="144"/>
+      <c r="Y15" s="144"/>
+      <c r="Z15" s="144"/>
+      <c r="AA15" s="144"/>
+      <c r="AB15" s="144"/>
+      <c r="AC15" s="144"/>
+      <c r="AD15" s="144"/>
+      <c r="AE15" s="144"/>
+      <c r="AF15" s="144"/>
+      <c r="AG15" s="144"/>
+      <c r="AH15" s="144"/>
+      <c r="AI15" s="144"/>
+      <c r="AJ15" s="144"/>
+      <c r="AK15" s="144"/>
+      <c r="AL15" s="144"/>
+      <c r="AM15" s="144"/>
+      <c r="AN15" s="138"/>
+      <c r="AO15" s="138"/>
+      <c r="AP15" s="138"/>
+      <c r="AQ15" s="138"/>
+      <c r="AR15" s="138"/>
+      <c r="AS15" s="138"/>
+      <c r="AT15" s="138"/>
+      <c r="AU15" s="138"/>
+      <c r="AV15" s="138"/>
+      <c r="AW15" s="138"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="60"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="154"/>
-      <c r="O16" s="154"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="155"/>
-      <c r="W16" s="155"/>
-      <c r="X16" s="155"/>
-      <c r="Y16" s="155"/>
-      <c r="Z16" s="155"/>
-      <c r="AA16" s="155"/>
-      <c r="AB16" s="155"/>
-      <c r="AC16" s="155"/>
-      <c r="AD16" s="155"/>
-      <c r="AE16" s="155"/>
-      <c r="AF16" s="155"/>
-      <c r="AG16" s="155"/>
-      <c r="AH16" s="155"/>
-      <c r="AI16" s="155"/>
-      <c r="AJ16" s="155"/>
-      <c r="AK16" s="155"/>
-      <c r="AL16" s="155"/>
-      <c r="AM16" s="155"/>
-      <c r="AN16" s="148"/>
-      <c r="AO16" s="148"/>
-      <c r="AP16" s="148"/>
-      <c r="AQ16" s="148"/>
-      <c r="AR16" s="148"/>
-      <c r="AS16" s="148"/>
-      <c r="AT16" s="148"/>
-      <c r="AU16" s="148"/>
-      <c r="AV16" s="148"/>
-      <c r="AW16" s="148"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="146"/>
+      <c r="N16" s="146"/>
+      <c r="O16" s="146"/>
+      <c r="P16" s="146"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="146"/>
+      <c r="S16" s="138"/>
+      <c r="T16" s="138"/>
+      <c r="U16" s="138"/>
+      <c r="V16" s="144"/>
+      <c r="W16" s="144"/>
+      <c r="X16" s="144"/>
+      <c r="Y16" s="144"/>
+      <c r="Z16" s="144"/>
+      <c r="AA16" s="144"/>
+      <c r="AB16" s="144"/>
+      <c r="AC16" s="144"/>
+      <c r="AD16" s="144"/>
+      <c r="AE16" s="144"/>
+      <c r="AF16" s="144"/>
+      <c r="AG16" s="144"/>
+      <c r="AH16" s="144"/>
+      <c r="AI16" s="144"/>
+      <c r="AJ16" s="144"/>
+      <c r="AK16" s="144"/>
+      <c r="AL16" s="144"/>
+      <c r="AM16" s="144"/>
+      <c r="AN16" s="138"/>
+      <c r="AO16" s="138"/>
+      <c r="AP16" s="138"/>
+      <c r="AQ16" s="138"/>
+      <c r="AR16" s="138"/>
+      <c r="AS16" s="138"/>
+      <c r="AT16" s="138"/>
+      <c r="AU16" s="138"/>
+      <c r="AV16" s="138"/>
+      <c r="AW16" s="138"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="60"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="159"/>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="155"/>
-      <c r="W17" s="155"/>
-      <c r="X17" s="155"/>
-      <c r="Y17" s="155"/>
-      <c r="Z17" s="155"/>
-      <c r="AA17" s="155"/>
-      <c r="AB17" s="155"/>
-      <c r="AC17" s="155"/>
-      <c r="AD17" s="155"/>
-      <c r="AE17" s="155"/>
-      <c r="AF17" s="155"/>
-      <c r="AG17" s="155"/>
-      <c r="AH17" s="155"/>
-      <c r="AI17" s="155"/>
-      <c r="AJ17" s="155"/>
-      <c r="AK17" s="155"/>
-      <c r="AL17" s="155"/>
-      <c r="AM17" s="155"/>
-      <c r="AN17" s="148"/>
-      <c r="AO17" s="148"/>
-      <c r="AP17" s="148"/>
-      <c r="AQ17" s="148"/>
-      <c r="AR17" s="148"/>
-      <c r="AS17" s="148"/>
-      <c r="AT17" s="148"/>
-      <c r="AU17" s="148"/>
-      <c r="AV17" s="148"/>
-      <c r="AW17" s="148"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="146"/>
+      <c r="N17" s="146"/>
+      <c r="O17" s="146"/>
+      <c r="P17" s="146"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="147"/>
+      <c r="S17" s="148"/>
+      <c r="T17" s="148"/>
+      <c r="U17" s="148"/>
+      <c r="V17" s="144"/>
+      <c r="W17" s="144"/>
+      <c r="X17" s="144"/>
+      <c r="Y17" s="144"/>
+      <c r="Z17" s="144"/>
+      <c r="AA17" s="144"/>
+      <c r="AB17" s="144"/>
+      <c r="AC17" s="144"/>
+      <c r="AD17" s="144"/>
+      <c r="AE17" s="144"/>
+      <c r="AF17" s="144"/>
+      <c r="AG17" s="144"/>
+      <c r="AH17" s="144"/>
+      <c r="AI17" s="144"/>
+      <c r="AJ17" s="144"/>
+      <c r="AK17" s="144"/>
+      <c r="AL17" s="144"/>
+      <c r="AM17" s="144"/>
+      <c r="AN17" s="138"/>
+      <c r="AO17" s="138"/>
+      <c r="AP17" s="138"/>
+      <c r="AQ17" s="138"/>
+      <c r="AR17" s="138"/>
+      <c r="AS17" s="138"/>
+      <c r="AT17" s="138"/>
+      <c r="AU17" s="138"/>
+      <c r="AV17" s="138"/>
+      <c r="AW17" s="138"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="60"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="149"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="154"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="155"/>
-      <c r="W18" s="155"/>
-      <c r="X18" s="155"/>
-      <c r="Y18" s="155"/>
-      <c r="Z18" s="155"/>
-      <c r="AA18" s="155"/>
-      <c r="AB18" s="155"/>
-      <c r="AC18" s="155"/>
-      <c r="AD18" s="155"/>
-      <c r="AE18" s="155"/>
-      <c r="AF18" s="155"/>
-      <c r="AG18" s="155"/>
-      <c r="AH18" s="155"/>
-      <c r="AI18" s="155"/>
-      <c r="AJ18" s="155"/>
-      <c r="AK18" s="155"/>
-      <c r="AL18" s="155"/>
-      <c r="AM18" s="155"/>
-      <c r="AN18" s="148"/>
-      <c r="AO18" s="148"/>
-      <c r="AP18" s="148"/>
-      <c r="AQ18" s="148"/>
-      <c r="AR18" s="148"/>
-      <c r="AS18" s="148"/>
-      <c r="AT18" s="148"/>
-      <c r="AU18" s="148"/>
-      <c r="AV18" s="148"/>
-      <c r="AW18" s="148"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="146"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="146"/>
+      <c r="S18" s="138"/>
+      <c r="T18" s="138"/>
+      <c r="U18" s="138"/>
+      <c r="V18" s="144"/>
+      <c r="W18" s="144"/>
+      <c r="X18" s="144"/>
+      <c r="Y18" s="144"/>
+      <c r="Z18" s="144"/>
+      <c r="AA18" s="144"/>
+      <c r="AB18" s="144"/>
+      <c r="AC18" s="144"/>
+      <c r="AD18" s="144"/>
+      <c r="AE18" s="144"/>
+      <c r="AF18" s="144"/>
+      <c r="AG18" s="144"/>
+      <c r="AH18" s="144"/>
+      <c r="AI18" s="144"/>
+      <c r="AJ18" s="144"/>
+      <c r="AK18" s="144"/>
+      <c r="AL18" s="144"/>
+      <c r="AM18" s="144"/>
+      <c r="AN18" s="138"/>
+      <c r="AO18" s="138"/>
+      <c r="AP18" s="138"/>
+      <c r="AQ18" s="138"/>
+      <c r="AR18" s="138"/>
+      <c r="AS18" s="138"/>
+      <c r="AT18" s="138"/>
+      <c r="AU18" s="138"/>
+      <c r="AV18" s="138"/>
+      <c r="AW18" s="138"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
-      <c r="B19" s="149"/>
-      <c r="C19" s="149"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="154"/>
-      <c r="O19" s="154"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="155"/>
-      <c r="W19" s="155"/>
-      <c r="X19" s="155"/>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="155"/>
-      <c r="AA19" s="155"/>
-      <c r="AB19" s="155"/>
-      <c r="AC19" s="155"/>
-      <c r="AD19" s="155"/>
-      <c r="AE19" s="155"/>
-      <c r="AF19" s="155"/>
-      <c r="AG19" s="155"/>
-      <c r="AH19" s="155"/>
-      <c r="AI19" s="155"/>
-      <c r="AJ19" s="155"/>
-      <c r="AK19" s="155"/>
-      <c r="AL19" s="155"/>
-      <c r="AM19" s="155"/>
-      <c r="AN19" s="148"/>
-      <c r="AO19" s="148"/>
-      <c r="AP19" s="148"/>
-      <c r="AQ19" s="148"/>
-      <c r="AR19" s="148"/>
-      <c r="AS19" s="148"/>
-      <c r="AT19" s="148"/>
-      <c r="AU19" s="148"/>
-      <c r="AV19" s="148"/>
-      <c r="AW19" s="148"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="139"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="146"/>
+      <c r="O19" s="146"/>
+      <c r="P19" s="146"/>
+      <c r="Q19" s="146"/>
+      <c r="R19" s="146"/>
+      <c r="S19" s="138"/>
+      <c r="T19" s="138"/>
+      <c r="U19" s="138"/>
+      <c r="V19" s="144"/>
+      <c r="W19" s="144"/>
+      <c r="X19" s="144"/>
+      <c r="Y19" s="144"/>
+      <c r="Z19" s="144"/>
+      <c r="AA19" s="144"/>
+      <c r="AB19" s="144"/>
+      <c r="AC19" s="144"/>
+      <c r="AD19" s="144"/>
+      <c r="AE19" s="144"/>
+      <c r="AF19" s="144"/>
+      <c r="AG19" s="144"/>
+      <c r="AH19" s="144"/>
+      <c r="AI19" s="144"/>
+      <c r="AJ19" s="144"/>
+      <c r="AK19" s="144"/>
+      <c r="AL19" s="144"/>
+      <c r="AM19" s="144"/>
+      <c r="AN19" s="138"/>
+      <c r="AO19" s="138"/>
+      <c r="AP19" s="138"/>
+      <c r="AQ19" s="138"/>
+      <c r="AR19" s="138"/>
+      <c r="AS19" s="138"/>
+      <c r="AT19" s="138"/>
+      <c r="AU19" s="138"/>
+      <c r="AV19" s="138"/>
+      <c r="AW19" s="138"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="60"/>
-      <c r="B20" s="149"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="154"/>
-      <c r="O20" s="154"/>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="155"/>
-      <c r="W20" s="155"/>
-      <c r="X20" s="155"/>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="155"/>
-      <c r="AB20" s="155"/>
-      <c r="AC20" s="155"/>
-      <c r="AD20" s="155"/>
-      <c r="AE20" s="155"/>
-      <c r="AF20" s="155"/>
-      <c r="AG20" s="155"/>
-      <c r="AH20" s="155"/>
-      <c r="AI20" s="155"/>
-      <c r="AJ20" s="155"/>
-      <c r="AK20" s="155"/>
-      <c r="AL20" s="155"/>
-      <c r="AM20" s="155"/>
-      <c r="AN20" s="148"/>
-      <c r="AO20" s="148"/>
-      <c r="AP20" s="148"/>
-      <c r="AQ20" s="148"/>
-      <c r="AR20" s="148"/>
-      <c r="AS20" s="148"/>
-      <c r="AT20" s="148"/>
-      <c r="AU20" s="148"/>
-      <c r="AV20" s="148"/>
-      <c r="AW20" s="148"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="146"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="146"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="146"/>
+      <c r="S20" s="138"/>
+      <c r="T20" s="138"/>
+      <c r="U20" s="138"/>
+      <c r="V20" s="144"/>
+      <c r="W20" s="144"/>
+      <c r="X20" s="144"/>
+      <c r="Y20" s="144"/>
+      <c r="Z20" s="144"/>
+      <c r="AA20" s="144"/>
+      <c r="AB20" s="144"/>
+      <c r="AC20" s="144"/>
+      <c r="AD20" s="144"/>
+      <c r="AE20" s="144"/>
+      <c r="AF20" s="144"/>
+      <c r="AG20" s="144"/>
+      <c r="AH20" s="144"/>
+      <c r="AI20" s="144"/>
+      <c r="AJ20" s="144"/>
+      <c r="AK20" s="144"/>
+      <c r="AL20" s="144"/>
+      <c r="AM20" s="144"/>
+      <c r="AN20" s="138"/>
+      <c r="AO20" s="138"/>
+      <c r="AP20" s="138"/>
+      <c r="AQ20" s="138"/>
+      <c r="AR20" s="138"/>
+      <c r="AS20" s="138"/>
+      <c r="AT20" s="138"/>
+      <c r="AU20" s="138"/>
+      <c r="AV20" s="138"/>
+      <c r="AW20" s="138"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="60"/>
-      <c r="B21" s="149"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="155"/>
-      <c r="W21" s="155"/>
-      <c r="X21" s="155"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="155"/>
-      <c r="AB21" s="155"/>
-      <c r="AC21" s="155"/>
-      <c r="AD21" s="155"/>
-      <c r="AE21" s="155"/>
-      <c r="AF21" s="155"/>
-      <c r="AG21" s="155"/>
-      <c r="AH21" s="155"/>
-      <c r="AI21" s="155"/>
-      <c r="AJ21" s="155"/>
-      <c r="AK21" s="155"/>
-      <c r="AL21" s="155"/>
-      <c r="AM21" s="155"/>
-      <c r="AN21" s="148"/>
-      <c r="AO21" s="148"/>
-      <c r="AP21" s="148"/>
-      <c r="AQ21" s="148"/>
-      <c r="AR21" s="148"/>
-      <c r="AS21" s="148"/>
-      <c r="AT21" s="148"/>
-      <c r="AU21" s="148"/>
-      <c r="AV21" s="148"/>
-      <c r="AW21" s="148"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="146"/>
+      <c r="S21" s="138"/>
+      <c r="T21" s="138"/>
+      <c r="U21" s="138"/>
+      <c r="V21" s="144"/>
+      <c r="W21" s="144"/>
+      <c r="X21" s="144"/>
+      <c r="Y21" s="144"/>
+      <c r="Z21" s="144"/>
+      <c r="AA21" s="144"/>
+      <c r="AB21" s="144"/>
+      <c r="AC21" s="144"/>
+      <c r="AD21" s="144"/>
+      <c r="AE21" s="144"/>
+      <c r="AF21" s="144"/>
+      <c r="AG21" s="144"/>
+      <c r="AH21" s="144"/>
+      <c r="AI21" s="144"/>
+      <c r="AJ21" s="144"/>
+      <c r="AK21" s="144"/>
+      <c r="AL21" s="144"/>
+      <c r="AM21" s="144"/>
+      <c r="AN21" s="138"/>
+      <c r="AO21" s="138"/>
+      <c r="AP21" s="138"/>
+      <c r="AQ21" s="138"/>
+      <c r="AR21" s="138"/>
+      <c r="AS21" s="138"/>
+      <c r="AT21" s="138"/>
+      <c r="AU21" s="138"/>
+      <c r="AV21" s="138"/>
+      <c r="AW21" s="138"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>
-      <c r="B22" s="149"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="154"/>
-      <c r="O22" s="154"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="155"/>
-      <c r="W22" s="155"/>
-      <c r="X22" s="155"/>
-      <c r="Y22" s="155"/>
-      <c r="Z22" s="155"/>
-      <c r="AA22" s="155"/>
-      <c r="AB22" s="155"/>
-      <c r="AC22" s="155"/>
-      <c r="AD22" s="155"/>
-      <c r="AE22" s="155"/>
-      <c r="AF22" s="155"/>
-      <c r="AG22" s="155"/>
-      <c r="AH22" s="155"/>
-      <c r="AI22" s="155"/>
-      <c r="AJ22" s="155"/>
-      <c r="AK22" s="155"/>
-      <c r="AL22" s="155"/>
-      <c r="AM22" s="155"/>
-      <c r="AN22" s="148"/>
-      <c r="AO22" s="148"/>
-      <c r="AP22" s="148"/>
-      <c r="AQ22" s="148"/>
-      <c r="AR22" s="148"/>
-      <c r="AS22" s="148"/>
-      <c r="AT22" s="148"/>
-      <c r="AU22" s="148"/>
-      <c r="AV22" s="148"/>
-      <c r="AW22" s="148"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="139"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="146"/>
+      <c r="N22" s="146"/>
+      <c r="O22" s="146"/>
+      <c r="P22" s="146"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="146"/>
+      <c r="S22" s="138"/>
+      <c r="T22" s="138"/>
+      <c r="U22" s="138"/>
+      <c r="V22" s="144"/>
+      <c r="W22" s="144"/>
+      <c r="X22" s="144"/>
+      <c r="Y22" s="144"/>
+      <c r="Z22" s="144"/>
+      <c r="AA22" s="144"/>
+      <c r="AB22" s="144"/>
+      <c r="AC22" s="144"/>
+      <c r="AD22" s="144"/>
+      <c r="AE22" s="144"/>
+      <c r="AF22" s="144"/>
+      <c r="AG22" s="144"/>
+      <c r="AH22" s="144"/>
+      <c r="AI22" s="144"/>
+      <c r="AJ22" s="144"/>
+      <c r="AK22" s="144"/>
+      <c r="AL22" s="144"/>
+      <c r="AM22" s="144"/>
+      <c r="AN22" s="138"/>
+      <c r="AO22" s="138"/>
+      <c r="AP22" s="138"/>
+      <c r="AQ22" s="138"/>
+      <c r="AR22" s="138"/>
+      <c r="AS22" s="138"/>
+      <c r="AT22" s="138"/>
+      <c r="AU22" s="138"/>
+      <c r="AV22" s="138"/>
+      <c r="AW22" s="138"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="149"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="154"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="155"/>
-      <c r="W23" s="155"/>
-      <c r="X23" s="155"/>
-      <c r="Y23" s="155"/>
-      <c r="Z23" s="155"/>
-      <c r="AA23" s="155"/>
-      <c r="AB23" s="155"/>
-      <c r="AC23" s="155"/>
-      <c r="AD23" s="155"/>
-      <c r="AE23" s="155"/>
-      <c r="AF23" s="155"/>
-      <c r="AG23" s="155"/>
-      <c r="AH23" s="155"/>
-      <c r="AI23" s="155"/>
-      <c r="AJ23" s="155"/>
-      <c r="AK23" s="155"/>
-      <c r="AL23" s="155"/>
-      <c r="AM23" s="155"/>
-      <c r="AN23" s="148"/>
-      <c r="AO23" s="148"/>
-      <c r="AP23" s="148"/>
-      <c r="AQ23" s="148"/>
-      <c r="AR23" s="148"/>
-      <c r="AS23" s="148"/>
-      <c r="AT23" s="148"/>
-      <c r="AU23" s="148"/>
-      <c r="AV23" s="148"/>
-      <c r="AW23" s="148"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="139"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="146"/>
+      <c r="N23" s="146"/>
+      <c r="O23" s="146"/>
+      <c r="P23" s="146"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="146"/>
+      <c r="S23" s="138"/>
+      <c r="T23" s="138"/>
+      <c r="U23" s="138"/>
+      <c r="V23" s="144"/>
+      <c r="W23" s="144"/>
+      <c r="X23" s="144"/>
+      <c r="Y23" s="144"/>
+      <c r="Z23" s="144"/>
+      <c r="AA23" s="144"/>
+      <c r="AB23" s="144"/>
+      <c r="AC23" s="144"/>
+      <c r="AD23" s="144"/>
+      <c r="AE23" s="144"/>
+      <c r="AF23" s="144"/>
+      <c r="AG23" s="144"/>
+      <c r="AH23" s="144"/>
+      <c r="AI23" s="144"/>
+      <c r="AJ23" s="144"/>
+      <c r="AK23" s="144"/>
+      <c r="AL23" s="144"/>
+      <c r="AM23" s="144"/>
+      <c r="AN23" s="138"/>
+      <c r="AO23" s="138"/>
+      <c r="AP23" s="138"/>
+      <c r="AQ23" s="138"/>
+      <c r="AR23" s="138"/>
+      <c r="AS23" s="138"/>
+      <c r="AT23" s="138"/>
+      <c r="AU23" s="138"/>
+      <c r="AV23" s="138"/>
+      <c r="AW23" s="138"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="155"/>
-      <c r="W24" s="155"/>
-      <c r="X24" s="155"/>
-      <c r="Y24" s="155"/>
-      <c r="Z24" s="155"/>
-      <c r="AA24" s="155"/>
-      <c r="AB24" s="155"/>
-      <c r="AC24" s="155"/>
-      <c r="AD24" s="155"/>
-      <c r="AE24" s="155"/>
-      <c r="AF24" s="155"/>
-      <c r="AG24" s="155"/>
-      <c r="AH24" s="155"/>
-      <c r="AI24" s="155"/>
-      <c r="AJ24" s="155"/>
-      <c r="AK24" s="155"/>
-      <c r="AL24" s="155"/>
-      <c r="AM24" s="155"/>
-      <c r="AN24" s="148"/>
-      <c r="AO24" s="148"/>
-      <c r="AP24" s="148"/>
-      <c r="AQ24" s="148"/>
-      <c r="AR24" s="148"/>
-      <c r="AS24" s="148"/>
-      <c r="AT24" s="148"/>
-      <c r="AU24" s="148"/>
-      <c r="AV24" s="148"/>
-      <c r="AW24" s="148"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="146"/>
+      <c r="N24" s="146"/>
+      <c r="O24" s="146"/>
+      <c r="P24" s="146"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="146"/>
+      <c r="S24" s="138"/>
+      <c r="T24" s="138"/>
+      <c r="U24" s="138"/>
+      <c r="V24" s="144"/>
+      <c r="W24" s="144"/>
+      <c r="X24" s="144"/>
+      <c r="Y24" s="144"/>
+      <c r="Z24" s="144"/>
+      <c r="AA24" s="144"/>
+      <c r="AB24" s="144"/>
+      <c r="AC24" s="144"/>
+      <c r="AD24" s="144"/>
+      <c r="AE24" s="144"/>
+      <c r="AF24" s="144"/>
+      <c r="AG24" s="144"/>
+      <c r="AH24" s="144"/>
+      <c r="AI24" s="144"/>
+      <c r="AJ24" s="144"/>
+      <c r="AK24" s="144"/>
+      <c r="AL24" s="144"/>
+      <c r="AM24" s="144"/>
+      <c r="AN24" s="138"/>
+      <c r="AO24" s="138"/>
+      <c r="AP24" s="138"/>
+      <c r="AQ24" s="138"/>
+      <c r="AR24" s="138"/>
+      <c r="AS24" s="138"/>
+      <c r="AT24" s="138"/>
+      <c r="AU24" s="138"/>
+      <c r="AV24" s="138"/>
+      <c r="AW24" s="138"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
-      <c r="B25" s="149"/>
-      <c r="C25" s="149"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="157"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="154"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
-      <c r="V25" s="155"/>
-      <c r="W25" s="155"/>
-      <c r="X25" s="155"/>
-      <c r="Y25" s="155"/>
-      <c r="Z25" s="155"/>
-      <c r="AA25" s="155"/>
-      <c r="AB25" s="155"/>
-      <c r="AC25" s="155"/>
-      <c r="AD25" s="155"/>
-      <c r="AE25" s="155"/>
-      <c r="AF25" s="155"/>
-      <c r="AG25" s="155"/>
-      <c r="AH25" s="155"/>
-      <c r="AI25" s="155"/>
-      <c r="AJ25" s="155"/>
-      <c r="AK25" s="155"/>
-      <c r="AL25" s="155"/>
-      <c r="AM25" s="155"/>
-      <c r="AN25" s="148"/>
-      <c r="AO25" s="148"/>
-      <c r="AP25" s="148"/>
-      <c r="AQ25" s="148"/>
-      <c r="AR25" s="148"/>
-      <c r="AS25" s="148"/>
-      <c r="AT25" s="148"/>
-      <c r="AU25" s="148"/>
-      <c r="AV25" s="148"/>
-      <c r="AW25" s="148"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="146"/>
+      <c r="O25" s="146"/>
+      <c r="P25" s="146"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="146"/>
+      <c r="S25" s="138"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="138"/>
+      <c r="V25" s="144"/>
+      <c r="W25" s="144"/>
+      <c r="X25" s="144"/>
+      <c r="Y25" s="144"/>
+      <c r="Z25" s="144"/>
+      <c r="AA25" s="144"/>
+      <c r="AB25" s="144"/>
+      <c r="AC25" s="144"/>
+      <c r="AD25" s="144"/>
+      <c r="AE25" s="144"/>
+      <c r="AF25" s="144"/>
+      <c r="AG25" s="144"/>
+      <c r="AH25" s="144"/>
+      <c r="AI25" s="144"/>
+      <c r="AJ25" s="144"/>
+      <c r="AK25" s="144"/>
+      <c r="AL25" s="144"/>
+      <c r="AM25" s="144"/>
+      <c r="AN25" s="138"/>
+      <c r="AO25" s="138"/>
+      <c r="AP25" s="138"/>
+      <c r="AQ25" s="138"/>
+      <c r="AR25" s="138"/>
+      <c r="AS25" s="138"/>
+      <c r="AT25" s="138"/>
+      <c r="AU25" s="138"/>
+      <c r="AV25" s="138"/>
+      <c r="AW25" s="138"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="154"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="154"/>
-      <c r="Q26" s="154"/>
-      <c r="R26" s="154"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="155"/>
-      <c r="W26" s="155"/>
-      <c r="X26" s="155"/>
-      <c r="Y26" s="155"/>
-      <c r="Z26" s="155"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="155"/>
-      <c r="AC26" s="155"/>
-      <c r="AD26" s="155"/>
-      <c r="AE26" s="155"/>
-      <c r="AF26" s="155"/>
-      <c r="AG26" s="155"/>
-      <c r="AH26" s="155"/>
-      <c r="AI26" s="155"/>
-      <c r="AJ26" s="155"/>
-      <c r="AK26" s="155"/>
-      <c r="AL26" s="155"/>
-      <c r="AM26" s="155"/>
-      <c r="AN26" s="148"/>
-      <c r="AO26" s="148"/>
-      <c r="AP26" s="148"/>
-      <c r="AQ26" s="148"/>
-      <c r="AR26" s="148"/>
-      <c r="AS26" s="148"/>
-      <c r="AT26" s="148"/>
-      <c r="AU26" s="148"/>
-      <c r="AV26" s="148"/>
-      <c r="AW26" s="148"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="139"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="146"/>
+      <c r="O26" s="146"/>
+      <c r="P26" s="146"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="146"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="144"/>
+      <c r="W26" s="144"/>
+      <c r="X26" s="144"/>
+      <c r="Y26" s="144"/>
+      <c r="Z26" s="144"/>
+      <c r="AA26" s="144"/>
+      <c r="AB26" s="144"/>
+      <c r="AC26" s="144"/>
+      <c r="AD26" s="144"/>
+      <c r="AE26" s="144"/>
+      <c r="AF26" s="144"/>
+      <c r="AG26" s="144"/>
+      <c r="AH26" s="144"/>
+      <c r="AI26" s="144"/>
+      <c r="AJ26" s="144"/>
+      <c r="AK26" s="144"/>
+      <c r="AL26" s="144"/>
+      <c r="AM26" s="144"/>
+      <c r="AN26" s="138"/>
+      <c r="AO26" s="138"/>
+      <c r="AP26" s="138"/>
+      <c r="AQ26" s="138"/>
+      <c r="AR26" s="138"/>
+      <c r="AS26" s="138"/>
+      <c r="AT26" s="138"/>
+      <c r="AU26" s="138"/>
+      <c r="AV26" s="138"/>
+      <c r="AW26" s="138"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="154"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="154"/>
-      <c r="Q27" s="154"/>
-      <c r="R27" s="154"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="148"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="155"/>
-      <c r="AC27" s="155"/>
-      <c r="AD27" s="155"/>
-      <c r="AE27" s="155"/>
-      <c r="AF27" s="155"/>
-      <c r="AG27" s="155"/>
-      <c r="AH27" s="155"/>
-      <c r="AI27" s="155"/>
-      <c r="AJ27" s="155"/>
-      <c r="AK27" s="155"/>
-      <c r="AL27" s="155"/>
-      <c r="AM27" s="155"/>
-      <c r="AN27" s="148"/>
-      <c r="AO27" s="148"/>
-      <c r="AP27" s="148"/>
-      <c r="AQ27" s="148"/>
-      <c r="AR27" s="148"/>
-      <c r="AS27" s="148"/>
-      <c r="AT27" s="148"/>
-      <c r="AU27" s="148"/>
-      <c r="AV27" s="148"/>
-      <c r="AW27" s="148"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="139"/>
+      <c r="D27" s="139"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="146"/>
+      <c r="O27" s="146"/>
+      <c r="P27" s="146"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="146"/>
+      <c r="S27" s="138"/>
+      <c r="T27" s="138"/>
+      <c r="U27" s="138"/>
+      <c r="V27" s="144"/>
+      <c r="W27" s="144"/>
+      <c r="X27" s="144"/>
+      <c r="Y27" s="144"/>
+      <c r="Z27" s="144"/>
+      <c r="AA27" s="144"/>
+      <c r="AB27" s="144"/>
+      <c r="AC27" s="144"/>
+      <c r="AD27" s="144"/>
+      <c r="AE27" s="144"/>
+      <c r="AF27" s="144"/>
+      <c r="AG27" s="144"/>
+      <c r="AH27" s="144"/>
+      <c r="AI27" s="144"/>
+      <c r="AJ27" s="144"/>
+      <c r="AK27" s="144"/>
+      <c r="AL27" s="144"/>
+      <c r="AM27" s="144"/>
+      <c r="AN27" s="138"/>
+      <c r="AO27" s="138"/>
+      <c r="AP27" s="138"/>
+      <c r="AQ27" s="138"/>
+      <c r="AR27" s="138"/>
+      <c r="AS27" s="138"/>
+      <c r="AT27" s="138"/>
+      <c r="AU27" s="138"/>
+      <c r="AV27" s="138"/>
+      <c r="AW27" s="138"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="154"/>
-      <c r="N28" s="154"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="154"/>
-      <c r="Q28" s="154"/>
-      <c r="R28" s="154"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="155"/>
-      <c r="W28" s="155"/>
-      <c r="X28" s="155"/>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-      <c r="AD28" s="155"/>
-      <c r="AE28" s="155"/>
-      <c r="AF28" s="155"/>
-      <c r="AG28" s="155"/>
-      <c r="AH28" s="155"/>
-      <c r="AI28" s="155"/>
-      <c r="AJ28" s="155"/>
-      <c r="AK28" s="155"/>
-      <c r="AL28" s="155"/>
-      <c r="AM28" s="155"/>
-      <c r="AN28" s="148"/>
-      <c r="AO28" s="148"/>
-      <c r="AP28" s="148"/>
-      <c r="AQ28" s="148"/>
-      <c r="AR28" s="148"/>
-      <c r="AS28" s="148"/>
-      <c r="AT28" s="148"/>
-      <c r="AU28" s="148"/>
-      <c r="AV28" s="148"/>
-      <c r="AW28" s="148"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="146"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="146"/>
+      <c r="S28" s="138"/>
+      <c r="T28" s="138"/>
+      <c r="U28" s="138"/>
+      <c r="V28" s="144"/>
+      <c r="W28" s="144"/>
+      <c r="X28" s="144"/>
+      <c r="Y28" s="144"/>
+      <c r="Z28" s="144"/>
+      <c r="AA28" s="144"/>
+      <c r="AB28" s="144"/>
+      <c r="AC28" s="144"/>
+      <c r="AD28" s="144"/>
+      <c r="AE28" s="144"/>
+      <c r="AF28" s="144"/>
+      <c r="AG28" s="144"/>
+      <c r="AH28" s="144"/>
+      <c r="AI28" s="144"/>
+      <c r="AJ28" s="144"/>
+      <c r="AK28" s="144"/>
+      <c r="AL28" s="144"/>
+      <c r="AM28" s="144"/>
+      <c r="AN28" s="138"/>
+      <c r="AO28" s="138"/>
+      <c r="AP28" s="138"/>
+      <c r="AQ28" s="138"/>
+      <c r="AR28" s="138"/>
+      <c r="AS28" s="138"/>
+      <c r="AT28" s="138"/>
+      <c r="AU28" s="138"/>
+      <c r="AV28" s="138"/>
+      <c r="AW28" s="138"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
-      <c r="B29" s="149"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="154"/>
-      <c r="N29" s="154"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="154"/>
-      <c r="Q29" s="154"/>
-      <c r="R29" s="154"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="148"/>
-      <c r="V29" s="155"/>
-      <c r="W29" s="155"/>
-      <c r="X29" s="155"/>
-      <c r="Y29" s="155"/>
-      <c r="Z29" s="155"/>
-      <c r="AA29" s="155"/>
-      <c r="AB29" s="155"/>
-      <c r="AC29" s="155"/>
-      <c r="AD29" s="155"/>
-      <c r="AE29" s="155"/>
-      <c r="AF29" s="155"/>
-      <c r="AG29" s="155"/>
-      <c r="AH29" s="155"/>
-      <c r="AI29" s="155"/>
-      <c r="AJ29" s="155"/>
-      <c r="AK29" s="155"/>
-      <c r="AL29" s="155"/>
-      <c r="AM29" s="155"/>
-      <c r="AN29" s="148"/>
-      <c r="AO29" s="148"/>
-      <c r="AP29" s="148"/>
-      <c r="AQ29" s="148"/>
-      <c r="AR29" s="148"/>
-      <c r="AS29" s="148"/>
-      <c r="AT29" s="148"/>
-      <c r="AU29" s="148"/>
-      <c r="AV29" s="148"/>
-      <c r="AW29" s="148"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="146"/>
+      <c r="S29" s="138"/>
+      <c r="T29" s="138"/>
+      <c r="U29" s="138"/>
+      <c r="V29" s="144"/>
+      <c r="W29" s="144"/>
+      <c r="X29" s="144"/>
+      <c r="Y29" s="144"/>
+      <c r="Z29" s="144"/>
+      <c r="AA29" s="144"/>
+      <c r="AB29" s="144"/>
+      <c r="AC29" s="144"/>
+      <c r="AD29" s="144"/>
+      <c r="AE29" s="144"/>
+      <c r="AF29" s="144"/>
+      <c r="AG29" s="144"/>
+      <c r="AH29" s="144"/>
+      <c r="AI29" s="144"/>
+      <c r="AJ29" s="144"/>
+      <c r="AK29" s="144"/>
+      <c r="AL29" s="144"/>
+      <c r="AM29" s="144"/>
+      <c r="AN29" s="138"/>
+      <c r="AO29" s="138"/>
+      <c r="AP29" s="138"/>
+      <c r="AQ29" s="138"/>
+      <c r="AR29" s="138"/>
+      <c r="AS29" s="138"/>
+      <c r="AT29" s="138"/>
+      <c r="AU29" s="138"/>
+      <c r="AV29" s="138"/>
+      <c r="AW29" s="138"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="157"/>
-      <c r="N30" s="154"/>
-      <c r="O30" s="154"/>
-      <c r="P30" s="154"/>
-      <c r="Q30" s="154"/>
-      <c r="R30" s="154"/>
-      <c r="S30" s="148"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="148"/>
-      <c r="V30" s="155"/>
-      <c r="W30" s="155"/>
-      <c r="X30" s="155"/>
-      <c r="Y30" s="155"/>
-      <c r="Z30" s="155"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="155"/>
-      <c r="AC30" s="155"/>
-      <c r="AD30" s="155"/>
-      <c r="AE30" s="155"/>
-      <c r="AF30" s="155"/>
-      <c r="AG30" s="155"/>
-      <c r="AH30" s="155"/>
-      <c r="AI30" s="155"/>
-      <c r="AJ30" s="155"/>
-      <c r="AK30" s="155"/>
-      <c r="AL30" s="155"/>
-      <c r="AM30" s="155"/>
-      <c r="AN30" s="148"/>
-      <c r="AO30" s="148"/>
-      <c r="AP30" s="148"/>
-      <c r="AQ30" s="148"/>
-      <c r="AR30" s="148"/>
-      <c r="AS30" s="148"/>
-      <c r="AT30" s="148"/>
-      <c r="AU30" s="148"/>
-      <c r="AV30" s="148"/>
-      <c r="AW30" s="148"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="141"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="146"/>
+      <c r="S30" s="138"/>
+      <c r="T30" s="138"/>
+      <c r="U30" s="138"/>
+      <c r="V30" s="144"/>
+      <c r="W30" s="144"/>
+      <c r="X30" s="144"/>
+      <c r="Y30" s="144"/>
+      <c r="Z30" s="144"/>
+      <c r="AA30" s="144"/>
+      <c r="AB30" s="144"/>
+      <c r="AC30" s="144"/>
+      <c r="AD30" s="144"/>
+      <c r="AE30" s="144"/>
+      <c r="AF30" s="144"/>
+      <c r="AG30" s="144"/>
+      <c r="AH30" s="144"/>
+      <c r="AI30" s="144"/>
+      <c r="AJ30" s="144"/>
+      <c r="AK30" s="144"/>
+      <c r="AL30" s="144"/>
+      <c r="AM30" s="144"/>
+      <c r="AN30" s="138"/>
+      <c r="AO30" s="138"/>
+      <c r="AP30" s="138"/>
+      <c r="AQ30" s="138"/>
+      <c r="AR30" s="138"/>
+      <c r="AS30" s="138"/>
+      <c r="AT30" s="138"/>
+      <c r="AU30" s="138"/>
+      <c r="AV30" s="138"/>
+      <c r="AW30" s="138"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="157"/>
-      <c r="N31" s="154"/>
-      <c r="O31" s="154"/>
-      <c r="P31" s="154"/>
-      <c r="Q31" s="154"/>
-      <c r="R31" s="154"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="148"/>
-      <c r="V31" s="155"/>
-      <c r="W31" s="155"/>
-      <c r="X31" s="155"/>
-      <c r="Y31" s="155"/>
-      <c r="Z31" s="155"/>
-      <c r="AA31" s="155"/>
-      <c r="AB31" s="155"/>
-      <c r="AC31" s="155"/>
-      <c r="AD31" s="155"/>
-      <c r="AE31" s="155"/>
-      <c r="AF31" s="155"/>
-      <c r="AG31" s="155"/>
-      <c r="AH31" s="155"/>
-      <c r="AI31" s="155"/>
-      <c r="AJ31" s="155"/>
-      <c r="AK31" s="155"/>
-      <c r="AL31" s="155"/>
-      <c r="AM31" s="155"/>
-      <c r="AN31" s="148"/>
-      <c r="AO31" s="148"/>
-      <c r="AP31" s="148"/>
-      <c r="AQ31" s="148"/>
-      <c r="AR31" s="148"/>
-      <c r="AS31" s="148"/>
-      <c r="AT31" s="148"/>
-      <c r="AU31" s="148"/>
-      <c r="AV31" s="148"/>
-      <c r="AW31" s="148"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="138"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="138"/>
+      <c r="V31" s="144"/>
+      <c r="W31" s="144"/>
+      <c r="X31" s="144"/>
+      <c r="Y31" s="144"/>
+      <c r="Z31" s="144"/>
+      <c r="AA31" s="144"/>
+      <c r="AB31" s="144"/>
+      <c r="AC31" s="144"/>
+      <c r="AD31" s="144"/>
+      <c r="AE31" s="144"/>
+      <c r="AF31" s="144"/>
+      <c r="AG31" s="144"/>
+      <c r="AH31" s="144"/>
+      <c r="AI31" s="144"/>
+      <c r="AJ31" s="144"/>
+      <c r="AK31" s="144"/>
+      <c r="AL31" s="144"/>
+      <c r="AM31" s="144"/>
+      <c r="AN31" s="138"/>
+      <c r="AO31" s="138"/>
+      <c r="AP31" s="138"/>
+      <c r="AQ31" s="138"/>
+      <c r="AR31" s="138"/>
+      <c r="AS31" s="138"/>
+      <c r="AT31" s="138"/>
+      <c r="AU31" s="138"/>
+      <c r="AV31" s="138"/>
+      <c r="AW31" s="138"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="157"/>
-      <c r="N32" s="154"/>
-      <c r="O32" s="154"/>
-      <c r="P32" s="154"/>
-      <c r="Q32" s="154"/>
-      <c r="R32" s="154"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="155"/>
-      <c r="W32" s="155"/>
-      <c r="X32" s="155"/>
-      <c r="Y32" s="155"/>
-      <c r="Z32" s="155"/>
-      <c r="AA32" s="155"/>
-      <c r="AB32" s="155"/>
-      <c r="AC32" s="155"/>
-      <c r="AD32" s="155"/>
-      <c r="AE32" s="155"/>
-      <c r="AF32" s="155"/>
-      <c r="AG32" s="155"/>
-      <c r="AH32" s="155"/>
-      <c r="AI32" s="155"/>
-      <c r="AJ32" s="155"/>
-      <c r="AK32" s="155"/>
-      <c r="AL32" s="155"/>
-      <c r="AM32" s="155"/>
-      <c r="AN32" s="148"/>
-      <c r="AO32" s="148"/>
-      <c r="AP32" s="148"/>
-      <c r="AQ32" s="148"/>
-      <c r="AR32" s="148"/>
-      <c r="AS32" s="148"/>
-      <c r="AT32" s="148"/>
-      <c r="AU32" s="148"/>
-      <c r="AV32" s="148"/>
-      <c r="AW32" s="148"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="141"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="145"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="146"/>
+      <c r="S32" s="138"/>
+      <c r="T32" s="138"/>
+      <c r="U32" s="138"/>
+      <c r="V32" s="144"/>
+      <c r="W32" s="144"/>
+      <c r="X32" s="144"/>
+      <c r="Y32" s="144"/>
+      <c r="Z32" s="144"/>
+      <c r="AA32" s="144"/>
+      <c r="AB32" s="144"/>
+      <c r="AC32" s="144"/>
+      <c r="AD32" s="144"/>
+      <c r="AE32" s="144"/>
+      <c r="AF32" s="144"/>
+      <c r="AG32" s="144"/>
+      <c r="AH32" s="144"/>
+      <c r="AI32" s="144"/>
+      <c r="AJ32" s="144"/>
+      <c r="AK32" s="144"/>
+      <c r="AL32" s="144"/>
+      <c r="AM32" s="144"/>
+      <c r="AN32" s="138"/>
+      <c r="AO32" s="138"/>
+      <c r="AP32" s="138"/>
+      <c r="AQ32" s="138"/>
+      <c r="AR32" s="138"/>
+      <c r="AS32" s="138"/>
+      <c r="AT32" s="138"/>
+      <c r="AU32" s="138"/>
+      <c r="AV32" s="138"/>
+      <c r="AW32" s="138"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="149"/>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="157"/>
-      <c r="N33" s="154"/>
-      <c r="O33" s="154"/>
-      <c r="P33" s="154"/>
-      <c r="Q33" s="154"/>
-      <c r="R33" s="154"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="155"/>
-      <c r="W33" s="155"/>
-      <c r="X33" s="155"/>
-      <c r="Y33" s="155"/>
-      <c r="Z33" s="155"/>
-      <c r="AA33" s="155"/>
-      <c r="AB33" s="155"/>
-      <c r="AC33" s="155"/>
-      <c r="AD33" s="155"/>
-      <c r="AE33" s="155"/>
-      <c r="AF33" s="155"/>
-      <c r="AG33" s="155"/>
-      <c r="AH33" s="155"/>
-      <c r="AI33" s="155"/>
-      <c r="AJ33" s="155"/>
-      <c r="AK33" s="155"/>
-      <c r="AL33" s="155"/>
-      <c r="AM33" s="155"/>
-      <c r="AN33" s="148"/>
-      <c r="AO33" s="148"/>
-      <c r="AP33" s="148"/>
-      <c r="AQ33" s="148"/>
-      <c r="AR33" s="148"/>
-      <c r="AS33" s="148"/>
-      <c r="AT33" s="148"/>
-      <c r="AU33" s="148"/>
-      <c r="AV33" s="148"/>
-      <c r="AW33" s="148"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="139"/>
+      <c r="D33" s="139"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="145"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="146"/>
+      <c r="S33" s="138"/>
+      <c r="T33" s="138"/>
+      <c r="U33" s="138"/>
+      <c r="V33" s="144"/>
+      <c r="W33" s="144"/>
+      <c r="X33" s="144"/>
+      <c r="Y33" s="144"/>
+      <c r="Z33" s="144"/>
+      <c r="AA33" s="144"/>
+      <c r="AB33" s="144"/>
+      <c r="AC33" s="144"/>
+      <c r="AD33" s="144"/>
+      <c r="AE33" s="144"/>
+      <c r="AF33" s="144"/>
+      <c r="AG33" s="144"/>
+      <c r="AH33" s="144"/>
+      <c r="AI33" s="144"/>
+      <c r="AJ33" s="144"/>
+      <c r="AK33" s="144"/>
+      <c r="AL33" s="144"/>
+      <c r="AM33" s="144"/>
+      <c r="AN33" s="138"/>
+      <c r="AO33" s="138"/>
+      <c r="AP33" s="138"/>
+      <c r="AQ33" s="138"/>
+      <c r="AR33" s="138"/>
+      <c r="AS33" s="138"/>
+      <c r="AT33" s="138"/>
+      <c r="AU33" s="138"/>
+      <c r="AV33" s="138"/>
+      <c r="AW33" s="138"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="161"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="162"/>
-      <c r="P34" s="162"/>
-      <c r="Q34" s="162"/>
-      <c r="R34" s="162"/>
-      <c r="S34" s="148"/>
-      <c r="T34" s="148"/>
-      <c r="U34" s="148"/>
-      <c r="V34" s="155"/>
-      <c r="W34" s="155"/>
-      <c r="X34" s="155"/>
-      <c r="Y34" s="155"/>
-      <c r="Z34" s="155"/>
-      <c r="AA34" s="155"/>
-      <c r="AB34" s="155"/>
-      <c r="AC34" s="155"/>
-      <c r="AD34" s="155"/>
-      <c r="AE34" s="155"/>
-      <c r="AF34" s="155"/>
-      <c r="AG34" s="155"/>
-      <c r="AH34" s="155"/>
-      <c r="AI34" s="155"/>
-      <c r="AJ34" s="155"/>
-      <c r="AK34" s="155"/>
-      <c r="AL34" s="155"/>
-      <c r="AM34" s="155"/>
-      <c r="AN34" s="148"/>
-      <c r="AO34" s="148"/>
-      <c r="AP34" s="148"/>
-      <c r="AQ34" s="148"/>
-      <c r="AR34" s="148"/>
-      <c r="AS34" s="148"/>
-      <c r="AT34" s="148"/>
-      <c r="AU34" s="148"/>
-      <c r="AV34" s="148"/>
-      <c r="AW34" s="148"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="141"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="141"/>
+      <c r="M34" s="142"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="143"/>
+      <c r="P34" s="143"/>
+      <c r="Q34" s="143"/>
+      <c r="R34" s="143"/>
+      <c r="S34" s="138"/>
+      <c r="T34" s="138"/>
+      <c r="U34" s="138"/>
+      <c r="V34" s="144"/>
+      <c r="W34" s="144"/>
+      <c r="X34" s="144"/>
+      <c r="Y34" s="144"/>
+      <c r="Z34" s="144"/>
+      <c r="AA34" s="144"/>
+      <c r="AB34" s="144"/>
+      <c r="AC34" s="144"/>
+      <c r="AD34" s="144"/>
+      <c r="AE34" s="144"/>
+      <c r="AF34" s="144"/>
+      <c r="AG34" s="144"/>
+      <c r="AH34" s="144"/>
+      <c r="AI34" s="144"/>
+      <c r="AJ34" s="144"/>
+      <c r="AK34" s="144"/>
+      <c r="AL34" s="144"/>
+      <c r="AM34" s="144"/>
+      <c r="AN34" s="138"/>
+      <c r="AO34" s="138"/>
+      <c r="AP34" s="138"/>
+      <c r="AQ34" s="138"/>
+      <c r="AR34" s="138"/>
+      <c r="AS34" s="138"/>
+      <c r="AT34" s="138"/>
+      <c r="AU34" s="138"/>
+      <c r="AV34" s="138"/>
+      <c r="AW34" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -7171,239 +7407,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7484,14 +7487,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="169">
+      <c r="AO1" s="167">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
-      <c r="AP1" s="170"/>
-      <c r="AQ1" s="170"/>
-      <c r="AR1" s="170"/>
-      <c r="AS1" s="171"/>
+      <c r="AP1" s="168"/>
+      <c r="AQ1" s="168"/>
+      <c r="AR1" s="168"/>
+      <c r="AS1" s="169"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -7500,17 +7503,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="172" t="str">
+      <c r="AZ1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="BA1" s="173"/>
-      <c r="BB1" s="173"/>
-      <c r="BC1" s="173"/>
-      <c r="BD1" s="173"/>
-      <c r="BE1" s="173"/>
-      <c r="BF1" s="173"/>
-      <c r="BG1" s="174"/>
+      <c r="BA1" s="171"/>
+      <c r="BB1" s="171"/>
+      <c r="BC1" s="171"/>
+      <c r="BD1" s="171"/>
+      <c r="BE1" s="171"/>
+      <c r="BF1" s="171"/>
+      <c r="BG1" s="172"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -7563,11 +7566,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="169"/>
-      <c r="AP2" s="170"/>
-      <c r="AQ2" s="170"/>
-      <c r="AR2" s="170"/>
-      <c r="AS2" s="171"/>
+      <c r="AO2" s="167"/>
+      <c r="AP2" s="168"/>
+      <c r="AQ2" s="168"/>
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="169"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -7576,14 +7579,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="172"/>
-      <c r="BA2" s="173"/>
-      <c r="BB2" s="173"/>
-      <c r="BC2" s="173"/>
-      <c r="BD2" s="173"/>
-      <c r="BE2" s="173"/>
-      <c r="BF2" s="173"/>
-      <c r="BG2" s="174"/>
+      <c r="AZ2" s="170"/>
+      <c r="BA2" s="171"/>
+      <c r="BB2" s="171"/>
+      <c r="BC2" s="171"/>
+      <c r="BD2" s="171"/>
+      <c r="BE2" s="171"/>
+      <c r="BF2" s="171"/>
+      <c r="BG2" s="172"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -8402,7 +8405,7 @@
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
@@ -8579,7 +8582,7 @@
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="AJ33" s="11"/>
       <c r="AK33" s="11"/>
@@ -8604,11 +8607,11 @@
     <row r="34" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G34" s="9"/>
       <c r="J34" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="N34" s="9"/>
       <c r="P34" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
@@ -8616,7 +8619,7 @@
       <c r="W34" s="9"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Z34" s="9"/>
       <c r="AA34" s="9"/>
@@ -8628,7 +8631,7 @@
       <c r="AG34" s="9"/>
       <c r="AH34" s="9"/>
       <c r="AI34" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AJ34" s="11"/>
       <c r="AK34" s="11"/>
@@ -8674,7 +8677,7 @@
       <c r="AG35" s="9"/>
       <c r="AH35" s="9"/>
       <c r="AI35" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AJ35" s="11"/>
       <c r="AK35" s="11"/>
@@ -8982,10 +8985,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
-      <c r="B45" s="165" t="s">
+      <c r="B45" s="173" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="166"/>
+      <c r="C45" s="174"/>
       <c r="D45" s="91" t="s">
         <v>102</v>
       </c>
@@ -9068,10 +9071,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="28"/>
-      <c r="B46" s="167">
+      <c r="B46" s="165">
         <v>1</v>
       </c>
-      <c r="C46" s="168"/>
+      <c r="C46" s="166"/>
       <c r="D46" s="96" t="s">
         <v>132</v>
       </c>
@@ -9146,10 +9149,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="28"/>
-      <c r="B47" s="167">
+      <c r="B47" s="165">
         <v>2</v>
       </c>
-      <c r="C47" s="168"/>
+      <c r="C47" s="166"/>
       <c r="D47" s="96" t="s">
         <v>109</v>
       </c>
@@ -9192,7 +9195,7 @@
       <c r="AK47" s="163"/>
       <c r="AL47" s="164"/>
       <c r="AM47" s="86" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AN47" s="87"/>
       <c r="AO47" s="87"/>
@@ -9224,10 +9227,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="28"/>
-      <c r="B48" s="167">
+      <c r="B48" s="165">
         <v>3</v>
       </c>
-      <c r="C48" s="168"/>
+      <c r="C48" s="166"/>
       <c r="D48" s="96" t="s">
         <v>109</v>
       </c>
@@ -9238,7 +9241,7 @@
       <c r="I48" s="89"/>
       <c r="J48" s="97"/>
       <c r="K48" s="96" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L48" s="89"/>
       <c r="M48" s="89"/>
@@ -9302,10 +9305,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="28"/>
-      <c r="B49" s="167">
+      <c r="B49" s="165">
         <v>4</v>
       </c>
-      <c r="C49" s="168"/>
+      <c r="C49" s="166"/>
       <c r="D49" s="126" t="s">
         <v>109</v>
       </c>
@@ -9316,7 +9319,7 @@
       <c r="I49" s="89"/>
       <c r="J49" s="127"/>
       <c r="K49" s="126" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
@@ -9380,10 +9383,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="28"/>
-      <c r="B50" s="167">
+      <c r="B50" s="165">
         <v>5</v>
       </c>
-      <c r="C50" s="168"/>
+      <c r="C50" s="166"/>
       <c r="D50" s="96" t="s">
         <v>109</v>
       </c>
@@ -9458,12 +9461,12 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="28"/>
-      <c r="B51" s="167">
+      <c r="B51" s="165">
         <v>6</v>
       </c>
-      <c r="C51" s="168"/>
+      <c r="C51" s="166"/>
       <c r="D51" s="126" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E51" s="89"/>
       <c r="F51" s="89"/>
@@ -9472,7 +9475,7 @@
       <c r="I51" s="89"/>
       <c r="J51" s="127"/>
       <c r="K51" s="126" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L51" s="89"/>
       <c r="M51" s="89"/>
@@ -9536,12 +9539,12 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="28"/>
-      <c r="B52" s="167">
+      <c r="B52" s="165">
         <v>7</v>
       </c>
-      <c r="C52" s="168"/>
+      <c r="C52" s="166"/>
       <c r="D52" s="126" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E52" s="89"/>
       <c r="F52" s="89"/>
@@ -9550,7 +9553,7 @@
       <c r="I52" s="89"/>
       <c r="J52" s="127"/>
       <c r="K52" s="126" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="L52" s="89"/>
       <c r="M52" s="89"/>
@@ -9614,12 +9617,12 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="28"/>
-      <c r="B53" s="167">
+      <c r="B53" s="165">
         <v>8</v>
       </c>
-      <c r="C53" s="168"/>
+      <c r="C53" s="166"/>
       <c r="D53" s="126" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E53" s="89"/>
       <c r="F53" s="89"/>
@@ -9628,7 +9631,7 @@
       <c r="I53" s="89"/>
       <c r="J53" s="127"/>
       <c r="K53" s="126" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L53" s="89"/>
       <c r="M53" s="89"/>
@@ -9697,33 +9700,8 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
-    <mergeCell ref="AI49:AJ49"/>
-    <mergeCell ref="AK49:AL49"/>
-    <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ1:BG1"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AK47:AL47"/>
-    <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AI50:AJ50"/>
-    <mergeCell ref="AI47:AJ47"/>
-    <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI46:AJ46"/>
     <mergeCell ref="AI53:AJ53"/>
     <mergeCell ref="AI52:AJ52"/>
     <mergeCell ref="AK53:AL53"/>
@@ -9740,8 +9718,33 @@
     <mergeCell ref="AE47:AF47"/>
     <mergeCell ref="AE52:AF52"/>
     <mergeCell ref="AE53:AF53"/>
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AK47:AL47"/>
+    <mergeCell ref="AK48:AL48"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AI50:AJ50"/>
+    <mergeCell ref="AI47:AJ47"/>
+    <mergeCell ref="AI48:AJ48"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ1:BG1"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AK52:AL52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AI49:AJ49"/>
+    <mergeCell ref="AK49:AL49"/>
+    <mergeCell ref="AK50:AL50"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="AG51:AH51"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AI51:AJ51"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -9865,7 +9868,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="169">
+      <c r="CD1" s="167">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -9887,7 +9890,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="172" t="str">
+      <c r="CU1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -10018,7 +10021,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="172"/>
+      <c r="CU2" s="170"/>
       <c r="CV2" s="175"/>
       <c r="CW2" s="175"/>
       <c r="CX2" s="175"/>
@@ -10234,37 +10237,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="140" t="s">
+      <c r="E6" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="140" t="s">
+      <c r="F6" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="140" t="s">
+      <c r="H6" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="181" t="s">
+      <c r="I6" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="181" t="s">
+      <c r="J6" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="140" t="s">
+      <c r="K6" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="140" t="s">
+      <c r="L6" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="140" t="s">
+      <c r="M6" s="155" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="70" t="s">
@@ -10272,24 +10275,24 @@
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
-      <c r="Q6" s="181" t="s">
+      <c r="Q6" s="183" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="155"/>
       <c r="N7" s="42" t="s">
         <v>80</v>
       </c>
@@ -10299,7 +10302,7 @@
       <c r="P7" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" s="181"/>
+      <c r="Q7" s="183"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -10439,7 +10442,7 @@
       </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -10502,37 +10505,37 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="140" t="s">
+      <c r="D14" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="140" t="s">
+      <c r="E14" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="140" t="s">
+      <c r="F14" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="140" t="s">
+      <c r="G14" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="140" t="s">
+      <c r="H14" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="182" t="s">
+      <c r="I14" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="181" t="s">
+      <c r="J14" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="140" t="s">
+      <c r="K14" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="140" t="s">
+      <c r="L14" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="140" t="s">
+      <c r="M14" s="155" t="s">
         <v>32</v>
       </c>
       <c r="N14" s="70" t="s">
@@ -10540,24 +10543,24 @@
       </c>
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
-      <c r="Q14" s="182" t="s">
+      <c r="Q14" s="181" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="182"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
       <c r="N15" s="42" t="s">
         <v>80</v>
       </c>
@@ -10567,7 +10570,7 @@
       <c r="P15" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="Q15" s="183"/>
+      <c r="Q15" s="182"/>
     </row>
     <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
@@ -10579,13 +10582,13 @@
         <v>172</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>151</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>118</v>
@@ -10597,13 +10600,13 @@
         <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>170</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>34</v>
@@ -10628,13 +10631,13 @@
         <v>173</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>118</v>
@@ -10646,13 +10649,13 @@
         <v>36</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>170</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>34</v>
@@ -10713,7 +10716,7 @@
         <v>174</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -10729,7 +10732,7 @@
         <v>147</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G19" s="43" t="s">
         <v>35</v>
@@ -10759,10 +10762,10 @@
         <v>33</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -10796,7 +10799,7 @@
         <v>169</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>33</v>
@@ -10882,37 +10885,37 @@
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="62"/>
-      <c r="C25" s="140" t="s">
+      <c r="C25" s="155" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="140" t="s">
+      <c r="D25" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="140" t="s">
+      <c r="E25" s="155" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="140" t="s">
+      <c r="G25" s="155" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="140" t="s">
+      <c r="H25" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="181" t="s">
+      <c r="I25" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="181" t="s">
+      <c r="J25" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="140" t="s">
+      <c r="K25" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="140" t="s">
+      <c r="L25" s="155" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="140" t="s">
+      <c r="M25" s="155" t="s">
         <v>32</v>
       </c>
       <c r="N25" s="70" t="s">
@@ -10920,24 +10923,24 @@
       </c>
       <c r="O25" s="70"/>
       <c r="P25" s="70"/>
-      <c r="Q25" s="181" t="s">
+      <c r="Q25" s="183" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="62"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="140"/>
-      <c r="L26" s="140"/>
-      <c r="M26" s="140"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
       <c r="N26" s="42" t="s">
         <v>80</v>
       </c>
@@ -10947,7 +10950,7 @@
       <c r="P26" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="Q26" s="181"/>
+      <c r="Q26" s="183"/>
     </row>
     <row r="27" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="55"/>
@@ -11032,7 +11035,7 @@
         <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>45</v>
@@ -11062,7 +11065,7 @@
         <v>34</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>34</v>
@@ -11081,7 +11084,7 @@
         <v>158</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>45</v>
@@ -11111,7 +11114,7 @@
         <v>34</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>34</v>
@@ -11130,7 +11133,7 @@
         <v>159</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G31" s="43" t="s">
         <v>45</v>
@@ -11160,7 +11163,7 @@
         <v>34</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>178</v>
+        <v>332</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>34</v>
@@ -11194,7 +11197,7 @@
         <v>34</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>34</v>
@@ -11212,7 +11215,7 @@
         <v>34</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11252,7 +11255,7 @@
         <v>33</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>34</v>
@@ -11261,7 +11264,7 @@
         <v>34</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -11310,7 +11313,7 @@
         <v>34</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -11340,6 +11343,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="I25:I26"/>
@@ -11356,26 +11379,6 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="M25:M26"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11452,7 +11455,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="169">
+      <c r="AI1" s="167">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -11468,7 +11471,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="172" t="str">
+      <c r="AT1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -11539,7 +11542,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="172"/>
+      <c r="AT2" s="170"/>
       <c r="AU2" s="175"/>
       <c r="AV2" s="175"/>
       <c r="AW2" s="175"/>
@@ -11896,7 +11899,7 @@
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
       <c r="L11" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -11949,7 +11952,7 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
@@ -12000,7 +12003,7 @@
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
@@ -12052,7 +12055,7 @@
       <c r="K14" s="23"/>
       <c r="L14" s="73"/>
       <c r="M14" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
@@ -12103,7 +12106,7 @@
       <c r="K15" s="23"/>
       <c r="L15" s="73"/>
       <c r="N15" s="134" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P15" s="99"/>
       <c r="Q15" s="99"/>
@@ -12152,7 +12155,7 @@
       <c r="K16" s="23"/>
       <c r="L16" s="73"/>
       <c r="O16" s="99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P16" s="99"/>
       <c r="Q16" s="99"/>
@@ -12201,7 +12204,7 @@
       <c r="K17" s="23"/>
       <c r="L17" s="73"/>
       <c r="O17" s="99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P17" s="99"/>
       <c r="Q17" s="99"/>
@@ -12250,7 +12253,7 @@
       <c r="K18" s="129"/>
       <c r="L18" s="130"/>
       <c r="O18" s="134" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P18" s="134"/>
       <c r="Q18" s="134"/>
@@ -12299,7 +12302,7 @@
       <c r="K19" s="129"/>
       <c r="L19" s="130"/>
       <c r="O19" s="134" t="s">
-        <v>245</v>
+        <v>334</v>
       </c>
       <c r="P19" s="134"/>
       <c r="Q19" s="134"/>
@@ -12348,7 +12351,7 @@
       <c r="K20" s="129"/>
       <c r="L20" s="130"/>
       <c r="O20" s="134" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P20" s="134"/>
       <c r="Q20" s="134"/>
@@ -12397,7 +12400,7 @@
       <c r="K21" s="129"/>
       <c r="L21" s="130"/>
       <c r="O21" s="134" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P21" s="134"/>
       <c r="Q21" s="134"/>
@@ -12446,7 +12449,7 @@
       <c r="K22" s="129"/>
       <c r="L22" s="130"/>
       <c r="O22" s="134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P22" s="134"/>
       <c r="Q22" s="134"/>
@@ -12542,7 +12545,7 @@
       <c r="K24" s="129"/>
       <c r="L24" s="130"/>
       <c r="O24" s="134" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P24" s="134"/>
       <c r="Q24" s="134"/>
@@ -12592,7 +12595,7 @@
       <c r="L25" s="130"/>
       <c r="O25" s="134"/>
       <c r="P25" s="134" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q25" s="134"/>
       <c r="R25" s="134"/>
@@ -12687,7 +12690,7 @@
       <c r="K27" s="23"/>
       <c r="L27" s="73"/>
       <c r="N27" s="99" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P27" s="99"/>
       <c r="Q27" s="99"/>
@@ -12736,7 +12739,7 @@
       <c r="K28" s="129"/>
       <c r="L28" s="130"/>
       <c r="O28" s="134" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P28" s="134"/>
       <c r="Q28" s="134"/>
@@ -12785,7 +12788,7 @@
       <c r="K29" s="129"/>
       <c r="L29" s="130"/>
       <c r="O29" s="134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P29" s="132"/>
       <c r="Q29" s="132"/>
@@ -12837,7 +12840,7 @@
       <c r="N30" s="132"/>
       <c r="O30" s="134"/>
       <c r="P30" s="132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q30" s="132"/>
       <c r="R30" s="132"/>
@@ -12888,7 +12891,7 @@
       <c r="N31" s="132"/>
       <c r="O31" s="134"/>
       <c r="P31" s="132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q31" s="132"/>
       <c r="R31" s="132"/>
@@ -12938,7 +12941,7 @@
       <c r="M32" s="132"/>
       <c r="N32" s="132"/>
       <c r="O32" s="134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P32" s="132"/>
       <c r="Q32" s="132"/>
@@ -12990,7 +12993,7 @@
       <c r="N33" s="132"/>
       <c r="O33" s="134"/>
       <c r="P33" s="132" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q33" s="132"/>
       <c r="R33" s="132"/>
@@ -13039,7 +13042,7 @@
       <c r="L34" s="73"/>
       <c r="O34" s="99"/>
       <c r="P34" s="99" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q34" s="99"/>
       <c r="R34" s="99"/>
@@ -13087,7 +13090,7 @@
       <c r="K35" s="23"/>
       <c r="L35" s="73"/>
       <c r="O35" s="99" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P35" s="75"/>
       <c r="Q35" s="75"/>
@@ -13139,7 +13142,7 @@
       <c r="N36" s="75"/>
       <c r="O36" s="99"/>
       <c r="P36" s="132" t="s">
-        <v>266</v>
+        <v>331</v>
       </c>
       <c r="Q36" s="75"/>
       <c r="R36" s="75"/>
@@ -13189,7 +13192,7 @@
       <c r="M37" s="132"/>
       <c r="N37" s="132"/>
       <c r="O37" s="134" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P37" s="132"/>
       <c r="Q37" s="132"/>
@@ -13241,7 +13244,7 @@
       <c r="N38" s="132"/>
       <c r="O38" s="134"/>
       <c r="P38" s="132" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q38" s="132"/>
       <c r="R38" s="132"/>
@@ -13292,7 +13295,7 @@
       <c r="N39" s="132"/>
       <c r="O39" s="134"/>
       <c r="P39" s="132" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q39" s="132"/>
       <c r="R39" s="132"/>
@@ -13342,7 +13345,7 @@
       <c r="M40" s="132"/>
       <c r="N40" s="132"/>
       <c r="O40" s="134" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P40" s="132"/>
       <c r="Q40" s="132"/>
@@ -13394,7 +13397,7 @@
       <c r="N41" s="132"/>
       <c r="O41" s="134"/>
       <c r="P41" s="132" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q41" s="132"/>
       <c r="R41" s="132"/>
@@ -13445,7 +13448,7 @@
       <c r="N42" s="132"/>
       <c r="O42" s="134"/>
       <c r="P42" s="132" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q42" s="132"/>
       <c r="R42" s="132"/>
@@ -13496,7 +13499,7 @@
       <c r="N43" s="132"/>
       <c r="O43" s="134"/>
       <c r="P43" s="132" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q43" s="132"/>
       <c r="R43" s="132"/>
@@ -13547,7 +13550,7 @@
       <c r="N44" s="132"/>
       <c r="O44" s="134"/>
       <c r="P44" s="132" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q44" s="132"/>
       <c r="R44" s="132"/>
@@ -13598,7 +13601,7 @@
       <c r="N45" s="132"/>
       <c r="O45" s="134"/>
       <c r="P45" s="132" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q45" s="132"/>
       <c r="R45" s="132"/>
@@ -13648,7 +13651,7 @@
       <c r="M46" s="132"/>
       <c r="N46" s="132"/>
       <c r="O46" s="134" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P46" s="132"/>
       <c r="Q46" s="132"/>
@@ -13700,7 +13703,7 @@
       <c r="N47" s="132"/>
       <c r="O47" s="134"/>
       <c r="P47" s="132" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q47" s="132"/>
       <c r="R47" s="132"/>
@@ -13751,7 +13754,7 @@
       <c r="N48" s="132"/>
       <c r="O48" s="134"/>
       <c r="P48" s="132" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q48" s="132"/>
       <c r="R48" s="132"/>
@@ -13801,7 +13804,7 @@
       <c r="M49" s="132"/>
       <c r="N49" s="132"/>
       <c r="O49" s="134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P49" s="132"/>
       <c r="Q49" s="132"/>
@@ -13853,7 +13856,7 @@
       <c r="N50" s="132"/>
       <c r="O50" s="134"/>
       <c r="P50" s="132" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q50" s="132"/>
       <c r="R50" s="132"/>
@@ -13904,7 +13907,7 @@
       <c r="N51" s="132"/>
       <c r="O51" s="134"/>
       <c r="P51" s="132" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q51" s="132"/>
       <c r="R51" s="132"/>
@@ -14002,7 +14005,7 @@
       <c r="L53" s="73"/>
       <c r="M53" s="75"/>
       <c r="N53" s="98" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P53" s="98"/>
       <c r="Q53" s="98"/>
@@ -14053,7 +14056,7 @@
       <c r="M54" s="23"/>
       <c r="N54" s="23"/>
       <c r="O54" s="98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P54" s="98"/>
       <c r="Q54" s="98"/>
@@ -14065,10 +14068,10 @@
       <c r="W54" s="98"/>
       <c r="X54" s="98"/>
       <c r="Z54" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA54" s="101" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AB54" s="98"/>
       <c r="AC54" s="98"/>
@@ -14103,7 +14106,7 @@
       <c r="M55" s="23"/>
       <c r="N55" s="23"/>
       <c r="O55" s="98" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P55" s="98"/>
       <c r="Q55" s="98"/>
@@ -14115,10 +14118,10 @@
       <c r="W55" s="98"/>
       <c r="X55" s="98"/>
       <c r="Z55" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA55" s="101" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AB55" s="98"/>
       <c r="AC55" s="98"/>
@@ -14153,7 +14156,7 @@
       <c r="M56" s="23"/>
       <c r="N56" s="23"/>
       <c r="O56" s="98" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P56" s="98"/>
       <c r="Q56" s="98"/>
@@ -14164,27 +14167,27 @@
       <c r="V56" s="98"/>
       <c r="W56" s="98"/>
       <c r="X56" s="98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z56" s="98"/>
       <c r="AA56" s="98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB56" s="98"/>
       <c r="AC56" s="98"/>
       <c r="AD56" s="98"/>
       <c r="AF56" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH56" s="98" t="s">
         <v>189</v>
-      </c>
-      <c r="AH56" s="98" t="s">
-        <v>190</v>
       </c>
       <c r="AI56" s="98"/>
       <c r="AJ56" s="98"/>
       <c r="AK56" s="98"/>
       <c r="AL56" s="100"/>
       <c r="AM56" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN56" s="23"/>
       <c r="AO56" s="23"/>
@@ -14211,7 +14214,7 @@
       <c r="M57" s="132"/>
       <c r="N57" s="132"/>
       <c r="O57" s="133" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P57" s="133"/>
       <c r="Q57" s="133"/>
@@ -14223,10 +14226,10 @@
       <c r="W57" s="133"/>
       <c r="X57" s="133"/>
       <c r="Z57" s="133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA57" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AB57" s="133"/>
       <c r="AC57" s="133"/>
@@ -14260,7 +14263,7 @@
       <c r="M58" s="75"/>
       <c r="N58" s="75"/>
       <c r="O58" s="98" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P58" s="98"/>
       <c r="Q58" s="98"/>
@@ -14272,11 +14275,11 @@
       <c r="W58" s="98"/>
       <c r="X58" s="98"/>
       <c r="Y58" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z58" s="98"/>
       <c r="AA58" s="98" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB58" s="98"/>
       <c r="AC58" s="98"/>
@@ -14285,7 +14288,7 @@
       <c r="AK58" s="98"/>
       <c r="AL58" s="100"/>
       <c r="AM58" s="98" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN58" s="75"/>
       <c r="AO58" s="75"/>
@@ -14312,7 +14315,7 @@
       <c r="M59" s="75"/>
       <c r="N59" s="75"/>
       <c r="O59" s="98" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P59" s="98"/>
       <c r="Q59" s="98"/>
@@ -14324,10 +14327,10 @@
       <c r="W59" s="98"/>
       <c r="X59" s="98"/>
       <c r="Z59" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA59" s="98" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB59" s="98"/>
       <c r="AC59" s="98"/>
@@ -14336,7 +14339,7 @@
       <c r="AK59" s="98"/>
       <c r="AL59" s="100"/>
       <c r="AM59" s="98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN59" s="75"/>
       <c r="AO59" s="75"/>
@@ -14363,7 +14366,7 @@
       <c r="M60" s="75"/>
       <c r="N60" s="75"/>
       <c r="O60" s="98" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P60" s="98"/>
       <c r="Q60" s="98"/>
@@ -14375,10 +14378,10 @@
       <c r="W60" s="98"/>
       <c r="X60" s="98"/>
       <c r="Z60" s="98" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA60" s="98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB60" s="98"/>
       <c r="AC60" s="98"/>
@@ -14387,7 +14390,7 @@
       <c r="AK60" s="98"/>
       <c r="AL60" s="100"/>
       <c r="AM60" s="98" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AN60" s="75"/>
       <c r="AO60" s="75"/>
@@ -14439,7 +14442,7 @@
       <c r="L62" s="73"/>
       <c r="M62" s="75"/>
       <c r="N62" s="98" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AM62" s="75"/>
       <c r="AN62" s="75"/>
@@ -14467,7 +14470,7 @@
       <c r="M63" s="75"/>
       <c r="N63" s="75"/>
       <c r="O63" s="134" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AM63" s="75"/>
       <c r="AN63" s="75"/>
@@ -14495,7 +14498,7 @@
       <c r="M64" s="75"/>
       <c r="N64" s="75"/>
       <c r="O64" s="134" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AM64" s="75"/>
       <c r="AN64" s="75"/>
@@ -14523,7 +14526,7 @@
       <c r="M65" s="75"/>
       <c r="N65" s="75"/>
       <c r="O65" s="134" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AM65" s="75"/>
       <c r="AN65" s="75"/>
@@ -14551,7 +14554,7 @@
       <c r="M66" s="75"/>
       <c r="N66" s="75"/>
       <c r="O66" s="134" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="AM66" s="75"/>
       <c r="AN66" s="75"/>
@@ -14579,7 +14582,7 @@
       <c r="M67" s="132"/>
       <c r="N67" s="132"/>
       <c r="O67" s="134" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM67" s="132"/>
       <c r="AN67" s="132"/>
@@ -14607,7 +14610,7 @@
       <c r="M68" s="132"/>
       <c r="N68" s="132"/>
       <c r="O68" s="134" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM68" s="132"/>
       <c r="AN68" s="132"/>
@@ -14635,7 +14638,7 @@
       <c r="M69" s="75"/>
       <c r="N69" s="75"/>
       <c r="O69" s="134" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM69" s="75"/>
       <c r="AN69" s="75"/>
@@ -14687,7 +14690,7 @@
       <c r="L71" s="73"/>
       <c r="M71" s="75"/>
       <c r="N71" s="98" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM71" s="75"/>
       <c r="AN71" s="75"/>
@@ -14715,7 +14718,7 @@
       <c r="M72" s="75"/>
       <c r="N72" s="75"/>
       <c r="O72" s="16" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AM72" s="75"/>
       <c r="AN72" s="75"/>
@@ -14743,7 +14746,7 @@
       <c r="M73" s="75"/>
       <c r="N73" s="75"/>
       <c r="O73" s="128" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="AM73" s="75"/>
       <c r="AN73" s="75"/>
@@ -14818,7 +14821,7 @@
       <c r="K75" s="129"/>
       <c r="L75" s="130"/>
       <c r="M75" s="129" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N75" s="129"/>
       <c r="O75" s="129"/>
@@ -14869,7 +14872,7 @@
       <c r="K76" s="129"/>
       <c r="L76" s="130"/>
       <c r="N76" s="134" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P76" s="134"/>
       <c r="Q76" s="134"/>
@@ -14918,7 +14921,7 @@
       <c r="K77" s="129"/>
       <c r="L77" s="130"/>
       <c r="O77" s="134" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P77" s="134"/>
       <c r="Q77" s="134"/>
@@ -14967,7 +14970,7 @@
       <c r="K78" s="129"/>
       <c r="L78" s="130"/>
       <c r="O78" s="134" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P78" s="134"/>
       <c r="Q78" s="134"/>
@@ -15016,7 +15019,7 @@
       <c r="K79" s="129"/>
       <c r="L79" s="130"/>
       <c r="O79" s="134" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="P79" s="134"/>
       <c r="Q79" s="134"/>
@@ -15065,7 +15068,7 @@
       <c r="K80" s="129"/>
       <c r="L80" s="130"/>
       <c r="O80" s="134" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P80" s="134"/>
       <c r="Q80" s="134"/>
@@ -15114,7 +15117,7 @@
       <c r="K81" s="129"/>
       <c r="L81" s="130"/>
       <c r="O81" s="134" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P81" s="134"/>
       <c r="Q81" s="134"/>
@@ -15163,7 +15166,7 @@
       <c r="K82" s="129"/>
       <c r="L82" s="130"/>
       <c r="O82" s="134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P82" s="134"/>
       <c r="Q82" s="134"/>
@@ -15259,7 +15262,7 @@
       <c r="K84" s="129"/>
       <c r="L84" s="130"/>
       <c r="O84" s="134" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P84" s="134"/>
       <c r="Q84" s="134"/>
@@ -15309,7 +15312,7 @@
       <c r="L85" s="130"/>
       <c r="O85" s="134"/>
       <c r="P85" s="134" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q85" s="134"/>
       <c r="R85" s="134"/>
@@ -15404,7 +15407,7 @@
       <c r="K87" s="129"/>
       <c r="L87" s="130"/>
       <c r="N87" s="134" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P87" s="134"/>
       <c r="Q87" s="134"/>
@@ -15453,7 +15456,7 @@
       <c r="K88" s="129"/>
       <c r="L88" s="130"/>
       <c r="O88" s="134" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P88" s="134"/>
       <c r="Q88" s="134"/>
@@ -15502,7 +15505,7 @@
       <c r="K89" s="129"/>
       <c r="L89" s="130"/>
       <c r="O89" s="134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P89" s="132"/>
       <c r="Q89" s="132"/>
@@ -15554,7 +15557,7 @@
       <c r="N90" s="132"/>
       <c r="O90" s="134"/>
       <c r="P90" s="132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q90" s="132"/>
       <c r="R90" s="132"/>
@@ -15605,7 +15608,7 @@
       <c r="N91" s="132"/>
       <c r="O91" s="134"/>
       <c r="P91" s="132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q91" s="132"/>
       <c r="R91" s="132"/>
@@ -15655,7 +15658,7 @@
       <c r="M92" s="132"/>
       <c r="N92" s="132"/>
       <c r="O92" s="134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P92" s="132"/>
       <c r="Q92" s="132"/>
@@ -15707,7 +15710,7 @@
       <c r="N93" s="132"/>
       <c r="O93" s="134"/>
       <c r="P93" s="132" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q93" s="132"/>
       <c r="R93" s="132"/>
@@ -15756,7 +15759,7 @@
       <c r="L94" s="130"/>
       <c r="O94" s="134"/>
       <c r="P94" s="134" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="Q94" s="134"/>
       <c r="R94" s="134"/>
@@ -15804,7 +15807,7 @@
       <c r="K95" s="129"/>
       <c r="L95" s="130"/>
       <c r="O95" s="134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P95" s="132"/>
       <c r="Q95" s="132"/>
@@ -15856,7 +15859,7 @@
       <c r="N96" s="132"/>
       <c r="O96" s="134"/>
       <c r="P96" s="132" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q96" s="132"/>
       <c r="R96" s="132"/>
@@ -15906,7 +15909,7 @@
       <c r="M97" s="132"/>
       <c r="N97" s="132"/>
       <c r="O97" s="134" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P97" s="132"/>
       <c r="Q97" s="132"/>
@@ -15958,7 +15961,7 @@
       <c r="N98" s="132"/>
       <c r="O98" s="134"/>
       <c r="P98" s="132" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q98" s="132"/>
       <c r="R98" s="132"/>
@@ -16009,7 +16012,7 @@
       <c r="N99" s="132"/>
       <c r="O99" s="134"/>
       <c r="P99" s="132" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q99" s="132"/>
       <c r="R99" s="132"/>
@@ -16059,7 +16062,7 @@
       <c r="M100" s="132"/>
       <c r="N100" s="132"/>
       <c r="O100" s="134" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P100" s="132"/>
       <c r="Q100" s="132"/>
@@ -16111,7 +16114,7 @@
       <c r="N101" s="132"/>
       <c r="O101" s="134"/>
       <c r="P101" s="132" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q101" s="132"/>
       <c r="R101" s="132"/>
@@ -16162,7 +16165,7 @@
       <c r="N102" s="132"/>
       <c r="O102" s="134"/>
       <c r="P102" s="132" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q102" s="132"/>
       <c r="R102" s="132"/>
@@ -16213,7 +16216,7 @@
       <c r="N103" s="132"/>
       <c r="O103" s="134"/>
       <c r="P103" s="132" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q103" s="132"/>
       <c r="R103" s="132"/>
@@ -16264,7 +16267,7 @@
       <c r="N104" s="132"/>
       <c r="O104" s="134"/>
       <c r="P104" s="132" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q104" s="132"/>
       <c r="R104" s="132"/>
@@ -16315,7 +16318,7 @@
       <c r="N105" s="132"/>
       <c r="O105" s="134"/>
       <c r="P105" s="132" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q105" s="132"/>
       <c r="R105" s="132"/>
@@ -16365,7 +16368,7 @@
       <c r="M106" s="132"/>
       <c r="N106" s="132"/>
       <c r="O106" s="134" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P106" s="132"/>
       <c r="Q106" s="132"/>
@@ -16417,7 +16420,7 @@
       <c r="N107" s="132"/>
       <c r="O107" s="134"/>
       <c r="P107" s="132" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q107" s="132"/>
       <c r="R107" s="132"/>
@@ -16468,7 +16471,7 @@
       <c r="N108" s="132"/>
       <c r="O108" s="134"/>
       <c r="P108" s="132" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q108" s="132"/>
       <c r="R108" s="132"/>
@@ -16566,7 +16569,7 @@
       <c r="L110" s="130"/>
       <c r="M110" s="132"/>
       <c r="N110" s="133" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P110" s="133"/>
       <c r="Q110" s="133"/>
@@ -16617,7 +16620,7 @@
       <c r="M111" s="129"/>
       <c r="N111" s="129"/>
       <c r="O111" s="133" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P111" s="133"/>
       <c r="Q111" s="133"/>
@@ -16629,10 +16632,10 @@
       <c r="W111" s="133"/>
       <c r="X111" s="133"/>
       <c r="Z111" s="133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA111" s="101" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AB111" s="133"/>
       <c r="AC111" s="133"/>
@@ -16667,7 +16670,7 @@
       <c r="M112" s="129"/>
       <c r="N112" s="129"/>
       <c r="O112" s="133" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="P112" s="133"/>
       <c r="Q112" s="133"/>
@@ -16679,10 +16682,10 @@
       <c r="W112" s="133"/>
       <c r="X112" s="133"/>
       <c r="Z112" s="133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA112" s="101" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AB112" s="133"/>
       <c r="AC112" s="133"/>
@@ -16717,7 +16720,7 @@
       <c r="M113" s="129"/>
       <c r="N113" s="129"/>
       <c r="O113" s="133" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P113" s="133"/>
       <c r="Q113" s="133"/>
@@ -16728,27 +16731,27 @@
       <c r="V113" s="133"/>
       <c r="W113" s="133"/>
       <c r="X113" s="133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z113" s="133"/>
       <c r="AA113" s="133" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB113" s="133"/>
       <c r="AC113" s="133"/>
       <c r="AD113" s="133"/>
       <c r="AF113" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH113" s="133" t="s">
         <v>189</v>
-      </c>
-      <c r="AH113" s="133" t="s">
-        <v>190</v>
       </c>
       <c r="AI113" s="133"/>
       <c r="AJ113" s="133"/>
       <c r="AK113" s="133"/>
       <c r="AL113" s="100"/>
       <c r="AM113" s="129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN113" s="129"/>
       <c r="AO113" s="129"/>
@@ -16775,7 +16778,7 @@
       <c r="M114" s="132"/>
       <c r="N114" s="132"/>
       <c r="O114" s="133" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P114" s="133"/>
       <c r="Q114" s="133"/>
@@ -16787,10 +16790,10 @@
       <c r="W114" s="133"/>
       <c r="X114" s="133"/>
       <c r="Z114" s="133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA114" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AB114" s="133"/>
       <c r="AC114" s="133"/>
@@ -16824,7 +16827,7 @@
       <c r="M115" s="132"/>
       <c r="N115" s="132"/>
       <c r="O115" s="133" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P115" s="133"/>
       <c r="Q115" s="133"/>
@@ -16836,11 +16839,11 @@
       <c r="W115" s="133"/>
       <c r="X115" s="133"/>
       <c r="Y115" s="128" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z115" s="133"/>
       <c r="AA115" s="133" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB115" s="133"/>
       <c r="AC115" s="133"/>
@@ -16849,7 +16852,7 @@
       <c r="AK115" s="133"/>
       <c r="AL115" s="100"/>
       <c r="AM115" s="133" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AN115" s="132"/>
       <c r="AO115" s="132"/>
@@ -16876,7 +16879,7 @@
       <c r="M116" s="132"/>
       <c r="N116" s="132"/>
       <c r="O116" s="133" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P116" s="133"/>
       <c r="Q116" s="133"/>
@@ -16888,10 +16891,10 @@
       <c r="W116" s="133"/>
       <c r="X116" s="133"/>
       <c r="Z116" s="133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA116" s="133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AB116" s="133"/>
       <c r="AC116" s="133"/>
@@ -16900,7 +16903,7 @@
       <c r="AK116" s="133"/>
       <c r="AL116" s="100"/>
       <c r="AM116" s="133" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AN116" s="132"/>
       <c r="AO116" s="132"/>
@@ -16927,7 +16930,7 @@
       <c r="M117" s="132"/>
       <c r="N117" s="132"/>
       <c r="O117" s="133" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="P117" s="133"/>
       <c r="Q117" s="133"/>
@@ -16939,10 +16942,10 @@
       <c r="W117" s="133"/>
       <c r="X117" s="133"/>
       <c r="Z117" s="133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA117" s="133" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AB117" s="133"/>
       <c r="AC117" s="133"/>
@@ -16951,7 +16954,7 @@
       <c r="AK117" s="133"/>
       <c r="AL117" s="100"/>
       <c r="AM117" s="133" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AN117" s="132"/>
       <c r="AO117" s="132"/>
@@ -17003,7 +17006,7 @@
       <c r="L119" s="130"/>
       <c r="M119" s="132"/>
       <c r="N119" s="133" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AM119" s="132"/>
       <c r="AN119" s="132"/>
@@ -17031,7 +17034,7 @@
       <c r="M120" s="132"/>
       <c r="N120" s="132"/>
       <c r="O120" s="134" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AM120" s="132"/>
       <c r="AN120" s="132"/>
@@ -17059,7 +17062,7 @@
       <c r="M121" s="132"/>
       <c r="N121" s="132"/>
       <c r="O121" s="134" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AM121" s="132"/>
       <c r="AN121" s="132"/>
@@ -17087,7 +17090,7 @@
       <c r="M122" s="132"/>
       <c r="N122" s="132"/>
       <c r="O122" s="134" t="s">
-        <v>245</v>
+        <v>333</v>
       </c>
       <c r="AM122" s="132"/>
       <c r="AN122" s="132"/>
@@ -17115,7 +17118,7 @@
       <c r="M123" s="132"/>
       <c r="N123" s="132"/>
       <c r="O123" s="134" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AM123" s="132"/>
       <c r="AN123" s="132"/>
@@ -17143,7 +17146,7 @@
       <c r="M124" s="132"/>
       <c r="N124" s="132"/>
       <c r="O124" s="134" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AM124" s="132"/>
       <c r="AN124" s="132"/>
@@ -17171,7 +17174,7 @@
       <c r="M125" s="132"/>
       <c r="N125" s="132"/>
       <c r="O125" s="134" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AM125" s="132"/>
       <c r="AN125" s="132"/>
@@ -17223,7 +17226,7 @@
       <c r="L127" s="130"/>
       <c r="M127" s="132"/>
       <c r="N127" s="133" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AM127" s="132"/>
       <c r="AN127" s="132"/>
@@ -17251,7 +17254,7 @@
       <c r="M128" s="132"/>
       <c r="N128" s="132"/>
       <c r="O128" s="128" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AM128" s="132"/>
       <c r="AN128" s="132"/>
@@ -17279,7 +17282,7 @@
       <c r="M129" s="132"/>
       <c r="N129" s="132"/>
       <c r="O129" s="128" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="AM129" s="132"/>
       <c r="AN129" s="132"/>
@@ -17353,10 +17356,10 @@
       <c r="J131" s="23"/>
       <c r="K131" s="23"/>
       <c r="L131" s="73" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M131" s="75" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="N131" s="75"/>
       <c r="O131" s="75"/>
@@ -17407,7 +17410,7 @@
       <c r="K132" s="23"/>
       <c r="L132" s="73"/>
       <c r="M132" s="129" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N132" s="75"/>
       <c r="O132" s="75"/>
@@ -17458,7 +17461,7 @@
       <c r="K133" s="23"/>
       <c r="L133" s="73"/>
       <c r="N133" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O133" s="98"/>
       <c r="P133" s="98"/>
@@ -17508,7 +17511,7 @@
       <c r="K134" s="23"/>
       <c r="L134" s="73"/>
       <c r="O134" s="98" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P134" s="98"/>
       <c r="Q134" s="98"/>
@@ -17557,7 +17560,7 @@
       <c r="K135" s="23"/>
       <c r="L135" s="73"/>
       <c r="O135" s="98" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P135" s="98"/>
       <c r="Q135" s="98"/>
@@ -17606,7 +17609,7 @@
       <c r="K136" s="129"/>
       <c r="L136" s="130"/>
       <c r="O136" s="133" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P136" s="133"/>
       <c r="Q136" s="133"/>
@@ -17655,7 +17658,7 @@
       <c r="K137" s="23"/>
       <c r="L137" s="73"/>
       <c r="O137" s="98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P137" s="98"/>
       <c r="Q137" s="98"/>
@@ -17752,7 +17755,7 @@
       <c r="K139" s="23"/>
       <c r="L139" s="73"/>
       <c r="N139" s="134" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O139" s="98"/>
       <c r="P139" s="98"/>
@@ -17802,7 +17805,7 @@
       <c r="K140" s="23"/>
       <c r="L140" s="73"/>
       <c r="O140" s="98" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P140" s="98"/>
       <c r="Q140" s="98"/>
@@ -17852,7 +17855,7 @@
       <c r="L141" s="130"/>
       <c r="N141" s="133"/>
       <c r="O141" s="133" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P141" s="133"/>
       <c r="Q141" s="133"/>
@@ -17903,7 +17906,7 @@
       <c r="N142" s="133"/>
       <c r="O142" s="133"/>
       <c r="P142" s="133" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q142" s="133"/>
       <c r="R142" s="133"/>
@@ -17953,7 +17956,7 @@
       <c r="N143" s="133"/>
       <c r="O143" s="133"/>
       <c r="P143" s="133" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q143" s="133"/>
       <c r="R143" s="133"/>
@@ -18050,7 +18053,7 @@
       <c r="L145" s="130"/>
       <c r="M145" s="132"/>
       <c r="N145" s="133" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P145" s="133"/>
       <c r="Q145" s="133"/>
@@ -18101,7 +18104,7 @@
       <c r="M146" s="129"/>
       <c r="N146" s="129"/>
       <c r="O146" s="133" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P146" s="133"/>
       <c r="Q146" s="133"/>
@@ -18113,10 +18116,10 @@
       <c r="W146" s="133"/>
       <c r="X146" s="133"/>
       <c r="Z146" s="133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA146" s="101" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AB146" s="133"/>
       <c r="AC146" s="133"/>
@@ -18151,7 +18154,7 @@
       <c r="M147" s="129"/>
       <c r="N147" s="129"/>
       <c r="O147" s="133" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P147" s="133"/>
       <c r="Q147" s="133"/>
@@ -18162,27 +18165,27 @@
       <c r="V147" s="133"/>
       <c r="W147" s="133"/>
       <c r="X147" s="133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z147" s="133"/>
       <c r="AA147" s="133" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB147" s="133"/>
       <c r="AC147" s="133"/>
       <c r="AD147" s="133"/>
       <c r="AF147" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH147" s="133" t="s">
         <v>189</v>
-      </c>
-      <c r="AH147" s="133" t="s">
-        <v>190</v>
       </c>
       <c r="AI147" s="133"/>
       <c r="AJ147" s="133"/>
       <c r="AK147" s="133"/>
       <c r="AL147" s="100"/>
       <c r="AM147" s="129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN147" s="129"/>
       <c r="AO147" s="129"/>
@@ -18209,7 +18212,7 @@
       <c r="M148" s="132"/>
       <c r="N148" s="132"/>
       <c r="O148" s="133" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P148" s="133"/>
       <c r="Q148" s="133"/>
@@ -18221,10 +18224,10 @@
       <c r="W148" s="133"/>
       <c r="X148" s="133"/>
       <c r="Z148" s="133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA148" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AB148" s="133"/>
       <c r="AC148" s="133"/>
@@ -18305,7 +18308,7 @@
       <c r="L150" s="130"/>
       <c r="M150" s="132"/>
       <c r="N150" s="133" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AM150" s="132"/>
       <c r="AN150" s="132"/>
@@ -18333,7 +18336,7 @@
       <c r="M151" s="132"/>
       <c r="N151" s="132"/>
       <c r="O151" s="134" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AM151" s="132"/>
       <c r="AN151" s="132"/>
@@ -18361,7 +18364,7 @@
       <c r="M152" s="132"/>
       <c r="N152" s="132"/>
       <c r="O152" s="134" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AM152" s="132"/>
       <c r="AN152" s="132"/>
@@ -18389,7 +18392,7 @@
       <c r="M153" s="132"/>
       <c r="N153" s="132"/>
       <c r="O153" s="134" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AM153" s="132"/>
       <c r="AN153" s="132"/>
@@ -18464,7 +18467,7 @@
       <c r="K155" s="129"/>
       <c r="L155" s="130"/>
       <c r="M155" s="129" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N155" s="132"/>
       <c r="O155" s="132"/>
@@ -18515,7 +18518,7 @@
       <c r="K156" s="129"/>
       <c r="L156" s="130"/>
       <c r="N156" s="133" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O156" s="133"/>
       <c r="P156" s="133"/>
@@ -18565,7 +18568,7 @@
       <c r="K157" s="129"/>
       <c r="L157" s="130"/>
       <c r="O157" s="133" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P157" s="133"/>
       <c r="Q157" s="133"/>
@@ -18614,7 +18617,7 @@
       <c r="K158" s="129"/>
       <c r="L158" s="130"/>
       <c r="O158" s="133" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="P158" s="133"/>
       <c r="Q158" s="133"/>
@@ -18663,7 +18666,7 @@
       <c r="K159" s="129"/>
       <c r="L159" s="130"/>
       <c r="O159" s="133" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P159" s="133"/>
       <c r="Q159" s="133"/>
@@ -18760,7 +18763,7 @@
       <c r="K161" s="129"/>
       <c r="L161" s="130"/>
       <c r="N161" s="134" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O161" s="133"/>
       <c r="P161" s="133"/>
@@ -18810,7 +18813,7 @@
       <c r="K162" s="129"/>
       <c r="L162" s="130"/>
       <c r="O162" s="133" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P162" s="133"/>
       <c r="Q162" s="133"/>
@@ -18908,7 +18911,7 @@
       <c r="L164" s="130"/>
       <c r="M164" s="132"/>
       <c r="N164" s="133" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P164" s="133"/>
       <c r="Q164" s="133"/>
@@ -18959,7 +18962,7 @@
       <c r="M165" s="129"/>
       <c r="N165" s="129"/>
       <c r="O165" s="133" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P165" s="133"/>
       <c r="Q165" s="133"/>
@@ -18971,10 +18974,10 @@
       <c r="W165" s="133"/>
       <c r="X165" s="133"/>
       <c r="Z165" s="133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA165" s="101" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AB165" s="133"/>
       <c r="AC165" s="133"/>
@@ -19009,7 +19012,7 @@
       <c r="M166" s="129"/>
       <c r="N166" s="129"/>
       <c r="O166" s="133" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P166" s="133"/>
       <c r="Q166" s="133"/>
@@ -19020,27 +19023,27 @@
       <c r="V166" s="133"/>
       <c r="W166" s="133"/>
       <c r="X166" s="133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z166" s="133"/>
       <c r="AA166" s="133" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB166" s="133"/>
       <c r="AC166" s="133"/>
       <c r="AD166" s="133"/>
       <c r="AF166" s="128" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH166" s="133" t="s">
         <v>189</v>
-      </c>
-      <c r="AH166" s="133" t="s">
-        <v>190</v>
       </c>
       <c r="AI166" s="133"/>
       <c r="AJ166" s="133"/>
       <c r="AK166" s="133"/>
       <c r="AL166" s="100"/>
       <c r="AM166" s="129" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AN166" s="129"/>
       <c r="AO166" s="129"/>
@@ -19067,7 +19070,7 @@
       <c r="M167" s="132"/>
       <c r="N167" s="132"/>
       <c r="O167" s="133" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P167" s="133"/>
       <c r="Q167" s="133"/>
@@ -19079,10 +19082,10 @@
       <c r="W167" s="133"/>
       <c r="X167" s="133"/>
       <c r="Z167" s="133" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AA167" s="101" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AB167" s="133"/>
       <c r="AC167" s="133"/>
@@ -19163,7 +19166,7 @@
       <c r="L169" s="130"/>
       <c r="M169" s="132"/>
       <c r="N169" s="133" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AM169" s="132"/>
       <c r="AN169" s="132"/>
@@ -19191,7 +19194,7 @@
       <c r="M170" s="132"/>
       <c r="N170" s="132"/>
       <c r="O170" s="134" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="AM170" s="132"/>
       <c r="AN170" s="132"/>
@@ -19219,7 +19222,7 @@
       <c r="M171" s="132"/>
       <c r="N171" s="132"/>
       <c r="O171" s="134" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="AM171" s="132"/>
       <c r="AN171" s="132"/>
@@ -19293,10 +19296,10 @@
       <c r="J173" s="23"/>
       <c r="K173" s="23"/>
       <c r="L173" s="73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M173" s="75" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N173" s="75"/>
       <c r="O173" s="75"/>
@@ -19347,7 +19350,7 @@
       <c r="K174" s="129"/>
       <c r="L174" s="130"/>
       <c r="M174" s="132" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N174" s="132"/>
       <c r="O174" s="132"/>
@@ -19398,7 +19401,7 @@
       <c r="K175" s="23"/>
       <c r="L175" s="73"/>
       <c r="M175" s="75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N175" s="75"/>
       <c r="O175" s="75"/>
@@ -19490,20 +19493,20 @@
         <v>3</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D177" s="21"/>
       <c r="E177" s="21"/>
       <c r="F177" s="22"/>
       <c r="G177" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H177" s="21"/>
       <c r="I177" s="21"/>
       <c r="J177" s="21"/>
       <c r="K177" s="21"/>
       <c r="L177" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M177" s="21"/>
       <c r="N177" s="21"/>
@@ -27066,7 +27069,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="169">
+      <c r="AI1" s="167">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -27082,7 +27085,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="172" t="str">
+      <c r="AT1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -27153,7 +27156,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="172"/>
+      <c r="AT2" s="170"/>
       <c r="AU2" s="175"/>
       <c r="AV2" s="175"/>
       <c r="AW2" s="175"/>
@@ -27531,7 +27534,7 @@
       <c r="AB9" s="21"/>
       <c r="AC9" s="21"/>
       <c r="AD9" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AE9" s="21"/>
       <c r="AF9" s="21"/>
@@ -27615,7 +27618,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="74"/>
       <c r="J11" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
@@ -27629,7 +27632,7 @@
       <c r="R11" s="21"/>
       <c r="S11" s="22"/>
       <c r="T11" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
@@ -27641,7 +27644,7 @@
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AE11" s="21"/>
       <c r="AF11" s="21"/>
@@ -27725,7 +27728,7 @@
       <c r="H13" s="23"/>
       <c r="I13" s="74"/>
       <c r="J13" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
@@ -27739,7 +27742,7 @@
       <c r="R13" s="21"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
@@ -27751,7 +27754,7 @@
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
@@ -27835,7 +27838,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="74"/>
       <c r="J15" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
@@ -27849,7 +27852,7 @@
       <c r="R15" s="21"/>
       <c r="S15" s="22"/>
       <c r="T15" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
@@ -27861,7 +27864,7 @@
       <c r="AB15" s="21"/>
       <c r="AC15" s="21"/>
       <c r="AD15" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE15" s="21"/>
       <c r="AF15" s="21"/>
@@ -27969,7 +27972,7 @@
       <c r="AB17" s="21"/>
       <c r="AC17" s="21"/>
       <c r="AD17" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AE17" s="21"/>
       <c r="AF17" s="21"/>
@@ -28046,7 +28049,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
@@ -28067,7 +28070,7 @@
       <c r="R19" s="21"/>
       <c r="S19" s="22"/>
       <c r="T19" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
@@ -28079,7 +28082,7 @@
       <c r="AB19" s="21"/>
       <c r="AC19" s="21"/>
       <c r="AD19" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AE19" s="21"/>
       <c r="AF19" s="21"/>
@@ -28177,7 +28180,7 @@
       <c r="R21" s="77"/>
       <c r="S21" s="78"/>
       <c r="T21" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="U21" s="77"/>
       <c r="V21" s="77"/>
@@ -32337,7 +32340,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="169">
+      <c r="AI1" s="167">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -32353,7 +32356,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="172" t="str">
+      <c r="AT1" s="170" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -32424,7 +32427,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="172"/>
+      <c r="AT2" s="170"/>
       <c r="AU2" s="175"/>
       <c r="AV2" s="175"/>
       <c r="AW2" s="175"/>
@@ -32708,7 +32711,7 @@
     </row>
     <row r="8" spans="1:52" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="109" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="110"/>
       <c r="E8" s="110"/>
@@ -32722,7 +32725,7 @@
       <c r="M8" s="110"/>
       <c r="N8" s="110"/>
       <c r="O8" s="111" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P8" s="109"/>
       <c r="Q8" s="109"/>
@@ -32739,20 +32742,20 @@
       <c r="H9" s="113"/>
       <c r="I9" s="113"/>
       <c r="J9" s="114" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K9" s="184" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L9" s="185"/>
       <c r="M9" s="184" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N9" s="185"/>
     </row>
     <row r="10" spans="1:52" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="115" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="116"/>
       <c r="E10" s="116"/>
@@ -32768,7 +32771,7 @@
     </row>
     <row r="11" spans="1:52" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="118" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D11" s="119"/>
       <c r="E11" s="119"/>
@@ -32794,17 +32797,17 @@
       <c r="I12" s="123"/>
       <c r="J12" s="124"/>
       <c r="K12" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L12" s="125"/>
       <c r="M12" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N12" s="125"/>
     </row>
     <row r="13" spans="1:52" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="122" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D13" s="123"/>
       <c r="E13" s="123"/>
@@ -32814,17 +32817,17 @@
       <c r="I13" s="123"/>
       <c r="J13" s="124"/>
       <c r="K13" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L13" s="125"/>
       <c r="M13" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N13" s="125"/>
     </row>
     <row r="14" spans="1:52" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" s="123"/>
       <c r="E14" s="123"/>
@@ -32834,11 +32837,11 @@
       <c r="I14" s="123"/>
       <c r="J14" s="124"/>
       <c r="K14" s="125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L14" s="125"/>
       <c r="M14" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N14" s="125"/>
     </row>
@@ -32854,17 +32857,17 @@
       <c r="I15" s="123"/>
       <c r="J15" s="124"/>
       <c r="K15" s="125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L15" s="125"/>
       <c r="M15" s="125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N15" s="125"/>
     </row>
     <row r="16" spans="1:52" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C16" s="118" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D16" s="119"/>
       <c r="E16" s="119"/>
@@ -32880,7 +32883,7 @@
     </row>
     <row r="17" spans="3:14" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="122" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="123"/>
       <c r="E17" s="123"/>
@@ -32890,17 +32893,17 @@
       <c r="I17" s="123"/>
       <c r="J17" s="124"/>
       <c r="K17" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L17" s="125"/>
       <c r="M17" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N17" s="125"/>
     </row>
     <row r="18" spans="3:14" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="122" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D18" s="123"/>
       <c r="E18" s="123"/>
@@ -32910,17 +32913,17 @@
       <c r="I18" s="123"/>
       <c r="J18" s="124"/>
       <c r="K18" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L18" s="125"/>
       <c r="M18" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N18" s="125"/>
     </row>
     <row r="19" spans="3:14" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="122" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D19" s="123"/>
       <c r="E19" s="123"/>
@@ -32930,17 +32933,17 @@
       <c r="I19" s="123"/>
       <c r="J19" s="124"/>
       <c r="K19" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L19" s="125"/>
       <c r="M19" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N19" s="125"/>
     </row>
     <row r="20" spans="3:14" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C20" s="122" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D20" s="123"/>
       <c r="E20" s="123"/>
@@ -32950,11 +32953,11 @@
       <c r="I20" s="123"/>
       <c r="J20" s="124"/>
       <c r="K20" s="125" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L20" s="125"/>
       <c r="M20" s="125" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N20" s="125"/>
     </row>
@@ -32970,11 +32973,11 @@
       <c r="I21" s="123"/>
       <c r="J21" s="124"/>
       <c r="K21" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L21" s="125"/>
       <c r="M21" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N21" s="125"/>
     </row>
@@ -32990,17 +32993,17 @@
       <c r="I22" s="123"/>
       <c r="J22" s="124"/>
       <c r="K22" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L22" s="125"/>
       <c r="M22" s="125" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N22" s="125"/>
     </row>
     <row r="23" spans="3:14" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C23" s="118" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D23" s="119"/>
       <c r="E23" s="119"/>
@@ -33026,11 +33029,11 @@
       <c r="I24" s="123"/>
       <c r="J24" s="124"/>
       <c r="K24" s="125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L24" s="125"/>
       <c r="M24" s="125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N24" s="125"/>
     </row>
@@ -33046,17 +33049,17 @@
       <c r="I25" s="123"/>
       <c r="J25" s="124"/>
       <c r="K25" s="125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L25" s="125"/>
       <c r="M25" s="125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N25" s="125"/>
     </row>
     <row r="26" spans="3:14" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C26" s="122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D26" s="123"/>
       <c r="E26" s="123"/>
@@ -33066,17 +33069,17 @@
       <c r="I26" s="123"/>
       <c r="J26" s="124"/>
       <c r="K26" s="125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L26" s="125"/>
       <c r="M26" s="125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N26" s="125"/>
     </row>
     <row r="27" spans="3:14" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C27" s="122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D27" s="123"/>
       <c r="E27" s="123"/>
@@ -33086,17 +33089,17 @@
       <c r="I27" s="123"/>
       <c r="J27" s="124"/>
       <c r="K27" s="125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L27" s="125"/>
       <c r="M27" s="125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N27" s="125"/>
     </row>
     <row r="28" spans="3:14" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="122" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D28" s="123"/>
       <c r="E28" s="123"/>
@@ -33106,11 +33109,11 @@
       <c r="I28" s="123"/>
       <c r="J28" s="124"/>
       <c r="K28" s="125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L28" s="125"/>
       <c r="M28" s="125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N28" s="125"/>
     </row>
@@ -33126,11 +33129,11 @@
       <c r="I29" s="123"/>
       <c r="J29" s="124"/>
       <c r="K29" s="125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L29" s="125"/>
       <c r="M29" s="125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N29" s="125"/>
     </row>
@@ -33146,17 +33149,17 @@
       <c r="I30" s="123"/>
       <c r="J30" s="124"/>
       <c r="K30" s="125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L30" s="125"/>
       <c r="M30" s="125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N30" s="125"/>
     </row>
     <row r="31" spans="3:14" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C31" s="122" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D31" s="123"/>
       <c r="E31" s="123"/>
@@ -33166,11 +33169,11 @@
       <c r="I31" s="123"/>
       <c r="J31" s="124"/>
       <c r="K31" s="125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L31" s="125"/>
       <c r="M31" s="125" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N31" s="125"/>
     </row>
@@ -33190,7 +33193,7 @@
     </row>
     <row r="33" spans="1:52" s="102" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C33" s="109" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D33" s="105"/>
       <c r="E33" s="106"/>
@@ -44044,9 +44047,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44208,19 +44214,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44244,9 +44246,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K17_成形金型番号別不良分析.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K17_成形金型番号別不良分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201910\実績参照\20191017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74F06D0-CA8C-4EA3-918E-1FAAEE488CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003ACCFE-95D6-4EDB-A37D-855E79062E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -3229,47 +3229,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3300,11 +3259,58 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3330,12 +3336,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3354,13 +3354,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4295,7 +4295,7 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -4303,186 +4303,40 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>103400</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180202</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="グループ化 15">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A271B1CB-8341-48A2-B646-C81AD030A16B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E6537BC-1FCF-4F5B-A1B2-616E9E775C3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="357188" y="1107281"/>
-          <a:ext cx="9610725" cy="5762625"/>
-          <a:chOff x="866215" y="3576916"/>
-          <a:chExt cx="9607093" cy="5767109"/>
+          <a:off x="371475" y="1095375"/>
+          <a:ext cx="11000000" cy="6180952"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="4" name="図 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA34E6E7-7564-4CDA-A1F1-F9CDDE486A37}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="866215" y="3576916"/>
-            <a:ext cx="9607093" cy="5767109"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:miter lim="800000"/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="5" name="グループ化 42">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{895298DF-2AFA-4CB6-94FB-14779BD647D4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr>
-            <a:grpSpLocks/>
-          </xdr:cNvGrpSpPr>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="5295900" y="4124325"/>
-            <a:ext cx="514350" cy="342900"/>
-            <a:chOff x="11566071" y="2680607"/>
-            <a:chExt cx="666750" cy="462644"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="6" name="直線コネクタ 5">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74E868E1-5032-4F4A-AB58-4BF7FCF506F6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11563175" y="2675128"/>
-              <a:ext cx="666499" cy="450143"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="19050"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-        <xdr:cxnSp macro="">
-          <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="7" name="直線コネクタ 6">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C8C138E-94FD-4430-8750-4ECB4D085FAA}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvCxnSpPr/>
-          </xdr:nvCxnSpPr>
-          <xdr:spPr>
-            <a:xfrm flipV="1">
-              <a:off x="11563175" y="2687989"/>
-              <a:ext cx="654156" cy="450143"/>
-            </a:xfrm>
-            <a:prstGeom prst="line">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:ln w="19050"/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="1">
-              <a:schemeClr val="dk1"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="dk1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-        </xdr:cxnSp>
-      </xdr:grpSp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5394,1779 +5248,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58"/>
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="153"/>
-      <c r="Q1" s="153"/>
-      <c r="R1" s="153"/>
-      <c r="S1" s="153"/>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="153"/>
-      <c r="AA1" s="153"/>
-      <c r="AB1" s="153"/>
-      <c r="AC1" s="153"/>
-      <c r="AD1" s="153"/>
-      <c r="AE1" s="153"/>
-      <c r="AF1" s="153"/>
-      <c r="AG1" s="153"/>
-      <c r="AH1" s="153"/>
-      <c r="AI1" s="153"/>
-      <c r="AJ1" s="153"/>
-      <c r="AK1" s="153"/>
-      <c r="AL1" s="153"/>
-      <c r="AM1" s="153"/>
-      <c r="AN1" s="153"/>
-      <c r="AO1" s="153"/>
-      <c r="AP1" s="153"/>
-      <c r="AQ1" s="153"/>
-      <c r="AR1" s="153"/>
-      <c r="AS1" s="153"/>
-      <c r="AT1" s="153"/>
-      <c r="AU1" s="153"/>
-      <c r="AV1" s="153"/>
-      <c r="AW1" s="153"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="154"/>
-      <c r="F2" s="154"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="154"/>
-      <c r="J2" s="154"/>
-      <c r="K2" s="154"/>
-      <c r="L2" s="154"/>
-      <c r="M2" s="154"/>
-      <c r="N2" s="154"/>
-      <c r="O2" s="154"/>
-      <c r="P2" s="154"/>
-      <c r="Q2" s="154"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="154"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="154"/>
-      <c r="AA2" s="154"/>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="154"/>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="154"/>
-      <c r="AG2" s="154"/>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="154"/>
-      <c r="AJ2" s="154"/>
-      <c r="AK2" s="154"/>
-      <c r="AL2" s="154"/>
-      <c r="AM2" s="154"/>
-      <c r="AN2" s="154"/>
-      <c r="AO2" s="154"/>
-      <c r="AP2" s="154"/>
-      <c r="AQ2" s="154"/>
-      <c r="AR2" s="154"/>
-      <c r="AS2" s="154"/>
-      <c r="AT2" s="154"/>
-      <c r="AU2" s="154"/>
-      <c r="AV2" s="154"/>
-      <c r="AW2" s="154"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="139"/>
+      <c r="AA2" s="139"/>
+      <c r="AB2" s="139"/>
+      <c r="AC2" s="139"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="139"/>
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="139"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="139"/>
+      <c r="AJ2" s="139"/>
+      <c r="AK2" s="139"/>
+      <c r="AL2" s="139"/>
+      <c r="AM2" s="139"/>
+      <c r="AN2" s="139"/>
+      <c r="AO2" s="139"/>
+      <c r="AP2" s="139"/>
+      <c r="AQ2" s="139"/>
+      <c r="AR2" s="139"/>
+      <c r="AS2" s="139"/>
+      <c r="AT2" s="139"/>
+      <c r="AU2" s="139"/>
+      <c r="AV2" s="139"/>
+      <c r="AW2" s="139"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="155" t="s">
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="155"/>
-      <c r="J3" s="157" t="s">
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="158"/>
-      <c r="L3" s="159"/>
-      <c r="M3" s="157" t="s">
+      <c r="K3" s="143"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="158"/>
-      <c r="Q3" s="158"/>
-      <c r="R3" s="159"/>
-      <c r="S3" s="155" t="s">
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="140" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="155"/>
-      <c r="U3" s="155"/>
-      <c r="V3" s="155" t="s">
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="155"/>
-      <c r="X3" s="155"/>
-      <c r="Y3" s="155"/>
-      <c r="Z3" s="155"/>
-      <c r="AA3" s="155"/>
-      <c r="AB3" s="155"/>
-      <c r="AC3" s="155"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="155"/>
-      <c r="AG3" s="155"/>
-      <c r="AH3" s="155"/>
-      <c r="AI3" s="155"/>
-      <c r="AJ3" s="155"/>
-      <c r="AK3" s="155"/>
-      <c r="AL3" s="155"/>
-      <c r="AM3" s="155"/>
-      <c r="AN3" s="155" t="s">
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="140"/>
+      <c r="AJ3" s="140"/>
+      <c r="AK3" s="140"/>
+      <c r="AL3" s="140"/>
+      <c r="AM3" s="140"/>
+      <c r="AN3" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="155"/>
-      <c r="AP3" s="155"/>
-      <c r="AQ3" s="155"/>
-      <c r="AR3" s="155"/>
-      <c r="AS3" s="155" t="s">
+      <c r="AO3" s="140"/>
+      <c r="AP3" s="140"/>
+      <c r="AQ3" s="140"/>
+      <c r="AR3" s="140"/>
+      <c r="AS3" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="155"/>
-      <c r="AU3" s="155"/>
-      <c r="AV3" s="155"/>
-      <c r="AW3" s="155"/>
+      <c r="AT3" s="140"/>
+      <c r="AU3" s="140"/>
+      <c r="AV3" s="140"/>
+      <c r="AW3" s="140"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="156"/>
-      <c r="I4" s="156"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="162"/>
-      <c r="S4" s="156"/>
-      <c r="T4" s="156"/>
-      <c r="U4" s="156"/>
-      <c r="V4" s="156"/>
-      <c r="W4" s="156"/>
-      <c r="X4" s="156"/>
-      <c r="Y4" s="156"/>
-      <c r="Z4" s="156"/>
-      <c r="AA4" s="156"/>
-      <c r="AB4" s="156"/>
-      <c r="AC4" s="156"/>
-      <c r="AD4" s="156"/>
-      <c r="AE4" s="156"/>
-      <c r="AF4" s="156"/>
-      <c r="AG4" s="156"/>
-      <c r="AH4" s="156"/>
-      <c r="AI4" s="156"/>
-      <c r="AJ4" s="156"/>
-      <c r="AK4" s="156"/>
-      <c r="AL4" s="156"/>
-      <c r="AM4" s="156"/>
-      <c r="AN4" s="156"/>
-      <c r="AO4" s="156"/>
-      <c r="AP4" s="156"/>
-      <c r="AQ4" s="156"/>
-      <c r="AR4" s="156"/>
-      <c r="AS4" s="156"/>
-      <c r="AT4" s="156"/>
-      <c r="AU4" s="156"/>
-      <c r="AV4" s="156"/>
-      <c r="AW4" s="156"/>
+      <c r="B4" s="141"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="147"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="147"/>
+      <c r="S4" s="141"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="141"/>
+      <c r="V4" s="141"/>
+      <c r="W4" s="141"/>
+      <c r="X4" s="141"/>
+      <c r="Y4" s="141"/>
+      <c r="Z4" s="141"/>
+      <c r="AA4" s="141"/>
+      <c r="AB4" s="141"/>
+      <c r="AC4" s="141"/>
+      <c r="AD4" s="141"/>
+      <c r="AE4" s="141"/>
+      <c r="AF4" s="141"/>
+      <c r="AG4" s="141"/>
+      <c r="AH4" s="141"/>
+      <c r="AI4" s="141"/>
+      <c r="AJ4" s="141"/>
+      <c r="AK4" s="141"/>
+      <c r="AL4" s="141"/>
+      <c r="AM4" s="141"/>
+      <c r="AN4" s="141"/>
+      <c r="AO4" s="141"/>
+      <c r="AP4" s="141"/>
+      <c r="AQ4" s="141"/>
+      <c r="AR4" s="141"/>
+      <c r="AS4" s="141"/>
+      <c r="AT4" s="141"/>
+      <c r="AU4" s="141"/>
+      <c r="AV4" s="141"/>
+      <c r="AW4" s="141"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
-      <c r="B5" s="139">
+      <c r="B5" s="149">
         <v>1</v>
       </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="140">
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="150">
         <v>43711</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="141" t="s">
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="151" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141" t="s">
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="138" t="s">
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="138"/>
-      <c r="U5" s="138"/>
-      <c r="V5" s="150" t="s">
+      <c r="T5" s="148"/>
+      <c r="U5" s="148"/>
+      <c r="V5" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="150"/>
-      <c r="X5" s="150"/>
-      <c r="Y5" s="150"/>
-      <c r="Z5" s="150"/>
-      <c r="AA5" s="150"/>
-      <c r="AB5" s="150"/>
-      <c r="AC5" s="150"/>
-      <c r="AD5" s="150"/>
-      <c r="AE5" s="150"/>
-      <c r="AF5" s="150"/>
-      <c r="AG5" s="150"/>
-      <c r="AH5" s="150"/>
-      <c r="AI5" s="150"/>
-      <c r="AJ5" s="150"/>
-      <c r="AK5" s="150"/>
-      <c r="AL5" s="150"/>
-      <c r="AM5" s="150"/>
-      <c r="AN5" s="138" t="s">
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="153"/>
+      <c r="AE5" s="153"/>
+      <c r="AF5" s="153"/>
+      <c r="AG5" s="153"/>
+      <c r="AH5" s="153"/>
+      <c r="AI5" s="153"/>
+      <c r="AJ5" s="153"/>
+      <c r="AK5" s="153"/>
+      <c r="AL5" s="153"/>
+      <c r="AM5" s="153"/>
+      <c r="AN5" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="AO5" s="138"/>
-      <c r="AP5" s="138"/>
-      <c r="AQ5" s="138"/>
-      <c r="AR5" s="138"/>
-      <c r="AS5" s="138"/>
-      <c r="AT5" s="138"/>
-      <c r="AU5" s="138"/>
-      <c r="AV5" s="138"/>
-      <c r="AW5" s="138"/>
+      <c r="AO5" s="148"/>
+      <c r="AP5" s="148"/>
+      <c r="AQ5" s="148"/>
+      <c r="AR5" s="148"/>
+      <c r="AS5" s="148"/>
+      <c r="AT5" s="148"/>
+      <c r="AU5" s="148"/>
+      <c r="AV5" s="148"/>
+      <c r="AW5" s="148"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="150"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="151"/>
       <c r="M6" s="152"/>
       <c r="N6" s="152"/>
       <c r="O6" s="152"/>
       <c r="P6" s="152"/>
       <c r="Q6" s="152"/>
       <c r="R6" s="152"/>
-      <c r="S6" s="138"/>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="150"/>
-      <c r="W6" s="150"/>
-      <c r="X6" s="150"/>
-      <c r="Y6" s="150"/>
-      <c r="Z6" s="150"/>
-      <c r="AA6" s="150"/>
-      <c r="AB6" s="150"/>
-      <c r="AC6" s="150"/>
-      <c r="AD6" s="150"/>
-      <c r="AE6" s="150"/>
-      <c r="AF6" s="150"/>
-      <c r="AG6" s="150"/>
-      <c r="AH6" s="150"/>
-      <c r="AI6" s="150"/>
-      <c r="AJ6" s="150"/>
-      <c r="AK6" s="150"/>
-      <c r="AL6" s="150"/>
-      <c r="AM6" s="150"/>
-      <c r="AN6" s="138"/>
-      <c r="AO6" s="138"/>
-      <c r="AP6" s="138"/>
-      <c r="AQ6" s="138"/>
-      <c r="AR6" s="138"/>
-      <c r="AS6" s="138"/>
-      <c r="AT6" s="138"/>
-      <c r="AU6" s="138"/>
-      <c r="AV6" s="138"/>
-      <c r="AW6" s="138"/>
+      <c r="S6" s="148"/>
+      <c r="T6" s="148"/>
+      <c r="U6" s="148"/>
+      <c r="V6" s="153"/>
+      <c r="W6" s="153"/>
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="153"/>
+      <c r="AA6" s="153"/>
+      <c r="AB6" s="153"/>
+      <c r="AC6" s="153"/>
+      <c r="AD6" s="153"/>
+      <c r="AE6" s="153"/>
+      <c r="AF6" s="153"/>
+      <c r="AG6" s="153"/>
+      <c r="AH6" s="153"/>
+      <c r="AI6" s="153"/>
+      <c r="AJ6" s="153"/>
+      <c r="AK6" s="153"/>
+      <c r="AL6" s="153"/>
+      <c r="AM6" s="153"/>
+      <c r="AN6" s="148"/>
+      <c r="AO6" s="148"/>
+      <c r="AP6" s="148"/>
+      <c r="AQ6" s="148"/>
+      <c r="AR6" s="148"/>
+      <c r="AS6" s="148"/>
+      <c r="AT6" s="148"/>
+      <c r="AU6" s="148"/>
+      <c r="AV6" s="148"/>
+      <c r="AW6" s="148"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="150"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="150"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="151"/>
       <c r="M7" s="152"/>
       <c r="N7" s="152"/>
       <c r="O7" s="152"/>
       <c r="P7" s="152"/>
       <c r="Q7" s="152"/>
       <c r="R7" s="152"/>
-      <c r="S7" s="138"/>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="150"/>
-      <c r="W7" s="150"/>
-      <c r="X7" s="150"/>
-      <c r="Y7" s="150"/>
-      <c r="Z7" s="150"/>
-      <c r="AA7" s="150"/>
-      <c r="AB7" s="150"/>
-      <c r="AC7" s="150"/>
-      <c r="AD7" s="150"/>
-      <c r="AE7" s="150"/>
-      <c r="AF7" s="150"/>
-      <c r="AG7" s="150"/>
-      <c r="AH7" s="150"/>
-      <c r="AI7" s="150"/>
-      <c r="AJ7" s="150"/>
-      <c r="AK7" s="150"/>
-      <c r="AL7" s="150"/>
-      <c r="AM7" s="150"/>
-      <c r="AN7" s="138"/>
-      <c r="AO7" s="138"/>
-      <c r="AP7" s="138"/>
-      <c r="AQ7" s="138"/>
-      <c r="AR7" s="138"/>
-      <c r="AS7" s="138"/>
-      <c r="AT7" s="138"/>
-      <c r="AU7" s="138"/>
-      <c r="AV7" s="138"/>
-      <c r="AW7" s="138"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="148"/>
+      <c r="U7" s="148"/>
+      <c r="V7" s="153"/>
+      <c r="W7" s="153"/>
+      <c r="X7" s="153"/>
+      <c r="Y7" s="153"/>
+      <c r="Z7" s="153"/>
+      <c r="AA7" s="153"/>
+      <c r="AB7" s="153"/>
+      <c r="AC7" s="153"/>
+      <c r="AD7" s="153"/>
+      <c r="AE7" s="153"/>
+      <c r="AF7" s="153"/>
+      <c r="AG7" s="153"/>
+      <c r="AH7" s="153"/>
+      <c r="AI7" s="153"/>
+      <c r="AJ7" s="153"/>
+      <c r="AK7" s="153"/>
+      <c r="AL7" s="153"/>
+      <c r="AM7" s="153"/>
+      <c r="AN7" s="148"/>
+      <c r="AO7" s="148"/>
+      <c r="AP7" s="148"/>
+      <c r="AQ7" s="148"/>
+      <c r="AR7" s="148"/>
+      <c r="AS7" s="148"/>
+      <c r="AT7" s="148"/>
+      <c r="AU7" s="148"/>
+      <c r="AV7" s="148"/>
+      <c r="AW7" s="148"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="60"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="151"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="151"/>
       <c r="M8" s="152"/>
       <c r="N8" s="152"/>
       <c r="O8" s="152"/>
       <c r="P8" s="152"/>
       <c r="Q8" s="152"/>
       <c r="R8" s="152"/>
-      <c r="S8" s="138"/>
-      <c r="T8" s="138"/>
-      <c r="U8" s="138"/>
-      <c r="V8" s="150"/>
-      <c r="W8" s="150"/>
-      <c r="X8" s="150"/>
-      <c r="Y8" s="150"/>
-      <c r="Z8" s="150"/>
-      <c r="AA8" s="150"/>
-      <c r="AB8" s="150"/>
-      <c r="AC8" s="150"/>
-      <c r="AD8" s="150"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="150"/>
-      <c r="AG8" s="150"/>
-      <c r="AH8" s="150"/>
-      <c r="AI8" s="150"/>
-      <c r="AJ8" s="150"/>
-      <c r="AK8" s="150"/>
-      <c r="AL8" s="150"/>
-      <c r="AM8" s="150"/>
-      <c r="AN8" s="138"/>
-      <c r="AO8" s="138"/>
-      <c r="AP8" s="138"/>
-      <c r="AQ8" s="138"/>
-      <c r="AR8" s="138"/>
-      <c r="AS8" s="138"/>
-      <c r="AT8" s="138"/>
-      <c r="AU8" s="138"/>
-      <c r="AV8" s="138"/>
-      <c r="AW8" s="138"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="153"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="153"/>
+      <c r="Z8" s="153"/>
+      <c r="AA8" s="153"/>
+      <c r="AB8" s="153"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="153"/>
+      <c r="AE8" s="153"/>
+      <c r="AF8" s="153"/>
+      <c r="AG8" s="153"/>
+      <c r="AH8" s="153"/>
+      <c r="AI8" s="153"/>
+      <c r="AJ8" s="153"/>
+      <c r="AK8" s="153"/>
+      <c r="AL8" s="153"/>
+      <c r="AM8" s="153"/>
+      <c r="AN8" s="148"/>
+      <c r="AO8" s="148"/>
+      <c r="AP8" s="148"/>
+      <c r="AQ8" s="148"/>
+      <c r="AR8" s="148"/>
+      <c r="AS8" s="148"/>
+      <c r="AT8" s="148"/>
+      <c r="AU8" s="148"/>
+      <c r="AV8" s="148"/>
+      <c r="AW8" s="148"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="60"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="151"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="151"/>
       <c r="M9" s="152"/>
       <c r="N9" s="152"/>
       <c r="O9" s="152"/>
       <c r="P9" s="152"/>
       <c r="Q9" s="152"/>
       <c r="R9" s="152"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="150"/>
-      <c r="W9" s="150"/>
-      <c r="X9" s="150"/>
-      <c r="Y9" s="150"/>
-      <c r="Z9" s="150"/>
-      <c r="AA9" s="150"/>
-      <c r="AB9" s="150"/>
-      <c r="AC9" s="150"/>
-      <c r="AD9" s="150"/>
-      <c r="AE9" s="150"/>
-      <c r="AF9" s="150"/>
-      <c r="AG9" s="150"/>
-      <c r="AH9" s="150"/>
-      <c r="AI9" s="150"/>
-      <c r="AJ9" s="150"/>
-      <c r="AK9" s="150"/>
-      <c r="AL9" s="150"/>
-      <c r="AM9" s="150"/>
-      <c r="AN9" s="138"/>
-      <c r="AO9" s="138"/>
-      <c r="AP9" s="138"/>
-      <c r="AQ9" s="138"/>
-      <c r="AR9" s="138"/>
-      <c r="AS9" s="138"/>
-      <c r="AT9" s="138"/>
-      <c r="AU9" s="138"/>
-      <c r="AV9" s="138"/>
-      <c r="AW9" s="138"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="153"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="153"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="153"/>
+      <c r="AD9" s="153"/>
+      <c r="AE9" s="153"/>
+      <c r="AF9" s="153"/>
+      <c r="AG9" s="153"/>
+      <c r="AH9" s="153"/>
+      <c r="AI9" s="153"/>
+      <c r="AJ9" s="153"/>
+      <c r="AK9" s="153"/>
+      <c r="AL9" s="153"/>
+      <c r="AM9" s="153"/>
+      <c r="AN9" s="148"/>
+      <c r="AO9" s="148"/>
+      <c r="AP9" s="148"/>
+      <c r="AQ9" s="148"/>
+      <c r="AR9" s="148"/>
+      <c r="AS9" s="148"/>
+      <c r="AT9" s="148"/>
+      <c r="AU9" s="148"/>
+      <c r="AV9" s="148"/>
+      <c r="AW9" s="148"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="60"/>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="150"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="150"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="151"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="151"/>
       <c r="M10" s="152"/>
       <c r="N10" s="152"/>
       <c r="O10" s="152"/>
       <c r="P10" s="152"/>
       <c r="Q10" s="152"/>
       <c r="R10" s="152"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="150"/>
-      <c r="X10" s="150"/>
-      <c r="Y10" s="150"/>
-      <c r="Z10" s="150"/>
-      <c r="AA10" s="150"/>
-      <c r="AB10" s="150"/>
-      <c r="AC10" s="150"/>
-      <c r="AD10" s="150"/>
-      <c r="AE10" s="150"/>
-      <c r="AF10" s="150"/>
-      <c r="AG10" s="150"/>
-      <c r="AH10" s="150"/>
-      <c r="AI10" s="150"/>
-      <c r="AJ10" s="150"/>
-      <c r="AK10" s="150"/>
-      <c r="AL10" s="150"/>
-      <c r="AM10" s="150"/>
-      <c r="AN10" s="138"/>
-      <c r="AO10" s="138"/>
-      <c r="AP10" s="138"/>
-      <c r="AQ10" s="138"/>
-      <c r="AR10" s="138"/>
-      <c r="AS10" s="138"/>
-      <c r="AT10" s="138"/>
-      <c r="AU10" s="138"/>
-      <c r="AV10" s="138"/>
-      <c r="AW10" s="138"/>
+      <c r="S10" s="148"/>
+      <c r="T10" s="148"/>
+      <c r="U10" s="148"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="153"/>
+      <c r="Z10" s="153"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="153"/>
+      <c r="AC10" s="153"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="153"/>
+      <c r="AF10" s="153"/>
+      <c r="AG10" s="153"/>
+      <c r="AH10" s="153"/>
+      <c r="AI10" s="153"/>
+      <c r="AJ10" s="153"/>
+      <c r="AK10" s="153"/>
+      <c r="AL10" s="153"/>
+      <c r="AM10" s="153"/>
+      <c r="AN10" s="148"/>
+      <c r="AO10" s="148"/>
+      <c r="AP10" s="148"/>
+      <c r="AQ10" s="148"/>
+      <c r="AR10" s="148"/>
+      <c r="AS10" s="148"/>
+      <c r="AT10" s="148"/>
+      <c r="AU10" s="148"/>
+      <c r="AV10" s="148"/>
+      <c r="AW10" s="148"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="60"/>
-      <c r="B11" s="139"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="146"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="146"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="151"/>
-      <c r="X11" s="151"/>
-      <c r="Y11" s="151"/>
-      <c r="Z11" s="151"/>
-      <c r="AA11" s="151"/>
-      <c r="AB11" s="151"/>
-      <c r="AC11" s="151"/>
-      <c r="AD11" s="151"/>
-      <c r="AE11" s="151"/>
-      <c r="AF11" s="151"/>
-      <c r="AG11" s="151"/>
-      <c r="AH11" s="151"/>
-      <c r="AI11" s="151"/>
-      <c r="AJ11" s="151"/>
-      <c r="AK11" s="151"/>
-      <c r="AL11" s="151"/>
-      <c r="AM11" s="151"/>
-      <c r="AN11" s="138"/>
-      <c r="AO11" s="138"/>
-      <c r="AP11" s="138"/>
-      <c r="AQ11" s="138"/>
-      <c r="AR11" s="138"/>
-      <c r="AS11" s="138"/>
-      <c r="AT11" s="138"/>
-      <c r="AU11" s="138"/>
-      <c r="AV11" s="138"/>
-      <c r="AW11" s="138"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="148"/>
+      <c r="T11" s="148"/>
+      <c r="U11" s="148"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="156"/>
+      <c r="X11" s="156"/>
+      <c r="Y11" s="156"/>
+      <c r="Z11" s="156"/>
+      <c r="AA11" s="156"/>
+      <c r="AB11" s="156"/>
+      <c r="AC11" s="156"/>
+      <c r="AD11" s="156"/>
+      <c r="AE11" s="156"/>
+      <c r="AF11" s="156"/>
+      <c r="AG11" s="156"/>
+      <c r="AH11" s="156"/>
+      <c r="AI11" s="156"/>
+      <c r="AJ11" s="156"/>
+      <c r="AK11" s="156"/>
+      <c r="AL11" s="156"/>
+      <c r="AM11" s="156"/>
+      <c r="AN11" s="148"/>
+      <c r="AO11" s="148"/>
+      <c r="AP11" s="148"/>
+      <c r="AQ11" s="148"/>
+      <c r="AR11" s="148"/>
+      <c r="AS11" s="148"/>
+      <c r="AT11" s="148"/>
+      <c r="AU11" s="148"/>
+      <c r="AV11" s="148"/>
+      <c r="AW11" s="148"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="60"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="146"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="146"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="146"/>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="144"/>
-      <c r="W12" s="144"/>
-      <c r="X12" s="144"/>
-      <c r="Y12" s="144"/>
-      <c r="Z12" s="144"/>
-      <c r="AA12" s="144"/>
-      <c r="AB12" s="144"/>
-      <c r="AC12" s="144"/>
-      <c r="AD12" s="144"/>
-      <c r="AE12" s="144"/>
-      <c r="AF12" s="144"/>
-      <c r="AG12" s="144"/>
-      <c r="AH12" s="144"/>
-      <c r="AI12" s="144"/>
-      <c r="AJ12" s="144"/>
-      <c r="AK12" s="144"/>
-      <c r="AL12" s="144"/>
-      <c r="AM12" s="144"/>
-      <c r="AN12" s="138"/>
-      <c r="AO12" s="138"/>
-      <c r="AP12" s="138"/>
-      <c r="AQ12" s="138"/>
-      <c r="AR12" s="138"/>
-      <c r="AS12" s="138"/>
-      <c r="AT12" s="138"/>
-      <c r="AU12" s="138"/>
-      <c r="AV12" s="138"/>
-      <c r="AW12" s="138"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="148"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="148"/>
+      <c r="V12" s="155"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="155"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="155"/>
+      <c r="AB12" s="155"/>
+      <c r="AC12" s="155"/>
+      <c r="AD12" s="155"/>
+      <c r="AE12" s="155"/>
+      <c r="AF12" s="155"/>
+      <c r="AG12" s="155"/>
+      <c r="AH12" s="155"/>
+      <c r="AI12" s="155"/>
+      <c r="AJ12" s="155"/>
+      <c r="AK12" s="155"/>
+      <c r="AL12" s="155"/>
+      <c r="AM12" s="155"/>
+      <c r="AN12" s="148"/>
+      <c r="AO12" s="148"/>
+      <c r="AP12" s="148"/>
+      <c r="AQ12" s="148"/>
+      <c r="AR12" s="148"/>
+      <c r="AS12" s="148"/>
+      <c r="AT12" s="148"/>
+      <c r="AU12" s="148"/>
+      <c r="AV12" s="148"/>
+      <c r="AW12" s="148"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="60"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="146"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="146"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="144"/>
-      <c r="AD13" s="144"/>
-      <c r="AE13" s="144"/>
-      <c r="AF13" s="144"/>
-      <c r="AG13" s="144"/>
-      <c r="AH13" s="144"/>
-      <c r="AI13" s="144"/>
-      <c r="AJ13" s="144"/>
-      <c r="AK13" s="144"/>
-      <c r="AL13" s="144"/>
-      <c r="AM13" s="144"/>
-      <c r="AN13" s="138"/>
-      <c r="AO13" s="138"/>
-      <c r="AP13" s="138"/>
-      <c r="AQ13" s="138"/>
-      <c r="AR13" s="138"/>
-      <c r="AS13" s="138"/>
-      <c r="AT13" s="138"/>
-      <c r="AU13" s="138"/>
-      <c r="AV13" s="138"/>
-      <c r="AW13" s="138"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="154"/>
+      <c r="O13" s="154"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="148"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="148"/>
+      <c r="V13" s="155"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="155"/>
+      <c r="Z13" s="155"/>
+      <c r="AA13" s="155"/>
+      <c r="AB13" s="155"/>
+      <c r="AC13" s="155"/>
+      <c r="AD13" s="155"/>
+      <c r="AE13" s="155"/>
+      <c r="AF13" s="155"/>
+      <c r="AG13" s="155"/>
+      <c r="AH13" s="155"/>
+      <c r="AI13" s="155"/>
+      <c r="AJ13" s="155"/>
+      <c r="AK13" s="155"/>
+      <c r="AL13" s="155"/>
+      <c r="AM13" s="155"/>
+      <c r="AN13" s="148"/>
+      <c r="AO13" s="148"/>
+      <c r="AP13" s="148"/>
+      <c r="AQ13" s="148"/>
+      <c r="AR13" s="148"/>
+      <c r="AS13" s="148"/>
+      <c r="AT13" s="148"/>
+      <c r="AU13" s="148"/>
+      <c r="AV13" s="148"/>
+      <c r="AW13" s="148"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="60"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="138"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="149"/>
-      <c r="W14" s="150"/>
-      <c r="X14" s="150"/>
-      <c r="Y14" s="150"/>
-      <c r="Z14" s="150"/>
-      <c r="AA14" s="150"/>
-      <c r="AB14" s="150"/>
-      <c r="AC14" s="150"/>
-      <c r="AD14" s="150"/>
-      <c r="AE14" s="150"/>
-      <c r="AF14" s="150"/>
-      <c r="AG14" s="150"/>
-      <c r="AH14" s="150"/>
-      <c r="AI14" s="150"/>
-      <c r="AJ14" s="150"/>
-      <c r="AK14" s="150"/>
-      <c r="AL14" s="150"/>
-      <c r="AM14" s="150"/>
-      <c r="AN14" s="138"/>
-      <c r="AO14" s="138"/>
-      <c r="AP14" s="138"/>
-      <c r="AQ14" s="138"/>
-      <c r="AR14" s="138"/>
-      <c r="AS14" s="138"/>
-      <c r="AT14" s="138"/>
-      <c r="AU14" s="138"/>
-      <c r="AV14" s="138"/>
-      <c r="AW14" s="138"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="150"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="150"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="158"/>
+      <c r="W14" s="153"/>
+      <c r="X14" s="153"/>
+      <c r="Y14" s="153"/>
+      <c r="Z14" s="153"/>
+      <c r="AA14" s="153"/>
+      <c r="AB14" s="153"/>
+      <c r="AC14" s="153"/>
+      <c r="AD14" s="153"/>
+      <c r="AE14" s="153"/>
+      <c r="AF14" s="153"/>
+      <c r="AG14" s="153"/>
+      <c r="AH14" s="153"/>
+      <c r="AI14" s="153"/>
+      <c r="AJ14" s="153"/>
+      <c r="AK14" s="153"/>
+      <c r="AL14" s="153"/>
+      <c r="AM14" s="153"/>
+      <c r="AN14" s="148"/>
+      <c r="AO14" s="148"/>
+      <c r="AP14" s="148"/>
+      <c r="AQ14" s="148"/>
+      <c r="AR14" s="148"/>
+      <c r="AS14" s="148"/>
+      <c r="AT14" s="148"/>
+      <c r="AU14" s="148"/>
+      <c r="AV14" s="148"/>
+      <c r="AW14" s="148"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="60"/>
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="146"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="138"/>
-      <c r="U15" s="138"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="144"/>
-      <c r="Y15" s="144"/>
-      <c r="Z15" s="144"/>
-      <c r="AA15" s="144"/>
-      <c r="AB15" s="144"/>
-      <c r="AC15" s="144"/>
-      <c r="AD15" s="144"/>
-      <c r="AE15" s="144"/>
-      <c r="AF15" s="144"/>
-      <c r="AG15" s="144"/>
-      <c r="AH15" s="144"/>
-      <c r="AI15" s="144"/>
-      <c r="AJ15" s="144"/>
-      <c r="AK15" s="144"/>
-      <c r="AL15" s="144"/>
-      <c r="AM15" s="144"/>
-      <c r="AN15" s="138"/>
-      <c r="AO15" s="138"/>
-      <c r="AP15" s="138"/>
-      <c r="AQ15" s="138"/>
-      <c r="AR15" s="138"/>
-      <c r="AS15" s="138"/>
-      <c r="AT15" s="138"/>
-      <c r="AU15" s="138"/>
-      <c r="AV15" s="138"/>
-      <c r="AW15" s="138"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
+      <c r="M15" s="154"/>
+      <c r="N15" s="154"/>
+      <c r="O15" s="154"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="148"/>
+      <c r="T15" s="148"/>
+      <c r="U15" s="148"/>
+      <c r="V15" s="155"/>
+      <c r="W15" s="155"/>
+      <c r="X15" s="155"/>
+      <c r="Y15" s="155"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="155"/>
+      <c r="AB15" s="155"/>
+      <c r="AC15" s="155"/>
+      <c r="AD15" s="155"/>
+      <c r="AE15" s="155"/>
+      <c r="AF15" s="155"/>
+      <c r="AG15" s="155"/>
+      <c r="AH15" s="155"/>
+      <c r="AI15" s="155"/>
+      <c r="AJ15" s="155"/>
+      <c r="AK15" s="155"/>
+      <c r="AL15" s="155"/>
+      <c r="AM15" s="155"/>
+      <c r="AN15" s="148"/>
+      <c r="AO15" s="148"/>
+      <c r="AP15" s="148"/>
+      <c r="AQ15" s="148"/>
+      <c r="AR15" s="148"/>
+      <c r="AS15" s="148"/>
+      <c r="AT15" s="148"/>
+      <c r="AU15" s="148"/>
+      <c r="AV15" s="148"/>
+      <c r="AW15" s="148"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="60"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="146"/>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="146"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="138"/>
-      <c r="U16" s="138"/>
-      <c r="V16" s="144"/>
-      <c r="W16" s="144"/>
-      <c r="X16" s="144"/>
-      <c r="Y16" s="144"/>
-      <c r="Z16" s="144"/>
-      <c r="AA16" s="144"/>
-      <c r="AB16" s="144"/>
-      <c r="AC16" s="144"/>
-      <c r="AD16" s="144"/>
-      <c r="AE16" s="144"/>
-      <c r="AF16" s="144"/>
-      <c r="AG16" s="144"/>
-      <c r="AH16" s="144"/>
-      <c r="AI16" s="144"/>
-      <c r="AJ16" s="144"/>
-      <c r="AK16" s="144"/>
-      <c r="AL16" s="144"/>
-      <c r="AM16" s="144"/>
-      <c r="AN16" s="138"/>
-      <c r="AO16" s="138"/>
-      <c r="AP16" s="138"/>
-      <c r="AQ16" s="138"/>
-      <c r="AR16" s="138"/>
-      <c r="AS16" s="138"/>
-      <c r="AT16" s="138"/>
-      <c r="AU16" s="138"/>
-      <c r="AV16" s="138"/>
-      <c r="AW16" s="138"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="148"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="155"/>
+      <c r="W16" s="155"/>
+      <c r="X16" s="155"/>
+      <c r="Y16" s="155"/>
+      <c r="Z16" s="155"/>
+      <c r="AA16" s="155"/>
+      <c r="AB16" s="155"/>
+      <c r="AC16" s="155"/>
+      <c r="AD16" s="155"/>
+      <c r="AE16" s="155"/>
+      <c r="AF16" s="155"/>
+      <c r="AG16" s="155"/>
+      <c r="AH16" s="155"/>
+      <c r="AI16" s="155"/>
+      <c r="AJ16" s="155"/>
+      <c r="AK16" s="155"/>
+      <c r="AL16" s="155"/>
+      <c r="AM16" s="155"/>
+      <c r="AN16" s="148"/>
+      <c r="AO16" s="148"/>
+      <c r="AP16" s="148"/>
+      <c r="AQ16" s="148"/>
+      <c r="AR16" s="148"/>
+      <c r="AS16" s="148"/>
+      <c r="AT16" s="148"/>
+      <c r="AU16" s="148"/>
+      <c r="AV16" s="148"/>
+      <c r="AW16" s="148"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="60"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="146"/>
-      <c r="N17" s="146"/>
-      <c r="O17" s="146"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="144"/>
-      <c r="W17" s="144"/>
-      <c r="X17" s="144"/>
-      <c r="Y17" s="144"/>
-      <c r="Z17" s="144"/>
-      <c r="AA17" s="144"/>
-      <c r="AB17" s="144"/>
-      <c r="AC17" s="144"/>
-      <c r="AD17" s="144"/>
-      <c r="AE17" s="144"/>
-      <c r="AF17" s="144"/>
-      <c r="AG17" s="144"/>
-      <c r="AH17" s="144"/>
-      <c r="AI17" s="144"/>
-      <c r="AJ17" s="144"/>
-      <c r="AK17" s="144"/>
-      <c r="AL17" s="144"/>
-      <c r="AM17" s="144"/>
-      <c r="AN17" s="138"/>
-      <c r="AO17" s="138"/>
-      <c r="AP17" s="138"/>
-      <c r="AQ17" s="138"/>
-      <c r="AR17" s="138"/>
-      <c r="AS17" s="138"/>
-      <c r="AT17" s="138"/>
-      <c r="AU17" s="138"/>
-      <c r="AV17" s="138"/>
-      <c r="AW17" s="138"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="159"/>
+      <c r="S17" s="160"/>
+      <c r="T17" s="160"/>
+      <c r="U17" s="160"/>
+      <c r="V17" s="155"/>
+      <c r="W17" s="155"/>
+      <c r="X17" s="155"/>
+      <c r="Y17" s="155"/>
+      <c r="Z17" s="155"/>
+      <c r="AA17" s="155"/>
+      <c r="AB17" s="155"/>
+      <c r="AC17" s="155"/>
+      <c r="AD17" s="155"/>
+      <c r="AE17" s="155"/>
+      <c r="AF17" s="155"/>
+      <c r="AG17" s="155"/>
+      <c r="AH17" s="155"/>
+      <c r="AI17" s="155"/>
+      <c r="AJ17" s="155"/>
+      <c r="AK17" s="155"/>
+      <c r="AL17" s="155"/>
+      <c r="AM17" s="155"/>
+      <c r="AN17" s="148"/>
+      <c r="AO17" s="148"/>
+      <c r="AP17" s="148"/>
+      <c r="AQ17" s="148"/>
+      <c r="AR17" s="148"/>
+      <c r="AS17" s="148"/>
+      <c r="AT17" s="148"/>
+      <c r="AU17" s="148"/>
+      <c r="AV17" s="148"/>
+      <c r="AW17" s="148"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="60"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="146"/>
-      <c r="S18" s="138"/>
-      <c r="T18" s="138"/>
-      <c r="U18" s="138"/>
-      <c r="V18" s="144"/>
-      <c r="W18" s="144"/>
-      <c r="X18" s="144"/>
-      <c r="Y18" s="144"/>
-      <c r="Z18" s="144"/>
-      <c r="AA18" s="144"/>
-      <c r="AB18" s="144"/>
-      <c r="AC18" s="144"/>
-      <c r="AD18" s="144"/>
-      <c r="AE18" s="144"/>
-      <c r="AF18" s="144"/>
-      <c r="AG18" s="144"/>
-      <c r="AH18" s="144"/>
-      <c r="AI18" s="144"/>
-      <c r="AJ18" s="144"/>
-      <c r="AK18" s="144"/>
-      <c r="AL18" s="144"/>
-      <c r="AM18" s="144"/>
-      <c r="AN18" s="138"/>
-      <c r="AO18" s="138"/>
-      <c r="AP18" s="138"/>
-      <c r="AQ18" s="138"/>
-      <c r="AR18" s="138"/>
-      <c r="AS18" s="138"/>
-      <c r="AT18" s="138"/>
-      <c r="AU18" s="138"/>
-      <c r="AV18" s="138"/>
-      <c r="AW18" s="138"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="157"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="148"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="148"/>
+      <c r="V18" s="155"/>
+      <c r="W18" s="155"/>
+      <c r="X18" s="155"/>
+      <c r="Y18" s="155"/>
+      <c r="Z18" s="155"/>
+      <c r="AA18" s="155"/>
+      <c r="AB18" s="155"/>
+      <c r="AC18" s="155"/>
+      <c r="AD18" s="155"/>
+      <c r="AE18" s="155"/>
+      <c r="AF18" s="155"/>
+      <c r="AG18" s="155"/>
+      <c r="AH18" s="155"/>
+      <c r="AI18" s="155"/>
+      <c r="AJ18" s="155"/>
+      <c r="AK18" s="155"/>
+      <c r="AL18" s="155"/>
+      <c r="AM18" s="155"/>
+      <c r="AN18" s="148"/>
+      <c r="AO18" s="148"/>
+      <c r="AP18" s="148"/>
+      <c r="AQ18" s="148"/>
+      <c r="AR18" s="148"/>
+      <c r="AS18" s="148"/>
+      <c r="AT18" s="148"/>
+      <c r="AU18" s="148"/>
+      <c r="AV18" s="148"/>
+      <c r="AW18" s="148"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="146"/>
-      <c r="S19" s="138"/>
-      <c r="T19" s="138"/>
-      <c r="U19" s="138"/>
-      <c r="V19" s="144"/>
-      <c r="W19" s="144"/>
-      <c r="X19" s="144"/>
-      <c r="Y19" s="144"/>
-      <c r="Z19" s="144"/>
-      <c r="AA19" s="144"/>
-      <c r="AB19" s="144"/>
-      <c r="AC19" s="144"/>
-      <c r="AD19" s="144"/>
-      <c r="AE19" s="144"/>
-      <c r="AF19" s="144"/>
-      <c r="AG19" s="144"/>
-      <c r="AH19" s="144"/>
-      <c r="AI19" s="144"/>
-      <c r="AJ19" s="144"/>
-      <c r="AK19" s="144"/>
-      <c r="AL19" s="144"/>
-      <c r="AM19" s="144"/>
-      <c r="AN19" s="138"/>
-      <c r="AO19" s="138"/>
-      <c r="AP19" s="138"/>
-      <c r="AQ19" s="138"/>
-      <c r="AR19" s="138"/>
-      <c r="AS19" s="138"/>
-      <c r="AT19" s="138"/>
-      <c r="AU19" s="138"/>
-      <c r="AV19" s="138"/>
-      <c r="AW19" s="138"/>
+      <c r="B19" s="149"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="148"/>
+      <c r="T19" s="148"/>
+      <c r="U19" s="148"/>
+      <c r="V19" s="155"/>
+      <c r="W19" s="155"/>
+      <c r="X19" s="155"/>
+      <c r="Y19" s="155"/>
+      <c r="Z19" s="155"/>
+      <c r="AA19" s="155"/>
+      <c r="AB19" s="155"/>
+      <c r="AC19" s="155"/>
+      <c r="AD19" s="155"/>
+      <c r="AE19" s="155"/>
+      <c r="AF19" s="155"/>
+      <c r="AG19" s="155"/>
+      <c r="AH19" s="155"/>
+      <c r="AI19" s="155"/>
+      <c r="AJ19" s="155"/>
+      <c r="AK19" s="155"/>
+      <c r="AL19" s="155"/>
+      <c r="AM19" s="155"/>
+      <c r="AN19" s="148"/>
+      <c r="AO19" s="148"/>
+      <c r="AP19" s="148"/>
+      <c r="AQ19" s="148"/>
+      <c r="AR19" s="148"/>
+      <c r="AS19" s="148"/>
+      <c r="AT19" s="148"/>
+      <c r="AU19" s="148"/>
+      <c r="AV19" s="148"/>
+      <c r="AW19" s="148"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="60"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="138"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="144"/>
-      <c r="W20" s="144"/>
-      <c r="X20" s="144"/>
-      <c r="Y20" s="144"/>
-      <c r="Z20" s="144"/>
-      <c r="AA20" s="144"/>
-      <c r="AB20" s="144"/>
-      <c r="AC20" s="144"/>
-      <c r="AD20" s="144"/>
-      <c r="AE20" s="144"/>
-      <c r="AF20" s="144"/>
-      <c r="AG20" s="144"/>
-      <c r="AH20" s="144"/>
-      <c r="AI20" s="144"/>
-      <c r="AJ20" s="144"/>
-      <c r="AK20" s="144"/>
-      <c r="AL20" s="144"/>
-      <c r="AM20" s="144"/>
-      <c r="AN20" s="138"/>
-      <c r="AO20" s="138"/>
-      <c r="AP20" s="138"/>
-      <c r="AQ20" s="138"/>
-      <c r="AR20" s="138"/>
-      <c r="AS20" s="138"/>
-      <c r="AT20" s="138"/>
-      <c r="AU20" s="138"/>
-      <c r="AV20" s="138"/>
-      <c r="AW20" s="138"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="154"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="148"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="148"/>
+      <c r="V20" s="155"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="155"/>
+      <c r="Z20" s="155"/>
+      <c r="AA20" s="155"/>
+      <c r="AB20" s="155"/>
+      <c r="AC20" s="155"/>
+      <c r="AD20" s="155"/>
+      <c r="AE20" s="155"/>
+      <c r="AF20" s="155"/>
+      <c r="AG20" s="155"/>
+      <c r="AH20" s="155"/>
+      <c r="AI20" s="155"/>
+      <c r="AJ20" s="155"/>
+      <c r="AK20" s="155"/>
+      <c r="AL20" s="155"/>
+      <c r="AM20" s="155"/>
+      <c r="AN20" s="148"/>
+      <c r="AO20" s="148"/>
+      <c r="AP20" s="148"/>
+      <c r="AQ20" s="148"/>
+      <c r="AR20" s="148"/>
+      <c r="AS20" s="148"/>
+      <c r="AT20" s="148"/>
+      <c r="AU20" s="148"/>
+      <c r="AV20" s="148"/>
+      <c r="AW20" s="148"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="60"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="146"/>
-      <c r="O21" s="146"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="146"/>
-      <c r="S21" s="138"/>
-      <c r="T21" s="138"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="144"/>
-      <c r="W21" s="144"/>
-      <c r="X21" s="144"/>
-      <c r="Y21" s="144"/>
-      <c r="Z21" s="144"/>
-      <c r="AA21" s="144"/>
-      <c r="AB21" s="144"/>
-      <c r="AC21" s="144"/>
-      <c r="AD21" s="144"/>
-      <c r="AE21" s="144"/>
-      <c r="AF21" s="144"/>
-      <c r="AG21" s="144"/>
-      <c r="AH21" s="144"/>
-      <c r="AI21" s="144"/>
-      <c r="AJ21" s="144"/>
-      <c r="AK21" s="144"/>
-      <c r="AL21" s="144"/>
-      <c r="AM21" s="144"/>
-      <c r="AN21" s="138"/>
-      <c r="AO21" s="138"/>
-      <c r="AP21" s="138"/>
-      <c r="AQ21" s="138"/>
-      <c r="AR21" s="138"/>
-      <c r="AS21" s="138"/>
-      <c r="AT21" s="138"/>
-      <c r="AU21" s="138"/>
-      <c r="AV21" s="138"/>
-      <c r="AW21" s="138"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="154"/>
+      <c r="S21" s="148"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="148"/>
+      <c r="V21" s="155"/>
+      <c r="W21" s="155"/>
+      <c r="X21" s="155"/>
+      <c r="Y21" s="155"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="155"/>
+      <c r="AB21" s="155"/>
+      <c r="AC21" s="155"/>
+      <c r="AD21" s="155"/>
+      <c r="AE21" s="155"/>
+      <c r="AF21" s="155"/>
+      <c r="AG21" s="155"/>
+      <c r="AH21" s="155"/>
+      <c r="AI21" s="155"/>
+      <c r="AJ21" s="155"/>
+      <c r="AK21" s="155"/>
+      <c r="AL21" s="155"/>
+      <c r="AM21" s="155"/>
+      <c r="AN21" s="148"/>
+      <c r="AO21" s="148"/>
+      <c r="AP21" s="148"/>
+      <c r="AQ21" s="148"/>
+      <c r="AR21" s="148"/>
+      <c r="AS21" s="148"/>
+      <c r="AT21" s="148"/>
+      <c r="AU21" s="148"/>
+      <c r="AV21" s="148"/>
+      <c r="AW21" s="148"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="146"/>
-      <c r="N22" s="146"/>
-      <c r="O22" s="146"/>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="146"/>
-      <c r="S22" s="138"/>
-      <c r="T22" s="138"/>
-      <c r="U22" s="138"/>
-      <c r="V22" s="144"/>
-      <c r="W22" s="144"/>
-      <c r="X22" s="144"/>
-      <c r="Y22" s="144"/>
-      <c r="Z22" s="144"/>
-      <c r="AA22" s="144"/>
-      <c r="AB22" s="144"/>
-      <c r="AC22" s="144"/>
-      <c r="AD22" s="144"/>
-      <c r="AE22" s="144"/>
-      <c r="AF22" s="144"/>
-      <c r="AG22" s="144"/>
-      <c r="AH22" s="144"/>
-      <c r="AI22" s="144"/>
-      <c r="AJ22" s="144"/>
-      <c r="AK22" s="144"/>
-      <c r="AL22" s="144"/>
-      <c r="AM22" s="144"/>
-      <c r="AN22" s="138"/>
-      <c r="AO22" s="138"/>
-      <c r="AP22" s="138"/>
-      <c r="AQ22" s="138"/>
-      <c r="AR22" s="138"/>
-      <c r="AS22" s="138"/>
-      <c r="AT22" s="138"/>
-      <c r="AU22" s="138"/>
-      <c r="AV22" s="138"/>
-      <c r="AW22" s="138"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="148"/>
+      <c r="T22" s="148"/>
+      <c r="U22" s="148"/>
+      <c r="V22" s="155"/>
+      <c r="W22" s="155"/>
+      <c r="X22" s="155"/>
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="155"/>
+      <c r="AA22" s="155"/>
+      <c r="AB22" s="155"/>
+      <c r="AC22" s="155"/>
+      <c r="AD22" s="155"/>
+      <c r="AE22" s="155"/>
+      <c r="AF22" s="155"/>
+      <c r="AG22" s="155"/>
+      <c r="AH22" s="155"/>
+      <c r="AI22" s="155"/>
+      <c r="AJ22" s="155"/>
+      <c r="AK22" s="155"/>
+      <c r="AL22" s="155"/>
+      <c r="AM22" s="155"/>
+      <c r="AN22" s="148"/>
+      <c r="AO22" s="148"/>
+      <c r="AP22" s="148"/>
+      <c r="AQ22" s="148"/>
+      <c r="AR22" s="148"/>
+      <c r="AS22" s="148"/>
+      <c r="AT22" s="148"/>
+      <c r="AU22" s="148"/>
+      <c r="AV22" s="148"/>
+      <c r="AW22" s="148"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="144"/>
-      <c r="W23" s="144"/>
-      <c r="X23" s="144"/>
-      <c r="Y23" s="144"/>
-      <c r="Z23" s="144"/>
-      <c r="AA23" s="144"/>
-      <c r="AB23" s="144"/>
-      <c r="AC23" s="144"/>
-      <c r="AD23" s="144"/>
-      <c r="AE23" s="144"/>
-      <c r="AF23" s="144"/>
-      <c r="AG23" s="144"/>
-      <c r="AH23" s="144"/>
-      <c r="AI23" s="144"/>
-      <c r="AJ23" s="144"/>
-      <c r="AK23" s="144"/>
-      <c r="AL23" s="144"/>
-      <c r="AM23" s="144"/>
-      <c r="AN23" s="138"/>
-      <c r="AO23" s="138"/>
-      <c r="AP23" s="138"/>
-      <c r="AQ23" s="138"/>
-      <c r="AR23" s="138"/>
-      <c r="AS23" s="138"/>
-      <c r="AT23" s="138"/>
-      <c r="AU23" s="138"/>
-      <c r="AV23" s="138"/>
-      <c r="AW23" s="138"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
+      <c r="P23" s="154"/>
+      <c r="Q23" s="154"/>
+      <c r="R23" s="154"/>
+      <c r="S23" s="148"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="148"/>
+      <c r="V23" s="155"/>
+      <c r="W23" s="155"/>
+      <c r="X23" s="155"/>
+      <c r="Y23" s="155"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="155"/>
+      <c r="AB23" s="155"/>
+      <c r="AC23" s="155"/>
+      <c r="AD23" s="155"/>
+      <c r="AE23" s="155"/>
+      <c r="AF23" s="155"/>
+      <c r="AG23" s="155"/>
+      <c r="AH23" s="155"/>
+      <c r="AI23" s="155"/>
+      <c r="AJ23" s="155"/>
+      <c r="AK23" s="155"/>
+      <c r="AL23" s="155"/>
+      <c r="AM23" s="155"/>
+      <c r="AN23" s="148"/>
+      <c r="AO23" s="148"/>
+      <c r="AP23" s="148"/>
+      <c r="AQ23" s="148"/>
+      <c r="AR23" s="148"/>
+      <c r="AS23" s="148"/>
+      <c r="AT23" s="148"/>
+      <c r="AU23" s="148"/>
+      <c r="AV23" s="148"/>
+      <c r="AW23" s="148"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="146"/>
-      <c r="O24" s="146"/>
-      <c r="P24" s="146"/>
-      <c r="Q24" s="146"/>
-      <c r="R24" s="146"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="144"/>
-      <c r="W24" s="144"/>
-      <c r="X24" s="144"/>
-      <c r="Y24" s="144"/>
-      <c r="Z24" s="144"/>
-      <c r="AA24" s="144"/>
-      <c r="AB24" s="144"/>
-      <c r="AC24" s="144"/>
-      <c r="AD24" s="144"/>
-      <c r="AE24" s="144"/>
-      <c r="AF24" s="144"/>
-      <c r="AG24" s="144"/>
-      <c r="AH24" s="144"/>
-      <c r="AI24" s="144"/>
-      <c r="AJ24" s="144"/>
-      <c r="AK24" s="144"/>
-      <c r="AL24" s="144"/>
-      <c r="AM24" s="144"/>
-      <c r="AN24" s="138"/>
-      <c r="AO24" s="138"/>
-      <c r="AP24" s="138"/>
-      <c r="AQ24" s="138"/>
-      <c r="AR24" s="138"/>
-      <c r="AS24" s="138"/>
-      <c r="AT24" s="138"/>
-      <c r="AU24" s="138"/>
-      <c r="AV24" s="138"/>
-      <c r="AW24" s="138"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="154"/>
+      <c r="O24" s="154"/>
+      <c r="P24" s="154"/>
+      <c r="Q24" s="154"/>
+      <c r="R24" s="154"/>
+      <c r="S24" s="148"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="148"/>
+      <c r="V24" s="155"/>
+      <c r="W24" s="155"/>
+      <c r="X24" s="155"/>
+      <c r="Y24" s="155"/>
+      <c r="Z24" s="155"/>
+      <c r="AA24" s="155"/>
+      <c r="AB24" s="155"/>
+      <c r="AC24" s="155"/>
+      <c r="AD24" s="155"/>
+      <c r="AE24" s="155"/>
+      <c r="AF24" s="155"/>
+      <c r="AG24" s="155"/>
+      <c r="AH24" s="155"/>
+      <c r="AI24" s="155"/>
+      <c r="AJ24" s="155"/>
+      <c r="AK24" s="155"/>
+      <c r="AL24" s="155"/>
+      <c r="AM24" s="155"/>
+      <c r="AN24" s="148"/>
+      <c r="AO24" s="148"/>
+      <c r="AP24" s="148"/>
+      <c r="AQ24" s="148"/>
+      <c r="AR24" s="148"/>
+      <c r="AS24" s="148"/>
+      <c r="AT24" s="148"/>
+      <c r="AU24" s="148"/>
+      <c r="AV24" s="148"/>
+      <c r="AW24" s="148"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
-      <c r="B25" s="139"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="146"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="144"/>
-      <c r="W25" s="144"/>
-      <c r="X25" s="144"/>
-      <c r="Y25" s="144"/>
-      <c r="Z25" s="144"/>
-      <c r="AA25" s="144"/>
-      <c r="AB25" s="144"/>
-      <c r="AC25" s="144"/>
-      <c r="AD25" s="144"/>
-      <c r="AE25" s="144"/>
-      <c r="AF25" s="144"/>
-      <c r="AG25" s="144"/>
-      <c r="AH25" s="144"/>
-      <c r="AI25" s="144"/>
-      <c r="AJ25" s="144"/>
-      <c r="AK25" s="144"/>
-      <c r="AL25" s="144"/>
-      <c r="AM25" s="144"/>
-      <c r="AN25" s="138"/>
-      <c r="AO25" s="138"/>
-      <c r="AP25" s="138"/>
-      <c r="AQ25" s="138"/>
-      <c r="AR25" s="138"/>
-      <c r="AS25" s="138"/>
-      <c r="AT25" s="138"/>
-      <c r="AU25" s="138"/>
-      <c r="AV25" s="138"/>
-      <c r="AW25" s="138"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="157"/>
+      <c r="N25" s="154"/>
+      <c r="O25" s="154"/>
+      <c r="P25" s="154"/>
+      <c r="Q25" s="154"/>
+      <c r="R25" s="154"/>
+      <c r="S25" s="148"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="148"/>
+      <c r="V25" s="155"/>
+      <c r="W25" s="155"/>
+      <c r="X25" s="155"/>
+      <c r="Y25" s="155"/>
+      <c r="Z25" s="155"/>
+      <c r="AA25" s="155"/>
+      <c r="AB25" s="155"/>
+      <c r="AC25" s="155"/>
+      <c r="AD25" s="155"/>
+      <c r="AE25" s="155"/>
+      <c r="AF25" s="155"/>
+      <c r="AG25" s="155"/>
+      <c r="AH25" s="155"/>
+      <c r="AI25" s="155"/>
+      <c r="AJ25" s="155"/>
+      <c r="AK25" s="155"/>
+      <c r="AL25" s="155"/>
+      <c r="AM25" s="155"/>
+      <c r="AN25" s="148"/>
+      <c r="AO25" s="148"/>
+      <c r="AP25" s="148"/>
+      <c r="AQ25" s="148"/>
+      <c r="AR25" s="148"/>
+      <c r="AS25" s="148"/>
+      <c r="AT25" s="148"/>
+      <c r="AU25" s="148"/>
+      <c r="AV25" s="148"/>
+      <c r="AW25" s="148"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="138"/>
-      <c r="T26" s="138"/>
-      <c r="U26" s="138"/>
-      <c r="V26" s="144"/>
-      <c r="W26" s="144"/>
-      <c r="X26" s="144"/>
-      <c r="Y26" s="144"/>
-      <c r="Z26" s="144"/>
-      <c r="AA26" s="144"/>
-      <c r="AB26" s="144"/>
-      <c r="AC26" s="144"/>
-      <c r="AD26" s="144"/>
-      <c r="AE26" s="144"/>
-      <c r="AF26" s="144"/>
-      <c r="AG26" s="144"/>
-      <c r="AH26" s="144"/>
-      <c r="AI26" s="144"/>
-      <c r="AJ26" s="144"/>
-      <c r="AK26" s="144"/>
-      <c r="AL26" s="144"/>
-      <c r="AM26" s="144"/>
-      <c r="AN26" s="138"/>
-      <c r="AO26" s="138"/>
-      <c r="AP26" s="138"/>
-      <c r="AQ26" s="138"/>
-      <c r="AR26" s="138"/>
-      <c r="AS26" s="138"/>
-      <c r="AT26" s="138"/>
-      <c r="AU26" s="138"/>
-      <c r="AV26" s="138"/>
-      <c r="AW26" s="138"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="154"/>
+      <c r="O26" s="154"/>
+      <c r="P26" s="154"/>
+      <c r="Q26" s="154"/>
+      <c r="R26" s="154"/>
+      <c r="S26" s="148"/>
+      <c r="T26" s="148"/>
+      <c r="U26" s="148"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
+      <c r="AD26" s="155"/>
+      <c r="AE26" s="155"/>
+      <c r="AF26" s="155"/>
+      <c r="AG26" s="155"/>
+      <c r="AH26" s="155"/>
+      <c r="AI26" s="155"/>
+      <c r="AJ26" s="155"/>
+      <c r="AK26" s="155"/>
+      <c r="AL26" s="155"/>
+      <c r="AM26" s="155"/>
+      <c r="AN26" s="148"/>
+      <c r="AO26" s="148"/>
+      <c r="AP26" s="148"/>
+      <c r="AQ26" s="148"/>
+      <c r="AR26" s="148"/>
+      <c r="AS26" s="148"/>
+      <c r="AT26" s="148"/>
+      <c r="AU26" s="148"/>
+      <c r="AV26" s="148"/>
+      <c r="AW26" s="148"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="146"/>
-      <c r="O27" s="146"/>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="146"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="138"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="144"/>
-      <c r="W27" s="144"/>
-      <c r="X27" s="144"/>
-      <c r="Y27" s="144"/>
-      <c r="Z27" s="144"/>
-      <c r="AA27" s="144"/>
-      <c r="AB27" s="144"/>
-      <c r="AC27" s="144"/>
-      <c r="AD27" s="144"/>
-      <c r="AE27" s="144"/>
-      <c r="AF27" s="144"/>
-      <c r="AG27" s="144"/>
-      <c r="AH27" s="144"/>
-      <c r="AI27" s="144"/>
-      <c r="AJ27" s="144"/>
-      <c r="AK27" s="144"/>
-      <c r="AL27" s="144"/>
-      <c r="AM27" s="144"/>
-      <c r="AN27" s="138"/>
-      <c r="AO27" s="138"/>
-      <c r="AP27" s="138"/>
-      <c r="AQ27" s="138"/>
-      <c r="AR27" s="138"/>
-      <c r="AS27" s="138"/>
-      <c r="AT27" s="138"/>
-      <c r="AU27" s="138"/>
-      <c r="AV27" s="138"/>
-      <c r="AW27" s="138"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="157"/>
+      <c r="N27" s="154"/>
+      <c r="O27" s="154"/>
+      <c r="P27" s="154"/>
+      <c r="Q27" s="154"/>
+      <c r="R27" s="154"/>
+      <c r="S27" s="148"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="148"/>
+      <c r="V27" s="155"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="155"/>
+      <c r="AC27" s="155"/>
+      <c r="AD27" s="155"/>
+      <c r="AE27" s="155"/>
+      <c r="AF27" s="155"/>
+      <c r="AG27" s="155"/>
+      <c r="AH27" s="155"/>
+      <c r="AI27" s="155"/>
+      <c r="AJ27" s="155"/>
+      <c r="AK27" s="155"/>
+      <c r="AL27" s="155"/>
+      <c r="AM27" s="155"/>
+      <c r="AN27" s="148"/>
+      <c r="AO27" s="148"/>
+      <c r="AP27" s="148"/>
+      <c r="AQ27" s="148"/>
+      <c r="AR27" s="148"/>
+      <c r="AS27" s="148"/>
+      <c r="AT27" s="148"/>
+      <c r="AU27" s="148"/>
+      <c r="AV27" s="148"/>
+      <c r="AW27" s="148"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="146"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="144"/>
-      <c r="W28" s="144"/>
-      <c r="X28" s="144"/>
-      <c r="Y28" s="144"/>
-      <c r="Z28" s="144"/>
-      <c r="AA28" s="144"/>
-      <c r="AB28" s="144"/>
-      <c r="AC28" s="144"/>
-      <c r="AD28" s="144"/>
-      <c r="AE28" s="144"/>
-      <c r="AF28" s="144"/>
-      <c r="AG28" s="144"/>
-      <c r="AH28" s="144"/>
-      <c r="AI28" s="144"/>
-      <c r="AJ28" s="144"/>
-      <c r="AK28" s="144"/>
-      <c r="AL28" s="144"/>
-      <c r="AM28" s="144"/>
-      <c r="AN28" s="138"/>
-      <c r="AO28" s="138"/>
-      <c r="AP28" s="138"/>
-      <c r="AQ28" s="138"/>
-      <c r="AR28" s="138"/>
-      <c r="AS28" s="138"/>
-      <c r="AT28" s="138"/>
-      <c r="AU28" s="138"/>
-      <c r="AV28" s="138"/>
-      <c r="AW28" s="138"/>
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="154"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="154"/>
+      <c r="P28" s="154"/>
+      <c r="Q28" s="154"/>
+      <c r="R28" s="154"/>
+      <c r="S28" s="148"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="148"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+      <c r="AD28" s="155"/>
+      <c r="AE28" s="155"/>
+      <c r="AF28" s="155"/>
+      <c r="AG28" s="155"/>
+      <c r="AH28" s="155"/>
+      <c r="AI28" s="155"/>
+      <c r="AJ28" s="155"/>
+      <c r="AK28" s="155"/>
+      <c r="AL28" s="155"/>
+      <c r="AM28" s="155"/>
+      <c r="AN28" s="148"/>
+      <c r="AO28" s="148"/>
+      <c r="AP28" s="148"/>
+      <c r="AQ28" s="148"/>
+      <c r="AR28" s="148"/>
+      <c r="AS28" s="148"/>
+      <c r="AT28" s="148"/>
+      <c r="AU28" s="148"/>
+      <c r="AV28" s="148"/>
+      <c r="AW28" s="148"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="146"/>
-      <c r="S29" s="138"/>
-      <c r="T29" s="138"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="144"/>
-      <c r="W29" s="144"/>
-      <c r="X29" s="144"/>
-      <c r="Y29" s="144"/>
-      <c r="Z29" s="144"/>
-      <c r="AA29" s="144"/>
-      <c r="AB29" s="144"/>
-      <c r="AC29" s="144"/>
-      <c r="AD29" s="144"/>
-      <c r="AE29" s="144"/>
-      <c r="AF29" s="144"/>
-      <c r="AG29" s="144"/>
-      <c r="AH29" s="144"/>
-      <c r="AI29" s="144"/>
-      <c r="AJ29" s="144"/>
-      <c r="AK29" s="144"/>
-      <c r="AL29" s="144"/>
-      <c r="AM29" s="144"/>
-      <c r="AN29" s="138"/>
-      <c r="AO29" s="138"/>
-      <c r="AP29" s="138"/>
-      <c r="AQ29" s="138"/>
-      <c r="AR29" s="138"/>
-      <c r="AS29" s="138"/>
-      <c r="AT29" s="138"/>
-      <c r="AU29" s="138"/>
-      <c r="AV29" s="138"/>
-      <c r="AW29" s="138"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="154"/>
+      <c r="N29" s="154"/>
+      <c r="O29" s="154"/>
+      <c r="P29" s="154"/>
+      <c r="Q29" s="154"/>
+      <c r="R29" s="154"/>
+      <c r="S29" s="148"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="148"/>
+      <c r="V29" s="155"/>
+      <c r="W29" s="155"/>
+      <c r="X29" s="155"/>
+      <c r="Y29" s="155"/>
+      <c r="Z29" s="155"/>
+      <c r="AA29" s="155"/>
+      <c r="AB29" s="155"/>
+      <c r="AC29" s="155"/>
+      <c r="AD29" s="155"/>
+      <c r="AE29" s="155"/>
+      <c r="AF29" s="155"/>
+      <c r="AG29" s="155"/>
+      <c r="AH29" s="155"/>
+      <c r="AI29" s="155"/>
+      <c r="AJ29" s="155"/>
+      <c r="AK29" s="155"/>
+      <c r="AL29" s="155"/>
+      <c r="AM29" s="155"/>
+      <c r="AN29" s="148"/>
+      <c r="AO29" s="148"/>
+      <c r="AP29" s="148"/>
+      <c r="AQ29" s="148"/>
+      <c r="AR29" s="148"/>
+      <c r="AS29" s="148"/>
+      <c r="AT29" s="148"/>
+      <c r="AU29" s="148"/>
+      <c r="AV29" s="148"/>
+      <c r="AW29" s="148"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="146"/>
-      <c r="S30" s="138"/>
-      <c r="T30" s="138"/>
-      <c r="U30" s="138"/>
-      <c r="V30" s="144"/>
-      <c r="W30" s="144"/>
-      <c r="X30" s="144"/>
-      <c r="Y30" s="144"/>
-      <c r="Z30" s="144"/>
-      <c r="AA30" s="144"/>
-      <c r="AB30" s="144"/>
-      <c r="AC30" s="144"/>
-      <c r="AD30" s="144"/>
-      <c r="AE30" s="144"/>
-      <c r="AF30" s="144"/>
-      <c r="AG30" s="144"/>
-      <c r="AH30" s="144"/>
-      <c r="AI30" s="144"/>
-      <c r="AJ30" s="144"/>
-      <c r="AK30" s="144"/>
-      <c r="AL30" s="144"/>
-      <c r="AM30" s="144"/>
-      <c r="AN30" s="138"/>
-      <c r="AO30" s="138"/>
-      <c r="AP30" s="138"/>
-      <c r="AQ30" s="138"/>
-      <c r="AR30" s="138"/>
-      <c r="AS30" s="138"/>
-      <c r="AT30" s="138"/>
-      <c r="AU30" s="138"/>
-      <c r="AV30" s="138"/>
-      <c r="AW30" s="138"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="154"/>
+      <c r="O30" s="154"/>
+      <c r="P30" s="154"/>
+      <c r="Q30" s="154"/>
+      <c r="R30" s="154"/>
+      <c r="S30" s="148"/>
+      <c r="T30" s="148"/>
+      <c r="U30" s="148"/>
+      <c r="V30" s="155"/>
+      <c r="W30" s="155"/>
+      <c r="X30" s="155"/>
+      <c r="Y30" s="155"/>
+      <c r="Z30" s="155"/>
+      <c r="AA30" s="155"/>
+      <c r="AB30" s="155"/>
+      <c r="AC30" s="155"/>
+      <c r="AD30" s="155"/>
+      <c r="AE30" s="155"/>
+      <c r="AF30" s="155"/>
+      <c r="AG30" s="155"/>
+      <c r="AH30" s="155"/>
+      <c r="AI30" s="155"/>
+      <c r="AJ30" s="155"/>
+      <c r="AK30" s="155"/>
+      <c r="AL30" s="155"/>
+      <c r="AM30" s="155"/>
+      <c r="AN30" s="148"/>
+      <c r="AO30" s="148"/>
+      <c r="AP30" s="148"/>
+      <c r="AQ30" s="148"/>
+      <c r="AR30" s="148"/>
+      <c r="AS30" s="148"/>
+      <c r="AT30" s="148"/>
+      <c r="AU30" s="148"/>
+      <c r="AV30" s="148"/>
+      <c r="AW30" s="148"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="146"/>
-      <c r="S31" s="138"/>
-      <c r="T31" s="138"/>
-      <c r="U31" s="138"/>
-      <c r="V31" s="144"/>
-      <c r="W31" s="144"/>
-      <c r="X31" s="144"/>
-      <c r="Y31" s="144"/>
-      <c r="Z31" s="144"/>
-      <c r="AA31" s="144"/>
-      <c r="AB31" s="144"/>
-      <c r="AC31" s="144"/>
-      <c r="AD31" s="144"/>
-      <c r="AE31" s="144"/>
-      <c r="AF31" s="144"/>
-      <c r="AG31" s="144"/>
-      <c r="AH31" s="144"/>
-      <c r="AI31" s="144"/>
-      <c r="AJ31" s="144"/>
-      <c r="AK31" s="144"/>
-      <c r="AL31" s="144"/>
-      <c r="AM31" s="144"/>
-      <c r="AN31" s="138"/>
-      <c r="AO31" s="138"/>
-      <c r="AP31" s="138"/>
-      <c r="AQ31" s="138"/>
-      <c r="AR31" s="138"/>
-      <c r="AS31" s="138"/>
-      <c r="AT31" s="138"/>
-      <c r="AU31" s="138"/>
-      <c r="AV31" s="138"/>
-      <c r="AW31" s="138"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
+      <c r="M31" s="157"/>
+      <c r="N31" s="154"/>
+      <c r="O31" s="154"/>
+      <c r="P31" s="154"/>
+      <c r="Q31" s="154"/>
+      <c r="R31" s="154"/>
+      <c r="S31" s="148"/>
+      <c r="T31" s="148"/>
+      <c r="U31" s="148"/>
+      <c r="V31" s="155"/>
+      <c r="W31" s="155"/>
+      <c r="X31" s="155"/>
+      <c r="Y31" s="155"/>
+      <c r="Z31" s="155"/>
+      <c r="AA31" s="155"/>
+      <c r="AB31" s="155"/>
+      <c r="AC31" s="155"/>
+      <c r="AD31" s="155"/>
+      <c r="AE31" s="155"/>
+      <c r="AF31" s="155"/>
+      <c r="AG31" s="155"/>
+      <c r="AH31" s="155"/>
+      <c r="AI31" s="155"/>
+      <c r="AJ31" s="155"/>
+      <c r="AK31" s="155"/>
+      <c r="AL31" s="155"/>
+      <c r="AM31" s="155"/>
+      <c r="AN31" s="148"/>
+      <c r="AO31" s="148"/>
+      <c r="AP31" s="148"/>
+      <c r="AQ31" s="148"/>
+      <c r="AR31" s="148"/>
+      <c r="AS31" s="148"/>
+      <c r="AT31" s="148"/>
+      <c r="AU31" s="148"/>
+      <c r="AV31" s="148"/>
+      <c r="AW31" s="148"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="146"/>
-      <c r="S32" s="138"/>
-      <c r="T32" s="138"/>
-      <c r="U32" s="138"/>
-      <c r="V32" s="144"/>
-      <c r="W32" s="144"/>
-      <c r="X32" s="144"/>
-      <c r="Y32" s="144"/>
-      <c r="Z32" s="144"/>
-      <c r="AA32" s="144"/>
-      <c r="AB32" s="144"/>
-      <c r="AC32" s="144"/>
-      <c r="AD32" s="144"/>
-      <c r="AE32" s="144"/>
-      <c r="AF32" s="144"/>
-      <c r="AG32" s="144"/>
-      <c r="AH32" s="144"/>
-      <c r="AI32" s="144"/>
-      <c r="AJ32" s="144"/>
-      <c r="AK32" s="144"/>
-      <c r="AL32" s="144"/>
-      <c r="AM32" s="144"/>
-      <c r="AN32" s="138"/>
-      <c r="AO32" s="138"/>
-      <c r="AP32" s="138"/>
-      <c r="AQ32" s="138"/>
-      <c r="AR32" s="138"/>
-      <c r="AS32" s="138"/>
-      <c r="AT32" s="138"/>
-      <c r="AU32" s="138"/>
-      <c r="AV32" s="138"/>
-      <c r="AW32" s="138"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
+      <c r="M32" s="157"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="154"/>
+      <c r="P32" s="154"/>
+      <c r="Q32" s="154"/>
+      <c r="R32" s="154"/>
+      <c r="S32" s="148"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="148"/>
+      <c r="V32" s="155"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+      <c r="AB32" s="155"/>
+      <c r="AC32" s="155"/>
+      <c r="AD32" s="155"/>
+      <c r="AE32" s="155"/>
+      <c r="AF32" s="155"/>
+      <c r="AG32" s="155"/>
+      <c r="AH32" s="155"/>
+      <c r="AI32" s="155"/>
+      <c r="AJ32" s="155"/>
+      <c r="AK32" s="155"/>
+      <c r="AL32" s="155"/>
+      <c r="AM32" s="155"/>
+      <c r="AN32" s="148"/>
+      <c r="AO32" s="148"/>
+      <c r="AP32" s="148"/>
+      <c r="AQ32" s="148"/>
+      <c r="AR32" s="148"/>
+      <c r="AS32" s="148"/>
+      <c r="AT32" s="148"/>
+      <c r="AU32" s="148"/>
+      <c r="AV32" s="148"/>
+      <c r="AW32" s="148"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="139"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="145"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="146"/>
-      <c r="S33" s="138"/>
-      <c r="T33" s="138"/>
-      <c r="U33" s="138"/>
-      <c r="V33" s="144"/>
-      <c r="W33" s="144"/>
-      <c r="X33" s="144"/>
-      <c r="Y33" s="144"/>
-      <c r="Z33" s="144"/>
-      <c r="AA33" s="144"/>
-      <c r="AB33" s="144"/>
-      <c r="AC33" s="144"/>
-      <c r="AD33" s="144"/>
-      <c r="AE33" s="144"/>
-      <c r="AF33" s="144"/>
-      <c r="AG33" s="144"/>
-      <c r="AH33" s="144"/>
-      <c r="AI33" s="144"/>
-      <c r="AJ33" s="144"/>
-      <c r="AK33" s="144"/>
-      <c r="AL33" s="144"/>
-      <c r="AM33" s="144"/>
-      <c r="AN33" s="138"/>
-      <c r="AO33" s="138"/>
-      <c r="AP33" s="138"/>
-      <c r="AQ33" s="138"/>
-      <c r="AR33" s="138"/>
-      <c r="AS33" s="138"/>
-      <c r="AT33" s="138"/>
-      <c r="AU33" s="138"/>
-      <c r="AV33" s="138"/>
-      <c r="AW33" s="138"/>
+      <c r="B33" s="149"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
+      <c r="M33" s="157"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="154"/>
+      <c r="P33" s="154"/>
+      <c r="Q33" s="154"/>
+      <c r="R33" s="154"/>
+      <c r="S33" s="148"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="148"/>
+      <c r="V33" s="155"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
+      <c r="Y33" s="155"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="155"/>
+      <c r="AB33" s="155"/>
+      <c r="AC33" s="155"/>
+      <c r="AD33" s="155"/>
+      <c r="AE33" s="155"/>
+      <c r="AF33" s="155"/>
+      <c r="AG33" s="155"/>
+      <c r="AH33" s="155"/>
+      <c r="AI33" s="155"/>
+      <c r="AJ33" s="155"/>
+      <c r="AK33" s="155"/>
+      <c r="AL33" s="155"/>
+      <c r="AM33" s="155"/>
+      <c r="AN33" s="148"/>
+      <c r="AO33" s="148"/>
+      <c r="AP33" s="148"/>
+      <c r="AQ33" s="148"/>
+      <c r="AR33" s="148"/>
+      <c r="AS33" s="148"/>
+      <c r="AT33" s="148"/>
+      <c r="AU33" s="148"/>
+      <c r="AV33" s="148"/>
+      <c r="AW33" s="148"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="139"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="142"/>
-      <c r="N34" s="143"/>
-      <c r="O34" s="143"/>
-      <c r="P34" s="143"/>
-      <c r="Q34" s="143"/>
-      <c r="R34" s="143"/>
-      <c r="S34" s="138"/>
-      <c r="T34" s="138"/>
-      <c r="U34" s="138"/>
-      <c r="V34" s="144"/>
-      <c r="W34" s="144"/>
-      <c r="X34" s="144"/>
-      <c r="Y34" s="144"/>
-      <c r="Z34" s="144"/>
-      <c r="AA34" s="144"/>
-      <c r="AB34" s="144"/>
-      <c r="AC34" s="144"/>
-      <c r="AD34" s="144"/>
-      <c r="AE34" s="144"/>
-      <c r="AF34" s="144"/>
-      <c r="AG34" s="144"/>
-      <c r="AH34" s="144"/>
-      <c r="AI34" s="144"/>
-      <c r="AJ34" s="144"/>
-      <c r="AK34" s="144"/>
-      <c r="AL34" s="144"/>
-      <c r="AM34" s="144"/>
-      <c r="AN34" s="138"/>
-      <c r="AO34" s="138"/>
-      <c r="AP34" s="138"/>
-      <c r="AQ34" s="138"/>
-      <c r="AR34" s="138"/>
-      <c r="AS34" s="138"/>
-      <c r="AT34" s="138"/>
-      <c r="AU34" s="138"/>
-      <c r="AV34" s="138"/>
-      <c r="AW34" s="138"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="151"/>
+      <c r="M34" s="161"/>
+      <c r="N34" s="162"/>
+      <c r="O34" s="162"/>
+      <c r="P34" s="162"/>
+      <c r="Q34" s="162"/>
+      <c r="R34" s="162"/>
+      <c r="S34" s="148"/>
+      <c r="T34" s="148"/>
+      <c r="U34" s="148"/>
+      <c r="V34" s="155"/>
+      <c r="W34" s="155"/>
+      <c r="X34" s="155"/>
+      <c r="Y34" s="155"/>
+      <c r="Z34" s="155"/>
+      <c r="AA34" s="155"/>
+      <c r="AB34" s="155"/>
+      <c r="AC34" s="155"/>
+      <c r="AD34" s="155"/>
+      <c r="AE34" s="155"/>
+      <c r="AF34" s="155"/>
+      <c r="AG34" s="155"/>
+      <c r="AH34" s="155"/>
+      <c r="AI34" s="155"/>
+      <c r="AJ34" s="155"/>
+      <c r="AK34" s="155"/>
+      <c r="AL34" s="155"/>
+      <c r="AM34" s="155"/>
+      <c r="AN34" s="148"/>
+      <c r="AO34" s="148"/>
+      <c r="AP34" s="148"/>
+      <c r="AQ34" s="148"/>
+      <c r="AR34" s="148"/>
+      <c r="AS34" s="148"/>
+      <c r="AT34" s="148"/>
+      <c r="AU34" s="148"/>
+      <c r="AV34" s="148"/>
+      <c r="AW34" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7183,230 +7252,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7487,14 +7341,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="167">
+      <c r="AO1" s="169">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
-      <c r="AP1" s="168"/>
-      <c r="AQ1" s="168"/>
-      <c r="AR1" s="168"/>
-      <c r="AS1" s="169"/>
+      <c r="AP1" s="170"/>
+      <c r="AQ1" s="170"/>
+      <c r="AR1" s="170"/>
+      <c r="AS1" s="171"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -7503,17 +7357,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="170" t="str">
+      <c r="AZ1" s="172" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="BA1" s="171"/>
-      <c r="BB1" s="171"/>
-      <c r="BC1" s="171"/>
-      <c r="BD1" s="171"/>
-      <c r="BE1" s="171"/>
-      <c r="BF1" s="171"/>
-      <c r="BG1" s="172"/>
+      <c r="BA1" s="173"/>
+      <c r="BB1" s="173"/>
+      <c r="BC1" s="173"/>
+      <c r="BD1" s="173"/>
+      <c r="BE1" s="173"/>
+      <c r="BF1" s="173"/>
+      <c r="BG1" s="174"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -7566,11 +7420,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="167"/>
-      <c r="AP2" s="168"/>
-      <c r="AQ2" s="168"/>
-      <c r="AR2" s="168"/>
-      <c r="AS2" s="169"/>
+      <c r="AO2" s="169"/>
+      <c r="AP2" s="170"/>
+      <c r="AQ2" s="170"/>
+      <c r="AR2" s="170"/>
+      <c r="AS2" s="171"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -7579,14 +7433,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="170"/>
-      <c r="BA2" s="171"/>
-      <c r="BB2" s="171"/>
-      <c r="BC2" s="171"/>
-      <c r="BD2" s="171"/>
-      <c r="BE2" s="171"/>
-      <c r="BF2" s="171"/>
-      <c r="BG2" s="172"/>
+      <c r="AZ2" s="172"/>
+      <c r="BA2" s="173"/>
+      <c r="BB2" s="173"/>
+      <c r="BC2" s="173"/>
+      <c r="BD2" s="173"/>
+      <c r="BE2" s="173"/>
+      <c r="BF2" s="173"/>
+      <c r="BG2" s="174"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -8985,10 +8839,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
-      <c r="B45" s="173" t="s">
+      <c r="B45" s="165" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="174"/>
+      <c r="C45" s="166"/>
       <c r="D45" s="91" t="s">
         <v>102</v>
       </c>
@@ -9071,10 +8925,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="28"/>
-      <c r="B46" s="165">
+      <c r="B46" s="167">
         <v>1</v>
       </c>
-      <c r="C46" s="166"/>
+      <c r="C46" s="168"/>
       <c r="D46" s="96" t="s">
         <v>132</v>
       </c>
@@ -9149,10 +9003,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="28"/>
-      <c r="B47" s="165">
+      <c r="B47" s="167">
         <v>2</v>
       </c>
-      <c r="C47" s="166"/>
+      <c r="C47" s="168"/>
       <c r="D47" s="96" t="s">
         <v>109</v>
       </c>
@@ -9227,10 +9081,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="28"/>
-      <c r="B48" s="165">
+      <c r="B48" s="167">
         <v>3</v>
       </c>
-      <c r="C48" s="166"/>
+      <c r="C48" s="168"/>
       <c r="D48" s="96" t="s">
         <v>109</v>
       </c>
@@ -9305,10 +9159,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="28"/>
-      <c r="B49" s="165">
+      <c r="B49" s="167">
         <v>4</v>
       </c>
-      <c r="C49" s="166"/>
+      <c r="C49" s="168"/>
       <c r="D49" s="126" t="s">
         <v>109</v>
       </c>
@@ -9383,10 +9237,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="28"/>
-      <c r="B50" s="165">
+      <c r="B50" s="167">
         <v>5</v>
       </c>
-      <c r="C50" s="166"/>
+      <c r="C50" s="168"/>
       <c r="D50" s="96" t="s">
         <v>109</v>
       </c>
@@ -9461,10 +9315,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="28"/>
-      <c r="B51" s="165">
+      <c r="B51" s="167">
         <v>6</v>
       </c>
-      <c r="C51" s="166"/>
+      <c r="C51" s="168"/>
       <c r="D51" s="126" t="s">
         <v>318</v>
       </c>
@@ -9539,10 +9393,10 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="28"/>
-      <c r="B52" s="165">
+      <c r="B52" s="167">
         <v>7</v>
       </c>
-      <c r="C52" s="166"/>
+      <c r="C52" s="168"/>
       <c r="D52" s="126" t="s">
         <v>318</v>
       </c>
@@ -9617,10 +9471,10 @@
     </row>
     <row r="53" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A53" s="28"/>
-      <c r="B53" s="165">
+      <c r="B53" s="167">
         <v>8</v>
       </c>
-      <c r="C53" s="166"/>
+      <c r="C53" s="168"/>
       <c r="D53" s="126" t="s">
         <v>318</v>
       </c>
@@ -9700,17 +9554,21 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="AG53:AH53"/>
-    <mergeCell ref="AI46:AJ46"/>
-    <mergeCell ref="AI53:AJ53"/>
-    <mergeCell ref="AI52:AJ52"/>
-    <mergeCell ref="AK53:AL53"/>
-    <mergeCell ref="AG52:AH52"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AK51:AL51"/>
+    <mergeCell ref="AI51:AJ51"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ1:BG1"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="AE50:AF50"/>
@@ -9718,33 +9576,29 @@
     <mergeCell ref="AE47:AF47"/>
     <mergeCell ref="AE52:AF52"/>
     <mergeCell ref="AE53:AF53"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="AG53:AH53"/>
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AI53:AJ53"/>
+    <mergeCell ref="AI52:AJ52"/>
+    <mergeCell ref="AK53:AL53"/>
+    <mergeCell ref="AG52:AH52"/>
     <mergeCell ref="AK47:AL47"/>
     <mergeCell ref="AK48:AL48"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
     <mergeCell ref="AI50:AJ50"/>
     <mergeCell ref="AI47:AJ47"/>
     <mergeCell ref="AI48:AJ48"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ1:BG1"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK46:AL46"/>
     <mergeCell ref="AK52:AL52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
     <mergeCell ref="AI49:AJ49"/>
     <mergeCell ref="AK49:AL49"/>
     <mergeCell ref="AK50:AL50"/>
-    <mergeCell ref="AE51:AF51"/>
     <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="AK51:AL51"/>
-    <mergeCell ref="AI51:AJ51"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -9765,7 +9619,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:DI5"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A1:XFD4"/>
       <selection pane="bottomLeft"/>
@@ -9868,7 +9722,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="167">
+      <c r="CD1" s="169">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -9890,7 +9744,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="170" t="str">
+      <c r="CU1" s="172" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -10021,7 +9875,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="170"/>
+      <c r="CU2" s="172"/>
       <c r="CV2" s="175"/>
       <c r="CW2" s="175"/>
       <c r="CX2" s="175"/>
@@ -10237,37 +10091,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="155" t="s">
+      <c r="C6" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="155" t="s">
+      <c r="D6" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="155" t="s">
+      <c r="E6" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="155" t="s">
+      <c r="F6" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="155" t="s">
+      <c r="G6" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="155" t="s">
+      <c r="H6" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="183" t="s">
+      <c r="I6" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="183" t="s">
+      <c r="J6" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="155" t="s">
+      <c r="K6" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="155" t="s">
+      <c r="L6" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="155" t="s">
+      <c r="M6" s="140" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="70" t="s">
@@ -10275,24 +10129,24 @@
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
-      <c r="Q6" s="183" t="s">
+      <c r="Q6" s="181" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="155"/>
-      <c r="E7" s="155"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="155"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="155"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
       <c r="N7" s="42" t="s">
         <v>80</v>
       </c>
@@ -10302,7 +10156,7 @@
       <c r="P7" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" s="183"/>
+      <c r="Q7" s="181"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -10505,37 +10359,37 @@
     <row r="14" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="155" t="s">
+      <c r="C14" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="155" t="s">
+      <c r="D14" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="155" t="s">
+      <c r="E14" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="155" t="s">
+      <c r="F14" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="155" t="s">
+      <c r="G14" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="155" t="s">
+      <c r="H14" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="181" t="s">
+      <c r="I14" s="182" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="183" t="s">
+      <c r="J14" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="155" t="s">
+      <c r="K14" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="155" t="s">
+      <c r="L14" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="155" t="s">
+      <c r="M14" s="140" t="s">
         <v>32</v>
       </c>
       <c r="N14" s="70" t="s">
@@ -10543,24 +10397,24 @@
       </c>
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
-      <c r="Q14" s="181" t="s">
+      <c r="Q14" s="182" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="155"/>
-      <c r="I15" s="182"/>
-      <c r="J15" s="183"/>
-      <c r="K15" s="155"/>
-      <c r="L15" s="155"/>
-      <c r="M15" s="155"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="183"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="140"/>
+      <c r="L15" s="140"/>
+      <c r="M15" s="140"/>
       <c r="N15" s="42" t="s">
         <v>80</v>
       </c>
@@ -10570,7 +10424,7 @@
       <c r="P15" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="Q15" s="182"/>
+      <c r="Q15" s="183"/>
     </row>
     <row r="16" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
@@ -10885,37 +10739,37 @@
     <row r="25" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="62"/>
-      <c r="C25" s="155" t="s">
+      <c r="C25" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="155" t="s">
+      <c r="D25" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="155" t="s">
+      <c r="E25" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="155" t="s">
+      <c r="F25" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="155" t="s">
+      <c r="G25" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="155" t="s">
+      <c r="H25" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="183" t="s">
+      <c r="I25" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="183" t="s">
+      <c r="J25" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="155" t="s">
+      <c r="K25" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="155" t="s">
+      <c r="L25" s="140" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="155" t="s">
+      <c r="M25" s="140" t="s">
         <v>32</v>
       </c>
       <c r="N25" s="70" t="s">
@@ -10923,24 +10777,24 @@
       </c>
       <c r="O25" s="70"/>
       <c r="P25" s="70"/>
-      <c r="Q25" s="183" t="s">
+      <c r="Q25" s="181" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="14"/>
       <c r="B26" s="62"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="183"/>
-      <c r="J26" s="183"/>
-      <c r="K26" s="155"/>
-      <c r="L26" s="155"/>
-      <c r="M26" s="155"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
       <c r="N26" s="42" t="s">
         <v>80</v>
       </c>
@@ -10950,7 +10804,7 @@
       <c r="P26" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="Q26" s="183"/>
+      <c r="Q26" s="181"/>
     </row>
     <row r="27" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="55"/>
@@ -11343,26 +11197,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="Q25:Q26"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="I25:I26"/>
@@ -11379,6 +11213,26 @@
     <mergeCell ref="H25:H26"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="E25:E26"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="M25:M26"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11455,7 +11309,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="167">
+      <c r="AI1" s="169">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -11471,7 +11325,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="170" t="str">
+      <c r="AT1" s="172" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -11542,7 +11396,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="170"/>
+      <c r="AT2" s="172"/>
       <c r="AU2" s="175"/>
       <c r="AV2" s="175"/>
       <c r="AW2" s="175"/>
@@ -27069,7 +26923,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="167">
+      <c r="AI1" s="169">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -27085,7 +26939,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="170" t="str">
+      <c r="AT1" s="172" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -27156,7 +27010,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="170"/>
+      <c r="AT2" s="172"/>
       <c r="AU2" s="175"/>
       <c r="AV2" s="175"/>
       <c r="AW2" s="175"/>
@@ -32340,7 +32194,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="167">
+      <c r="AI1" s="169">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -32356,7 +32210,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="170" t="str">
+      <c r="AT1" s="172" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -32427,7 +32281,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="170"/>
+      <c r="AT2" s="172"/>
       <c r="AU2" s="175"/>
       <c r="AV2" s="175"/>
       <c r="AW2" s="175"/>
@@ -44056,6 +43910,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -44213,12 +44073,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
@@ -44228,6 +44082,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44243,13 +44106,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_基本設計書/20200220リリース/SC-K17_成形金型番号別不良分析.xlsx
+++ b/01_基本設計書/20200220リリース/SC-K17_成形金型番号別不良分析.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\l-zhan\仕事\201911\仕様書\K-17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A2F59F-B4F1-433A-94D3-3DF613F0FC8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B261EE9-2D18-4653-9933-1BBC088A06CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1290" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="10230" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="326">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1638,19 +1638,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>選択した実績日範囲の日毎の列数分出力し、表示日の当該不良件数を表示、最大一ヶ月。</t>
-    <rPh sb="24" eb="26">
-      <t>トウガイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>フリョウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ケンスウ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>選択した実績日範囲の当該不良件数/不良件数の集計</t>
     <rPh sb="17" eb="19">
       <t>フリョウ</t>
@@ -1986,59 +1973,6 @@
     <phoneticPr fontId="19"/>
   </si>
   <si>
-    <t>※1  品種が空欄の場合、品名は非活性である。以外の場合、品名は活性である。</t>
-    <rPh sb="4" eb="6">
-      <t>ヒンシュ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒンメイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒンメイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>※2  集計単位が”品名”の場合、検索結果に金型を表示しない。</t>
-    <rPh sb="4" eb="6">
-      <t>シュウケイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒンメイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カナガタ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>「Mold(金型)」
 「Product(品名)」</t>
     <rPh sb="6" eb="8">
@@ -2260,16 +2194,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>休日の場合、背景色は緑となる</t>
-    <rPh sb="0" eb="2">
-      <t>キュウジツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>品名・金型別合計の行の背景色は黄色となる</t>
     <rPh sb="0" eb="2">
       <t>ヒンメイ</t>
@@ -2341,6 +2265,57 @@
   </si>
   <si>
     <t>###,##0</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>品種が空欄の場合、品名は非活性である。以外の場合、品名は活性である。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンシュ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒンメイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒンメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・選択した実績日範囲の日毎の列数分出力し、表示日の当該不良件数を表示、最大一ヶ月。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・休日る(顧客カレンダーマスタに当該日の稼働区分が'0')の場合、背景色は緑とな</t>
+    </r>
+    <rPh sb="25" eb="27">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>フリョウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンスウ</t>
+    </rPh>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -3244,47 +3219,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3315,11 +3249,64 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="30" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3339,18 +3326,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="8" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3369,13 +3344,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3973,7 +3948,7 @@
               <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
               <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
             </a:rPr>
-            <a:t>実績参照</a:t>
+            <a:t>実績参照メニュー</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4309,14 +4284,14 @@
       <xdr:col>91</xdr:col>
       <xdr:colOff>103400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>189726</xdr:rowOff>
+      <xdr:rowOff>199250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B24E52-9BA7-40E9-A416-651A6BD3C56B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC3B988-00BD-4281-BD63-A4C19C29B150}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4333,7 +4308,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="371475" y="1095375"/>
-          <a:ext cx="11000000" cy="6190476"/>
+          <a:ext cx="11000000" cy="6200000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5251,1779 +5226,1994 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="58"/>
-      <c r="B1" s="148" t="s">
+      <c r="B1" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
-      <c r="J1" s="148"/>
-      <c r="K1" s="148"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="148"/>
-      <c r="N1" s="148"/>
-      <c r="O1" s="148"/>
-      <c r="P1" s="148"/>
-      <c r="Q1" s="148"/>
-      <c r="R1" s="148"/>
-      <c r="S1" s="148"/>
-      <c r="T1" s="148"/>
-      <c r="U1" s="148"/>
-      <c r="V1" s="148"/>
-      <c r="W1" s="148"/>
-      <c r="X1" s="148"/>
-      <c r="Y1" s="148"/>
-      <c r="Z1" s="148"/>
-      <c r="AA1" s="148"/>
-      <c r="AB1" s="148"/>
-      <c r="AC1" s="148"/>
-      <c r="AD1" s="148"/>
-      <c r="AE1" s="148"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="148"/>
-      <c r="AH1" s="148"/>
-      <c r="AI1" s="148"/>
-      <c r="AJ1" s="148"/>
-      <c r="AK1" s="148"/>
-      <c r="AL1" s="148"/>
-      <c r="AM1" s="148"/>
-      <c r="AN1" s="148"/>
-      <c r="AO1" s="148"/>
-      <c r="AP1" s="148"/>
-      <c r="AQ1" s="148"/>
-      <c r="AR1" s="148"/>
-      <c r="AS1" s="148"/>
-      <c r="AT1" s="148"/>
-      <c r="AU1" s="148"/>
-      <c r="AV1" s="148"/>
-      <c r="AW1" s="148"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
+      <c r="J1" s="133"/>
+      <c r="K1" s="133"/>
+      <c r="L1" s="133"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+      <c r="O1" s="133"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="133"/>
+      <c r="S1" s="133"/>
+      <c r="T1" s="133"/>
+      <c r="U1" s="133"/>
+      <c r="V1" s="133"/>
+      <c r="W1" s="133"/>
+      <c r="X1" s="133"/>
+      <c r="Y1" s="133"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
+      <c r="AC1" s="133"/>
+      <c r="AD1" s="133"/>
+      <c r="AE1" s="133"/>
+      <c r="AF1" s="133"/>
+      <c r="AG1" s="133"/>
+      <c r="AH1" s="133"/>
+      <c r="AI1" s="133"/>
+      <c r="AJ1" s="133"/>
+      <c r="AK1" s="133"/>
+      <c r="AL1" s="133"/>
+      <c r="AM1" s="133"/>
+      <c r="AN1" s="133"/>
+      <c r="AO1" s="133"/>
+      <c r="AP1" s="133"/>
+      <c r="AQ1" s="133"/>
+      <c r="AR1" s="133"/>
+      <c r="AS1" s="133"/>
+      <c r="AT1" s="133"/>
+      <c r="AU1" s="133"/>
+      <c r="AV1" s="133"/>
+      <c r="AW1" s="133"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="149"/>
-      <c r="AE2" s="149"/>
-      <c r="AF2" s="149"/>
-      <c r="AG2" s="149"/>
-      <c r="AH2" s="149"/>
-      <c r="AI2" s="149"/>
-      <c r="AJ2" s="149"/>
-      <c r="AK2" s="149"/>
-      <c r="AL2" s="149"/>
-      <c r="AM2" s="149"/>
-      <c r="AN2" s="149"/>
-      <c r="AO2" s="149"/>
-      <c r="AP2" s="149"/>
-      <c r="AQ2" s="149"/>
-      <c r="AR2" s="149"/>
-      <c r="AS2" s="149"/>
-      <c r="AT2" s="149"/>
-      <c r="AU2" s="149"/>
-      <c r="AV2" s="149"/>
-      <c r="AW2" s="149"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="134"/>
+      <c r="AG2" s="134"/>
+      <c r="AH2" s="134"/>
+      <c r="AI2" s="134"/>
+      <c r="AJ2" s="134"/>
+      <c r="AK2" s="134"/>
+      <c r="AL2" s="134"/>
+      <c r="AM2" s="134"/>
+      <c r="AN2" s="134"/>
+      <c r="AO2" s="134"/>
+      <c r="AP2" s="134"/>
+      <c r="AQ2" s="134"/>
+      <c r="AR2" s="134"/>
+      <c r="AS2" s="134"/>
+      <c r="AT2" s="134"/>
+      <c r="AU2" s="134"/>
+      <c r="AV2" s="134"/>
+      <c r="AW2" s="134"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
-      <c r="B3" s="150" t="s">
+      <c r="B3" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150" t="s">
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="152" t="s">
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="153"/>
-      <c r="L3" s="154"/>
-      <c r="M3" s="152" t="s">
+      <c r="K3" s="138"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="153"/>
-      <c r="O3" s="153"/>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="154"/>
-      <c r="S3" s="150" t="s">
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="150"/>
-      <c r="U3" s="150"/>
-      <c r="V3" s="150" t="s">
+      <c r="T3" s="135"/>
+      <c r="U3" s="135"/>
+      <c r="V3" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="150"/>
-      <c r="X3" s="150"/>
-      <c r="Y3" s="150"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="150"/>
-      <c r="AB3" s="150"/>
-      <c r="AC3" s="150"/>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-      <c r="AF3" s="150"/>
-      <c r="AG3" s="150"/>
-      <c r="AH3" s="150"/>
-      <c r="AI3" s="150"/>
-      <c r="AJ3" s="150"/>
-      <c r="AK3" s="150"/>
-      <c r="AL3" s="150"/>
-      <c r="AM3" s="150"/>
-      <c r="AN3" s="150" t="s">
+      <c r="W3" s="135"/>
+      <c r="X3" s="135"/>
+      <c r="Y3" s="135"/>
+      <c r="Z3" s="135"/>
+      <c r="AA3" s="135"/>
+      <c r="AB3" s="135"/>
+      <c r="AC3" s="135"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="135"/>
+      <c r="AF3" s="135"/>
+      <c r="AG3" s="135"/>
+      <c r="AH3" s="135"/>
+      <c r="AI3" s="135"/>
+      <c r="AJ3" s="135"/>
+      <c r="AK3" s="135"/>
+      <c r="AL3" s="135"/>
+      <c r="AM3" s="135"/>
+      <c r="AN3" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="150"/>
-      <c r="AP3" s="150"/>
-      <c r="AQ3" s="150"/>
-      <c r="AR3" s="150"/>
-      <c r="AS3" s="150" t="s">
+      <c r="AO3" s="135"/>
+      <c r="AP3" s="135"/>
+      <c r="AQ3" s="135"/>
+      <c r="AR3" s="135"/>
+      <c r="AS3" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="AT3" s="150"/>
-      <c r="AU3" s="150"/>
-      <c r="AV3" s="150"/>
-      <c r="AW3" s="150"/>
+      <c r="AT3" s="135"/>
+      <c r="AU3" s="135"/>
+      <c r="AV3" s="135"/>
+      <c r="AW3" s="135"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="155"/>
-      <c r="N4" s="156"/>
-      <c r="O4" s="156"/>
-      <c r="P4" s="156"/>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="157"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
-      <c r="W4" s="151"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-      <c r="AA4" s="151"/>
-      <c r="AB4" s="151"/>
-      <c r="AC4" s="151"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="151"/>
-      <c r="AF4" s="151"/>
-      <c r="AG4" s="151"/>
-      <c r="AH4" s="151"/>
-      <c r="AI4" s="151"/>
-      <c r="AJ4" s="151"/>
-      <c r="AK4" s="151"/>
-      <c r="AL4" s="151"/>
-      <c r="AM4" s="151"/>
-      <c r="AN4" s="151"/>
-      <c r="AO4" s="151"/>
-      <c r="AP4" s="151"/>
-      <c r="AQ4" s="151"/>
-      <c r="AR4" s="151"/>
-      <c r="AS4" s="151"/>
-      <c r="AT4" s="151"/>
-      <c r="AU4" s="151"/>
-      <c r="AV4" s="151"/>
-      <c r="AW4" s="151"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="142"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
-      <c r="B5" s="134">
+      <c r="B5" s="144">
         <v>1</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="135">
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145">
         <v>43711</v>
       </c>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136" t="s">
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136" t="s">
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="133" t="s">
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="145" t="s">
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="W5" s="145"/>
-      <c r="X5" s="145"/>
-      <c r="Y5" s="145"/>
-      <c r="Z5" s="145"/>
-      <c r="AA5" s="145"/>
-      <c r="AB5" s="145"/>
-      <c r="AC5" s="145"/>
-      <c r="AD5" s="145"/>
-      <c r="AE5" s="145"/>
-      <c r="AF5" s="145"/>
-      <c r="AG5" s="145"/>
-      <c r="AH5" s="145"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="145"/>
-      <c r="AK5" s="145"/>
-      <c r="AL5" s="145"/>
-      <c r="AM5" s="145"/>
-      <c r="AN5" s="133" t="s">
+      <c r="W5" s="148"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
+      <c r="AC5" s="148"/>
+      <c r="AD5" s="148"/>
+      <c r="AE5" s="148"/>
+      <c r="AF5" s="148"/>
+      <c r="AG5" s="148"/>
+      <c r="AH5" s="148"/>
+      <c r="AI5" s="148"/>
+      <c r="AJ5" s="148"/>
+      <c r="AK5" s="148"/>
+      <c r="AL5" s="148"/>
+      <c r="AM5" s="148"/>
+      <c r="AN5" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="AO5" s="133"/>
-      <c r="AP5" s="133"/>
-      <c r="AQ5" s="133"/>
-      <c r="AR5" s="133"/>
-      <c r="AS5" s="133"/>
-      <c r="AT5" s="133"/>
-      <c r="AU5" s="133"/>
-      <c r="AV5" s="133"/>
-      <c r="AW5" s="133"/>
+      <c r="AO5" s="143"/>
+      <c r="AP5" s="143"/>
+      <c r="AQ5" s="143"/>
+      <c r="AR5" s="143"/>
+      <c r="AS5" s="143"/>
+      <c r="AT5" s="143"/>
+      <c r="AU5" s="143"/>
+      <c r="AV5" s="143"/>
+      <c r="AW5" s="143"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="60"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
       <c r="M6" s="147"/>
       <c r="N6" s="147"/>
       <c r="O6" s="147"/>
       <c r="P6" s="147"/>
       <c r="Q6" s="147"/>
       <c r="R6" s="147"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133"/>
-      <c r="V6" s="145"/>
-      <c r="W6" s="145"/>
-      <c r="X6" s="145"/>
-      <c r="Y6" s="145"/>
-      <c r="Z6" s="145"/>
-      <c r="AA6" s="145"/>
-      <c r="AB6" s="145"/>
-      <c r="AC6" s="145"/>
-      <c r="AD6" s="145"/>
-      <c r="AE6" s="145"/>
-      <c r="AF6" s="145"/>
-      <c r="AG6" s="145"/>
-      <c r="AH6" s="145"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="145"/>
-      <c r="AK6" s="145"/>
-      <c r="AL6" s="145"/>
-      <c r="AM6" s="145"/>
-      <c r="AN6" s="133"/>
-      <c r="AO6" s="133"/>
-      <c r="AP6" s="133"/>
-      <c r="AQ6" s="133"/>
-      <c r="AR6" s="133"/>
-      <c r="AS6" s="133"/>
-      <c r="AT6" s="133"/>
-      <c r="AU6" s="133"/>
-      <c r="AV6" s="133"/>
-      <c r="AW6" s="133"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="148"/>
+      <c r="W6" s="148"/>
+      <c r="X6" s="148"/>
+      <c r="Y6" s="148"/>
+      <c r="Z6" s="148"/>
+      <c r="AA6" s="148"/>
+      <c r="AB6" s="148"/>
+      <c r="AC6" s="148"/>
+      <c r="AD6" s="148"/>
+      <c r="AE6" s="148"/>
+      <c r="AF6" s="148"/>
+      <c r="AG6" s="148"/>
+      <c r="AH6" s="148"/>
+      <c r="AI6" s="148"/>
+      <c r="AJ6" s="148"/>
+      <c r="AK6" s="148"/>
+      <c r="AL6" s="148"/>
+      <c r="AM6" s="148"/>
+      <c r="AN6" s="143"/>
+      <c r="AO6" s="143"/>
+      <c r="AP6" s="143"/>
+      <c r="AQ6" s="143"/>
+      <c r="AR6" s="143"/>
+      <c r="AS6" s="143"/>
+      <c r="AT6" s="143"/>
+      <c r="AU6" s="143"/>
+      <c r="AV6" s="143"/>
+      <c r="AW6" s="143"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="60"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
       <c r="M7" s="147"/>
       <c r="N7" s="147"/>
       <c r="O7" s="147"/>
       <c r="P7" s="147"/>
       <c r="Q7" s="147"/>
       <c r="R7" s="147"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
-      <c r="U7" s="133"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
-      <c r="Y7" s="145"/>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="145"/>
-      <c r="AB7" s="145"/>
-      <c r="AC7" s="145"/>
-      <c r="AD7" s="145"/>
-      <c r="AE7" s="145"/>
-      <c r="AF7" s="145"/>
-      <c r="AG7" s="145"/>
-      <c r="AH7" s="145"/>
-      <c r="AI7" s="145"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="145"/>
-      <c r="AL7" s="145"/>
-      <c r="AM7" s="145"/>
-      <c r="AN7" s="133"/>
-      <c r="AO7" s="133"/>
-      <c r="AP7" s="133"/>
-      <c r="AQ7" s="133"/>
-      <c r="AR7" s="133"/>
-      <c r="AS7" s="133"/>
-      <c r="AT7" s="133"/>
-      <c r="AU7" s="133"/>
-      <c r="AV7" s="133"/>
-      <c r="AW7" s="133"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="148"/>
+      <c r="W7" s="148"/>
+      <c r="X7" s="148"/>
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="148"/>
+      <c r="AA7" s="148"/>
+      <c r="AB7" s="148"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="148"/>
+      <c r="AF7" s="148"/>
+      <c r="AG7" s="148"/>
+      <c r="AH7" s="148"/>
+      <c r="AI7" s="148"/>
+      <c r="AJ7" s="148"/>
+      <c r="AK7" s="148"/>
+      <c r="AL7" s="148"/>
+      <c r="AM7" s="148"/>
+      <c r="AN7" s="143"/>
+      <c r="AO7" s="143"/>
+      <c r="AP7" s="143"/>
+      <c r="AQ7" s="143"/>
+      <c r="AR7" s="143"/>
+      <c r="AS7" s="143"/>
+      <c r="AT7" s="143"/>
+      <c r="AU7" s="143"/>
+      <c r="AV7" s="143"/>
+      <c r="AW7" s="143"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="60"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
       <c r="M8" s="147"/>
       <c r="N8" s="147"/>
       <c r="O8" s="147"/>
       <c r="P8" s="147"/>
       <c r="Q8" s="147"/>
       <c r="R8" s="147"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="133"/>
-      <c r="U8" s="133"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="145"/>
-      <c r="X8" s="145"/>
-      <c r="Y8" s="145"/>
-      <c r="Z8" s="145"/>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="145"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="145"/>
-      <c r="AG8" s="145"/>
-      <c r="AH8" s="145"/>
-      <c r="AI8" s="145"/>
-      <c r="AJ8" s="145"/>
-      <c r="AK8" s="145"/>
-      <c r="AL8" s="145"/>
-      <c r="AM8" s="145"/>
-      <c r="AN8" s="133"/>
-      <c r="AO8" s="133"/>
-      <c r="AP8" s="133"/>
-      <c r="AQ8" s="133"/>
-      <c r="AR8" s="133"/>
-      <c r="AS8" s="133"/>
-      <c r="AT8" s="133"/>
-      <c r="AU8" s="133"/>
-      <c r="AV8" s="133"/>
-      <c r="AW8" s="133"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="148"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="148"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="148"/>
+      <c r="AB8" s="148"/>
+      <c r="AC8" s="148"/>
+      <c r="AD8" s="148"/>
+      <c r="AE8" s="148"/>
+      <c r="AF8" s="148"/>
+      <c r="AG8" s="148"/>
+      <c r="AH8" s="148"/>
+      <c r="AI8" s="148"/>
+      <c r="AJ8" s="148"/>
+      <c r="AK8" s="148"/>
+      <c r="AL8" s="148"/>
+      <c r="AM8" s="148"/>
+      <c r="AN8" s="143"/>
+      <c r="AO8" s="143"/>
+      <c r="AP8" s="143"/>
+      <c r="AQ8" s="143"/>
+      <c r="AR8" s="143"/>
+      <c r="AS8" s="143"/>
+      <c r="AT8" s="143"/>
+      <c r="AU8" s="143"/>
+      <c r="AV8" s="143"/>
+      <c r="AW8" s="143"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="60"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
       <c r="M9" s="147"/>
       <c r="N9" s="147"/>
       <c r="O9" s="147"/>
       <c r="P9" s="147"/>
       <c r="Q9" s="147"/>
       <c r="R9" s="147"/>
-      <c r="S9" s="133"/>
-      <c r="T9" s="133"/>
-      <c r="U9" s="133"/>
-      <c r="V9" s="145"/>
-      <c r="W9" s="145"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="145"/>
-      <c r="Z9" s="145"/>
-      <c r="AA9" s="145"/>
-      <c r="AB9" s="145"/>
-      <c r="AC9" s="145"/>
-      <c r="AD9" s="145"/>
-      <c r="AE9" s="145"/>
-      <c r="AF9" s="145"/>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="145"/>
-      <c r="AI9" s="145"/>
-      <c r="AJ9" s="145"/>
-      <c r="AK9" s="145"/>
-      <c r="AL9" s="145"/>
-      <c r="AM9" s="145"/>
-      <c r="AN9" s="133"/>
-      <c r="AO9" s="133"/>
-      <c r="AP9" s="133"/>
-      <c r="AQ9" s="133"/>
-      <c r="AR9" s="133"/>
-      <c r="AS9" s="133"/>
-      <c r="AT9" s="133"/>
-      <c r="AU9" s="133"/>
-      <c r="AV9" s="133"/>
-      <c r="AW9" s="133"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="148"/>
+      <c r="Z9" s="148"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="148"/>
+      <c r="AG9" s="148"/>
+      <c r="AH9" s="148"/>
+      <c r="AI9" s="148"/>
+      <c r="AJ9" s="148"/>
+      <c r="AK9" s="148"/>
+      <c r="AL9" s="148"/>
+      <c r="AM9" s="148"/>
+      <c r="AN9" s="143"/>
+      <c r="AO9" s="143"/>
+      <c r="AP9" s="143"/>
+      <c r="AQ9" s="143"/>
+      <c r="AR9" s="143"/>
+      <c r="AS9" s="143"/>
+      <c r="AT9" s="143"/>
+      <c r="AU9" s="143"/>
+      <c r="AV9" s="143"/>
+      <c r="AW9" s="143"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="60"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="136"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
+      <c r="K10" s="146"/>
+      <c r="L10" s="146"/>
       <c r="M10" s="147"/>
       <c r="N10" s="147"/>
       <c r="O10" s="147"/>
       <c r="P10" s="147"/>
       <c r="Q10" s="147"/>
       <c r="R10" s="147"/>
-      <c r="S10" s="133"/>
-      <c r="T10" s="133"/>
-      <c r="U10" s="133"/>
-      <c r="V10" s="145"/>
-      <c r="W10" s="145"/>
-      <c r="X10" s="145"/>
-      <c r="Y10" s="145"/>
-      <c r="Z10" s="145"/>
-      <c r="AA10" s="145"/>
-      <c r="AB10" s="145"/>
-      <c r="AC10" s="145"/>
-      <c r="AD10" s="145"/>
-      <c r="AE10" s="145"/>
-      <c r="AF10" s="145"/>
-      <c r="AG10" s="145"/>
-      <c r="AH10" s="145"/>
-      <c r="AI10" s="145"/>
-      <c r="AJ10" s="145"/>
-      <c r="AK10" s="145"/>
-      <c r="AL10" s="145"/>
-      <c r="AM10" s="145"/>
-      <c r="AN10" s="133"/>
-      <c r="AO10" s="133"/>
-      <c r="AP10" s="133"/>
-      <c r="AQ10" s="133"/>
-      <c r="AR10" s="133"/>
-      <c r="AS10" s="133"/>
-      <c r="AT10" s="133"/>
-      <c r="AU10" s="133"/>
-      <c r="AV10" s="133"/>
-      <c r="AW10" s="133"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="148"/>
+      <c r="X10" s="148"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="148"/>
+      <c r="AA10" s="148"/>
+      <c r="AB10" s="148"/>
+      <c r="AC10" s="148"/>
+      <c r="AD10" s="148"/>
+      <c r="AE10" s="148"/>
+      <c r="AF10" s="148"/>
+      <c r="AG10" s="148"/>
+      <c r="AH10" s="148"/>
+      <c r="AI10" s="148"/>
+      <c r="AJ10" s="148"/>
+      <c r="AK10" s="148"/>
+      <c r="AL10" s="148"/>
+      <c r="AM10" s="148"/>
+      <c r="AN10" s="143"/>
+      <c r="AO10" s="143"/>
+      <c r="AP10" s="143"/>
+      <c r="AQ10" s="143"/>
+      <c r="AR10" s="143"/>
+      <c r="AS10" s="143"/>
+      <c r="AT10" s="143"/>
+      <c r="AU10" s="143"/>
+      <c r="AV10" s="143"/>
+      <c r="AW10" s="143"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="60"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="136"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="133"/>
-      <c r="T11" s="133"/>
-      <c r="U11" s="133"/>
-      <c r="V11" s="139"/>
-      <c r="W11" s="146"/>
-      <c r="X11" s="146"/>
-      <c r="Y11" s="146"/>
-      <c r="Z11" s="146"/>
-      <c r="AA11" s="146"/>
-      <c r="AB11" s="146"/>
-      <c r="AC11" s="146"/>
-      <c r="AD11" s="146"/>
-      <c r="AE11" s="146"/>
-      <c r="AF11" s="146"/>
-      <c r="AG11" s="146"/>
-      <c r="AH11" s="146"/>
-      <c r="AI11" s="146"/>
-      <c r="AJ11" s="146"/>
-      <c r="AK11" s="146"/>
-      <c r="AL11" s="146"/>
-      <c r="AM11" s="146"/>
-      <c r="AN11" s="133"/>
-      <c r="AO11" s="133"/>
-      <c r="AP11" s="133"/>
-      <c r="AQ11" s="133"/>
-      <c r="AR11" s="133"/>
-      <c r="AS11" s="133"/>
-      <c r="AT11" s="133"/>
-      <c r="AU11" s="133"/>
-      <c r="AV11" s="133"/>
-      <c r="AW11" s="133"/>
+      <c r="B11" s="144"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="150"/>
+      <c r="W11" s="151"/>
+      <c r="X11" s="151"/>
+      <c r="Y11" s="151"/>
+      <c r="Z11" s="151"/>
+      <c r="AA11" s="151"/>
+      <c r="AB11" s="151"/>
+      <c r="AC11" s="151"/>
+      <c r="AD11" s="151"/>
+      <c r="AE11" s="151"/>
+      <c r="AF11" s="151"/>
+      <c r="AG11" s="151"/>
+      <c r="AH11" s="151"/>
+      <c r="AI11" s="151"/>
+      <c r="AJ11" s="151"/>
+      <c r="AK11" s="151"/>
+      <c r="AL11" s="151"/>
+      <c r="AM11" s="151"/>
+      <c r="AN11" s="143"/>
+      <c r="AO11" s="143"/>
+      <c r="AP11" s="143"/>
+      <c r="AQ11" s="143"/>
+      <c r="AR11" s="143"/>
+      <c r="AS11" s="143"/>
+      <c r="AT11" s="143"/>
+      <c r="AU11" s="143"/>
+      <c r="AV11" s="143"/>
+      <c r="AW11" s="143"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="60"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="133"/>
-      <c r="T12" s="133"/>
-      <c r="U12" s="133"/>
-      <c r="V12" s="139"/>
-      <c r="W12" s="139"/>
-      <c r="X12" s="139"/>
-      <c r="Y12" s="139"/>
-      <c r="Z12" s="139"/>
-      <c r="AA12" s="139"/>
-      <c r="AB12" s="139"/>
-      <c r="AC12" s="139"/>
-      <c r="AD12" s="139"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="139"/>
-      <c r="AG12" s="139"/>
-      <c r="AH12" s="139"/>
-      <c r="AI12" s="139"/>
-      <c r="AJ12" s="139"/>
-      <c r="AK12" s="139"/>
-      <c r="AL12" s="139"/>
-      <c r="AM12" s="139"/>
-      <c r="AN12" s="133"/>
-      <c r="AO12" s="133"/>
-      <c r="AP12" s="133"/>
-      <c r="AQ12" s="133"/>
-      <c r="AR12" s="133"/>
-      <c r="AS12" s="133"/>
-      <c r="AT12" s="133"/>
-      <c r="AU12" s="133"/>
-      <c r="AV12" s="133"/>
-      <c r="AW12" s="133"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="150"/>
+      <c r="W12" s="150"/>
+      <c r="X12" s="150"/>
+      <c r="Y12" s="150"/>
+      <c r="Z12" s="150"/>
+      <c r="AA12" s="150"/>
+      <c r="AB12" s="150"/>
+      <c r="AC12" s="150"/>
+      <c r="AD12" s="150"/>
+      <c r="AE12" s="150"/>
+      <c r="AF12" s="150"/>
+      <c r="AG12" s="150"/>
+      <c r="AH12" s="150"/>
+      <c r="AI12" s="150"/>
+      <c r="AJ12" s="150"/>
+      <c r="AK12" s="150"/>
+      <c r="AL12" s="150"/>
+      <c r="AM12" s="150"/>
+      <c r="AN12" s="143"/>
+      <c r="AO12" s="143"/>
+      <c r="AP12" s="143"/>
+      <c r="AQ12" s="143"/>
+      <c r="AR12" s="143"/>
+      <c r="AS12" s="143"/>
+      <c r="AT12" s="143"/>
+      <c r="AU12" s="143"/>
+      <c r="AV12" s="143"/>
+      <c r="AW12" s="143"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="60"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="136"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="133"/>
-      <c r="T13" s="133"/>
-      <c r="U13" s="133"/>
-      <c r="V13" s="139"/>
-      <c r="W13" s="139"/>
-      <c r="X13" s="139"/>
-      <c r="Y13" s="139"/>
-      <c r="Z13" s="139"/>
-      <c r="AA13" s="139"/>
-      <c r="AB13" s="139"/>
-      <c r="AC13" s="139"/>
-      <c r="AD13" s="139"/>
-      <c r="AE13" s="139"/>
-      <c r="AF13" s="139"/>
-      <c r="AG13" s="139"/>
-      <c r="AH13" s="139"/>
-      <c r="AI13" s="139"/>
-      <c r="AJ13" s="139"/>
-      <c r="AK13" s="139"/>
-      <c r="AL13" s="139"/>
-      <c r="AM13" s="139"/>
-      <c r="AN13" s="133"/>
-      <c r="AO13" s="133"/>
-      <c r="AP13" s="133"/>
-      <c r="AQ13" s="133"/>
-      <c r="AR13" s="133"/>
-      <c r="AS13" s="133"/>
-      <c r="AT13" s="133"/>
-      <c r="AU13" s="133"/>
-      <c r="AV13" s="133"/>
-      <c r="AW13" s="133"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="146"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="150"/>
+      <c r="W13" s="150"/>
+      <c r="X13" s="150"/>
+      <c r="Y13" s="150"/>
+      <c r="Z13" s="150"/>
+      <c r="AA13" s="150"/>
+      <c r="AB13" s="150"/>
+      <c r="AC13" s="150"/>
+      <c r="AD13" s="150"/>
+      <c r="AE13" s="150"/>
+      <c r="AF13" s="150"/>
+      <c r="AG13" s="150"/>
+      <c r="AH13" s="150"/>
+      <c r="AI13" s="150"/>
+      <c r="AJ13" s="150"/>
+      <c r="AK13" s="150"/>
+      <c r="AL13" s="150"/>
+      <c r="AM13" s="150"/>
+      <c r="AN13" s="143"/>
+      <c r="AO13" s="143"/>
+      <c r="AP13" s="143"/>
+      <c r="AQ13" s="143"/>
+      <c r="AR13" s="143"/>
+      <c r="AS13" s="143"/>
+      <c r="AT13" s="143"/>
+      <c r="AU13" s="143"/>
+      <c r="AV13" s="143"/>
+      <c r="AW13" s="143"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="60"/>
-      <c r="B14" s="134"/>
-      <c r="C14" s="134"/>
-      <c r="D14" s="134"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="133"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="145"/>
-      <c r="X14" s="145"/>
-      <c r="Y14" s="145"/>
-      <c r="Z14" s="145"/>
-      <c r="AA14" s="145"/>
-      <c r="AB14" s="145"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="145"/>
-      <c r="AE14" s="145"/>
-      <c r="AF14" s="145"/>
-      <c r="AG14" s="145"/>
-      <c r="AH14" s="145"/>
-      <c r="AI14" s="145"/>
-      <c r="AJ14" s="145"/>
-      <c r="AK14" s="145"/>
-      <c r="AL14" s="145"/>
-      <c r="AM14" s="145"/>
-      <c r="AN14" s="133"/>
-      <c r="AO14" s="133"/>
-      <c r="AP14" s="133"/>
-      <c r="AQ14" s="133"/>
-      <c r="AR14" s="133"/>
-      <c r="AS14" s="133"/>
-      <c r="AT14" s="133"/>
-      <c r="AU14" s="133"/>
-      <c r="AV14" s="133"/>
-      <c r="AW14" s="133"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="149"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="148"/>
+      <c r="X14" s="148"/>
+      <c r="Y14" s="148"/>
+      <c r="Z14" s="148"/>
+      <c r="AA14" s="148"/>
+      <c r="AB14" s="148"/>
+      <c r="AC14" s="148"/>
+      <c r="AD14" s="148"/>
+      <c r="AE14" s="148"/>
+      <c r="AF14" s="148"/>
+      <c r="AG14" s="148"/>
+      <c r="AH14" s="148"/>
+      <c r="AI14" s="148"/>
+      <c r="AJ14" s="148"/>
+      <c r="AK14" s="148"/>
+      <c r="AL14" s="148"/>
+      <c r="AM14" s="148"/>
+      <c r="AN14" s="143"/>
+      <c r="AO14" s="143"/>
+      <c r="AP14" s="143"/>
+      <c r="AQ14" s="143"/>
+      <c r="AR14" s="143"/>
+      <c r="AS14" s="143"/>
+      <c r="AT14" s="143"/>
+      <c r="AU14" s="143"/>
+      <c r="AV14" s="143"/>
+      <c r="AW14" s="143"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="60"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="141"/>
-      <c r="R15" s="141"/>
-      <c r="S15" s="133"/>
-      <c r="T15" s="133"/>
-      <c r="U15" s="133"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="139"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="139"/>
-      <c r="AF15" s="139"/>
-      <c r="AG15" s="139"/>
-      <c r="AH15" s="139"/>
-      <c r="AI15" s="139"/>
-      <c r="AJ15" s="139"/>
-      <c r="AK15" s="139"/>
-      <c r="AL15" s="139"/>
-      <c r="AM15" s="139"/>
-      <c r="AN15" s="133"/>
-      <c r="AO15" s="133"/>
-      <c r="AP15" s="133"/>
-      <c r="AQ15" s="133"/>
-      <c r="AR15" s="133"/>
-      <c r="AS15" s="133"/>
-      <c r="AT15" s="133"/>
-      <c r="AU15" s="133"/>
-      <c r="AV15" s="133"/>
-      <c r="AW15" s="133"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="149"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="149"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="150"/>
+      <c r="W15" s="150"/>
+      <c r="X15" s="150"/>
+      <c r="Y15" s="150"/>
+      <c r="Z15" s="150"/>
+      <c r="AA15" s="150"/>
+      <c r="AB15" s="150"/>
+      <c r="AC15" s="150"/>
+      <c r="AD15" s="150"/>
+      <c r="AE15" s="150"/>
+      <c r="AF15" s="150"/>
+      <c r="AG15" s="150"/>
+      <c r="AH15" s="150"/>
+      <c r="AI15" s="150"/>
+      <c r="AJ15" s="150"/>
+      <c r="AK15" s="150"/>
+      <c r="AL15" s="150"/>
+      <c r="AM15" s="150"/>
+      <c r="AN15" s="143"/>
+      <c r="AO15" s="143"/>
+      <c r="AP15" s="143"/>
+      <c r="AQ15" s="143"/>
+      <c r="AR15" s="143"/>
+      <c r="AS15" s="143"/>
+      <c r="AT15" s="143"/>
+      <c r="AU15" s="143"/>
+      <c r="AV15" s="143"/>
+      <c r="AW15" s="143"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="60"/>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="136"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="133"/>
-      <c r="T16" s="133"/>
-      <c r="U16" s="133"/>
-      <c r="V16" s="139"/>
-      <c r="W16" s="139"/>
-      <c r="X16" s="139"/>
-      <c r="Y16" s="139"/>
-      <c r="Z16" s="139"/>
-      <c r="AA16" s="139"/>
-      <c r="AB16" s="139"/>
-      <c r="AC16" s="139"/>
-      <c r="AD16" s="139"/>
-      <c r="AE16" s="139"/>
-      <c r="AF16" s="139"/>
-      <c r="AG16" s="139"/>
-      <c r="AH16" s="139"/>
-      <c r="AI16" s="139"/>
-      <c r="AJ16" s="139"/>
-      <c r="AK16" s="139"/>
-      <c r="AL16" s="139"/>
-      <c r="AM16" s="139"/>
-      <c r="AN16" s="133"/>
-      <c r="AO16" s="133"/>
-      <c r="AP16" s="133"/>
-      <c r="AQ16" s="133"/>
-      <c r="AR16" s="133"/>
-      <c r="AS16" s="133"/>
-      <c r="AT16" s="133"/>
-      <c r="AU16" s="133"/>
-      <c r="AV16" s="133"/>
-      <c r="AW16" s="133"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="146"/>
+      <c r="K16" s="146"/>
+      <c r="L16" s="146"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="149"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="150"/>
+      <c r="W16" s="150"/>
+      <c r="X16" s="150"/>
+      <c r="Y16" s="150"/>
+      <c r="Z16" s="150"/>
+      <c r="AA16" s="150"/>
+      <c r="AB16" s="150"/>
+      <c r="AC16" s="150"/>
+      <c r="AD16" s="150"/>
+      <c r="AE16" s="150"/>
+      <c r="AF16" s="150"/>
+      <c r="AG16" s="150"/>
+      <c r="AH16" s="150"/>
+      <c r="AI16" s="150"/>
+      <c r="AJ16" s="150"/>
+      <c r="AK16" s="150"/>
+      <c r="AL16" s="150"/>
+      <c r="AM16" s="150"/>
+      <c r="AN16" s="143"/>
+      <c r="AO16" s="143"/>
+      <c r="AP16" s="143"/>
+      <c r="AQ16" s="143"/>
+      <c r="AR16" s="143"/>
+      <c r="AS16" s="143"/>
+      <c r="AT16" s="143"/>
+      <c r="AU16" s="143"/>
+      <c r="AV16" s="143"/>
+      <c r="AW16" s="143"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="60"/>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="142"/>
-      <c r="S17" s="143"/>
-      <c r="T17" s="143"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="139"/>
-      <c r="W17" s="139"/>
-      <c r="X17" s="139"/>
-      <c r="Y17" s="139"/>
-      <c r="Z17" s="139"/>
-      <c r="AA17" s="139"/>
-      <c r="AB17" s="139"/>
-      <c r="AC17" s="139"/>
-      <c r="AD17" s="139"/>
-      <c r="AE17" s="139"/>
-      <c r="AF17" s="139"/>
-      <c r="AG17" s="139"/>
-      <c r="AH17" s="139"/>
-      <c r="AI17" s="139"/>
-      <c r="AJ17" s="139"/>
-      <c r="AK17" s="139"/>
-      <c r="AL17" s="139"/>
-      <c r="AM17" s="139"/>
-      <c r="AN17" s="133"/>
-      <c r="AO17" s="133"/>
-      <c r="AP17" s="133"/>
-      <c r="AQ17" s="133"/>
-      <c r="AR17" s="133"/>
-      <c r="AS17" s="133"/>
-      <c r="AT17" s="133"/>
-      <c r="AU17" s="133"/>
-      <c r="AV17" s="133"/>
-      <c r="AW17" s="133"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="146"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="149"/>
+      <c r="P17" s="149"/>
+      <c r="Q17" s="149"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="155"/>
+      <c r="T17" s="155"/>
+      <c r="U17" s="155"/>
+      <c r="V17" s="150"/>
+      <c r="W17" s="150"/>
+      <c r="X17" s="150"/>
+      <c r="Y17" s="150"/>
+      <c r="Z17" s="150"/>
+      <c r="AA17" s="150"/>
+      <c r="AB17" s="150"/>
+      <c r="AC17" s="150"/>
+      <c r="AD17" s="150"/>
+      <c r="AE17" s="150"/>
+      <c r="AF17" s="150"/>
+      <c r="AG17" s="150"/>
+      <c r="AH17" s="150"/>
+      <c r="AI17" s="150"/>
+      <c r="AJ17" s="150"/>
+      <c r="AK17" s="150"/>
+      <c r="AL17" s="150"/>
+      <c r="AM17" s="150"/>
+      <c r="AN17" s="143"/>
+      <c r="AO17" s="143"/>
+      <c r="AP17" s="143"/>
+      <c r="AQ17" s="143"/>
+      <c r="AR17" s="143"/>
+      <c r="AS17" s="143"/>
+      <c r="AT17" s="143"/>
+      <c r="AU17" s="143"/>
+      <c r="AV17" s="143"/>
+      <c r="AW17" s="143"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="60"/>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="141"/>
-      <c r="S18" s="133"/>
-      <c r="T18" s="133"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="139"/>
-      <c r="W18" s="139"/>
-      <c r="X18" s="139"/>
-      <c r="Y18" s="139"/>
-      <c r="Z18" s="139"/>
-      <c r="AA18" s="139"/>
-      <c r="AB18" s="139"/>
-      <c r="AC18" s="139"/>
-      <c r="AD18" s="139"/>
-      <c r="AE18" s="139"/>
-      <c r="AF18" s="139"/>
-      <c r="AG18" s="139"/>
-      <c r="AH18" s="139"/>
-      <c r="AI18" s="139"/>
-      <c r="AJ18" s="139"/>
-      <c r="AK18" s="139"/>
-      <c r="AL18" s="139"/>
-      <c r="AM18" s="139"/>
-      <c r="AN18" s="133"/>
-      <c r="AO18" s="133"/>
-      <c r="AP18" s="133"/>
-      <c r="AQ18" s="133"/>
-      <c r="AR18" s="133"/>
-      <c r="AS18" s="133"/>
-      <c r="AT18" s="133"/>
-      <c r="AU18" s="133"/>
-      <c r="AV18" s="133"/>
-      <c r="AW18" s="133"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="146"/>
+      <c r="K18" s="146"/>
+      <c r="L18" s="146"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="149"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="150"/>
+      <c r="W18" s="150"/>
+      <c r="X18" s="150"/>
+      <c r="Y18" s="150"/>
+      <c r="Z18" s="150"/>
+      <c r="AA18" s="150"/>
+      <c r="AB18" s="150"/>
+      <c r="AC18" s="150"/>
+      <c r="AD18" s="150"/>
+      <c r="AE18" s="150"/>
+      <c r="AF18" s="150"/>
+      <c r="AG18" s="150"/>
+      <c r="AH18" s="150"/>
+      <c r="AI18" s="150"/>
+      <c r="AJ18" s="150"/>
+      <c r="AK18" s="150"/>
+      <c r="AL18" s="150"/>
+      <c r="AM18" s="150"/>
+      <c r="AN18" s="143"/>
+      <c r="AO18" s="143"/>
+      <c r="AP18" s="143"/>
+      <c r="AQ18" s="143"/>
+      <c r="AR18" s="143"/>
+      <c r="AS18" s="143"/>
+      <c r="AT18" s="143"/>
+      <c r="AU18" s="143"/>
+      <c r="AV18" s="143"/>
+      <c r="AW18" s="143"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="60"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="136"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="136"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="141"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="133"/>
-      <c r="T19" s="133"/>
-      <c r="U19" s="133"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="139"/>
-      <c r="Z19" s="139"/>
-      <c r="AA19" s="139"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="139"/>
-      <c r="AE19" s="139"/>
-      <c r="AF19" s="139"/>
-      <c r="AG19" s="139"/>
-      <c r="AH19" s="139"/>
-      <c r="AI19" s="139"/>
-      <c r="AJ19" s="139"/>
-      <c r="AK19" s="139"/>
-      <c r="AL19" s="139"/>
-      <c r="AM19" s="139"/>
-      <c r="AN19" s="133"/>
-      <c r="AO19" s="133"/>
-      <c r="AP19" s="133"/>
-      <c r="AQ19" s="133"/>
-      <c r="AR19" s="133"/>
-      <c r="AS19" s="133"/>
-      <c r="AT19" s="133"/>
-      <c r="AU19" s="133"/>
-      <c r="AV19" s="133"/>
-      <c r="AW19" s="133"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="146"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="149"/>
+      <c r="P19" s="149"/>
+      <c r="Q19" s="149"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="150"/>
+      <c r="W19" s="150"/>
+      <c r="X19" s="150"/>
+      <c r="Y19" s="150"/>
+      <c r="Z19" s="150"/>
+      <c r="AA19" s="150"/>
+      <c r="AB19" s="150"/>
+      <c r="AC19" s="150"/>
+      <c r="AD19" s="150"/>
+      <c r="AE19" s="150"/>
+      <c r="AF19" s="150"/>
+      <c r="AG19" s="150"/>
+      <c r="AH19" s="150"/>
+      <c r="AI19" s="150"/>
+      <c r="AJ19" s="150"/>
+      <c r="AK19" s="150"/>
+      <c r="AL19" s="150"/>
+      <c r="AM19" s="150"/>
+      <c r="AN19" s="143"/>
+      <c r="AO19" s="143"/>
+      <c r="AP19" s="143"/>
+      <c r="AQ19" s="143"/>
+      <c r="AR19" s="143"/>
+      <c r="AS19" s="143"/>
+      <c r="AT19" s="143"/>
+      <c r="AU19" s="143"/>
+      <c r="AV19" s="143"/>
+      <c r="AW19" s="143"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="60"/>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="133"/>
-      <c r="T20" s="133"/>
-      <c r="U20" s="133"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="139"/>
-      <c r="X20" s="139"/>
-      <c r="Y20" s="139"/>
-      <c r="Z20" s="139"/>
-      <c r="AA20" s="139"/>
-      <c r="AB20" s="139"/>
-      <c r="AC20" s="139"/>
-      <c r="AD20" s="139"/>
-      <c r="AE20" s="139"/>
-      <c r="AF20" s="139"/>
-      <c r="AG20" s="139"/>
-      <c r="AH20" s="139"/>
-      <c r="AI20" s="139"/>
-      <c r="AJ20" s="139"/>
-      <c r="AK20" s="139"/>
-      <c r="AL20" s="139"/>
-      <c r="AM20" s="139"/>
-      <c r="AN20" s="133"/>
-      <c r="AO20" s="133"/>
-      <c r="AP20" s="133"/>
-      <c r="AQ20" s="133"/>
-      <c r="AR20" s="133"/>
-      <c r="AS20" s="133"/>
-      <c r="AT20" s="133"/>
-      <c r="AU20" s="133"/>
-      <c r="AV20" s="133"/>
-      <c r="AW20" s="133"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="146"/>
+      <c r="K20" s="146"/>
+      <c r="L20" s="146"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="149"/>
+      <c r="Q20" s="149"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="143"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="150"/>
+      <c r="W20" s="150"/>
+      <c r="X20" s="150"/>
+      <c r="Y20" s="150"/>
+      <c r="Z20" s="150"/>
+      <c r="AA20" s="150"/>
+      <c r="AB20" s="150"/>
+      <c r="AC20" s="150"/>
+      <c r="AD20" s="150"/>
+      <c r="AE20" s="150"/>
+      <c r="AF20" s="150"/>
+      <c r="AG20" s="150"/>
+      <c r="AH20" s="150"/>
+      <c r="AI20" s="150"/>
+      <c r="AJ20" s="150"/>
+      <c r="AK20" s="150"/>
+      <c r="AL20" s="150"/>
+      <c r="AM20" s="150"/>
+      <c r="AN20" s="143"/>
+      <c r="AO20" s="143"/>
+      <c r="AP20" s="143"/>
+      <c r="AQ20" s="143"/>
+      <c r="AR20" s="143"/>
+      <c r="AS20" s="143"/>
+      <c r="AT20" s="143"/>
+      <c r="AU20" s="143"/>
+      <c r="AV20" s="143"/>
+      <c r="AW20" s="143"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="60"/>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="136"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="133"/>
-      <c r="T21" s="133"/>
-      <c r="U21" s="133"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="139"/>
-      <c r="X21" s="139"/>
-      <c r="Y21" s="139"/>
-      <c r="Z21" s="139"/>
-      <c r="AA21" s="139"/>
-      <c r="AB21" s="139"/>
-      <c r="AC21" s="139"/>
-      <c r="AD21" s="139"/>
-      <c r="AE21" s="139"/>
-      <c r="AF21" s="139"/>
-      <c r="AG21" s="139"/>
-      <c r="AH21" s="139"/>
-      <c r="AI21" s="139"/>
-      <c r="AJ21" s="139"/>
-      <c r="AK21" s="139"/>
-      <c r="AL21" s="139"/>
-      <c r="AM21" s="139"/>
-      <c r="AN21" s="133"/>
-      <c r="AO21" s="133"/>
-      <c r="AP21" s="133"/>
-      <c r="AQ21" s="133"/>
-      <c r="AR21" s="133"/>
-      <c r="AS21" s="133"/>
-      <c r="AT21" s="133"/>
-      <c r="AU21" s="133"/>
-      <c r="AV21" s="133"/>
-      <c r="AW21" s="133"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="149"/>
+      <c r="P21" s="149"/>
+      <c r="Q21" s="149"/>
+      <c r="R21" s="149"/>
+      <c r="S21" s="143"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="143"/>
+      <c r="V21" s="150"/>
+      <c r="W21" s="150"/>
+      <c r="X21" s="150"/>
+      <c r="Y21" s="150"/>
+      <c r="Z21" s="150"/>
+      <c r="AA21" s="150"/>
+      <c r="AB21" s="150"/>
+      <c r="AC21" s="150"/>
+      <c r="AD21" s="150"/>
+      <c r="AE21" s="150"/>
+      <c r="AF21" s="150"/>
+      <c r="AG21" s="150"/>
+      <c r="AH21" s="150"/>
+      <c r="AI21" s="150"/>
+      <c r="AJ21" s="150"/>
+      <c r="AK21" s="150"/>
+      <c r="AL21" s="150"/>
+      <c r="AM21" s="150"/>
+      <c r="AN21" s="143"/>
+      <c r="AO21" s="143"/>
+      <c r="AP21" s="143"/>
+      <c r="AQ21" s="143"/>
+      <c r="AR21" s="143"/>
+      <c r="AS21" s="143"/>
+      <c r="AT21" s="143"/>
+      <c r="AU21" s="143"/>
+      <c r="AV21" s="143"/>
+      <c r="AW21" s="143"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="60"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
-      <c r="S22" s="133"/>
-      <c r="T22" s="133"/>
-      <c r="U22" s="133"/>
-      <c r="V22" s="139"/>
-      <c r="W22" s="139"/>
-      <c r="X22" s="139"/>
-      <c r="Y22" s="139"/>
-      <c r="Z22" s="139"/>
-      <c r="AA22" s="139"/>
-      <c r="AB22" s="139"/>
-      <c r="AC22" s="139"/>
-      <c r="AD22" s="139"/>
-      <c r="AE22" s="139"/>
-      <c r="AF22" s="139"/>
-      <c r="AG22" s="139"/>
-      <c r="AH22" s="139"/>
-      <c r="AI22" s="139"/>
-      <c r="AJ22" s="139"/>
-      <c r="AK22" s="139"/>
-      <c r="AL22" s="139"/>
-      <c r="AM22" s="139"/>
-      <c r="AN22" s="133"/>
-      <c r="AO22" s="133"/>
-      <c r="AP22" s="133"/>
-      <c r="AQ22" s="133"/>
-      <c r="AR22" s="133"/>
-      <c r="AS22" s="133"/>
-      <c r="AT22" s="133"/>
-      <c r="AU22" s="133"/>
-      <c r="AV22" s="133"/>
-      <c r="AW22" s="133"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="146"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="146"/>
+      <c r="M22" s="149"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="149"/>
+      <c r="P22" s="149"/>
+      <c r="Q22" s="149"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="150"/>
+      <c r="W22" s="150"/>
+      <c r="X22" s="150"/>
+      <c r="Y22" s="150"/>
+      <c r="Z22" s="150"/>
+      <c r="AA22" s="150"/>
+      <c r="AB22" s="150"/>
+      <c r="AC22" s="150"/>
+      <c r="AD22" s="150"/>
+      <c r="AE22" s="150"/>
+      <c r="AF22" s="150"/>
+      <c r="AG22" s="150"/>
+      <c r="AH22" s="150"/>
+      <c r="AI22" s="150"/>
+      <c r="AJ22" s="150"/>
+      <c r="AK22" s="150"/>
+      <c r="AL22" s="150"/>
+      <c r="AM22" s="150"/>
+      <c r="AN22" s="143"/>
+      <c r="AO22" s="143"/>
+      <c r="AP22" s="143"/>
+      <c r="AQ22" s="143"/>
+      <c r="AR22" s="143"/>
+      <c r="AS22" s="143"/>
+      <c r="AT22" s="143"/>
+      <c r="AU22" s="143"/>
+      <c r="AV22" s="143"/>
+      <c r="AW22" s="143"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="133"/>
-      <c r="T23" s="133"/>
-      <c r="U23" s="133"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="139"/>
-      <c r="X23" s="139"/>
-      <c r="Y23" s="139"/>
-      <c r="Z23" s="139"/>
-      <c r="AA23" s="139"/>
-      <c r="AB23" s="139"/>
-      <c r="AC23" s="139"/>
-      <c r="AD23" s="139"/>
-      <c r="AE23" s="139"/>
-      <c r="AF23" s="139"/>
-      <c r="AG23" s="139"/>
-      <c r="AH23" s="139"/>
-      <c r="AI23" s="139"/>
-      <c r="AJ23" s="139"/>
-      <c r="AK23" s="139"/>
-      <c r="AL23" s="139"/>
-      <c r="AM23" s="139"/>
-      <c r="AN23" s="133"/>
-      <c r="AO23" s="133"/>
-      <c r="AP23" s="133"/>
-      <c r="AQ23" s="133"/>
-      <c r="AR23" s="133"/>
-      <c r="AS23" s="133"/>
-      <c r="AT23" s="133"/>
-      <c r="AU23" s="133"/>
-      <c r="AV23" s="133"/>
-      <c r="AW23" s="133"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="146"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="150"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="150"/>
+      <c r="Y23" s="150"/>
+      <c r="Z23" s="150"/>
+      <c r="AA23" s="150"/>
+      <c r="AB23" s="150"/>
+      <c r="AC23" s="150"/>
+      <c r="AD23" s="150"/>
+      <c r="AE23" s="150"/>
+      <c r="AF23" s="150"/>
+      <c r="AG23" s="150"/>
+      <c r="AH23" s="150"/>
+      <c r="AI23" s="150"/>
+      <c r="AJ23" s="150"/>
+      <c r="AK23" s="150"/>
+      <c r="AL23" s="150"/>
+      <c r="AM23" s="150"/>
+      <c r="AN23" s="143"/>
+      <c r="AO23" s="143"/>
+      <c r="AP23" s="143"/>
+      <c r="AQ23" s="143"/>
+      <c r="AR23" s="143"/>
+      <c r="AS23" s="143"/>
+      <c r="AT23" s="143"/>
+      <c r="AU23" s="143"/>
+      <c r="AV23" s="143"/>
+      <c r="AW23" s="143"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="136"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="136"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="141"/>
-      <c r="Q24" s="141"/>
-      <c r="R24" s="141"/>
-      <c r="S24" s="133"/>
-      <c r="T24" s="133"/>
-      <c r="U24" s="133"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="139"/>
-      <c r="Y24" s="139"/>
-      <c r="Z24" s="139"/>
-      <c r="AA24" s="139"/>
-      <c r="AB24" s="139"/>
-      <c r="AC24" s="139"/>
-      <c r="AD24" s="139"/>
-      <c r="AE24" s="139"/>
-      <c r="AF24" s="139"/>
-      <c r="AG24" s="139"/>
-      <c r="AH24" s="139"/>
-      <c r="AI24" s="139"/>
-      <c r="AJ24" s="139"/>
-      <c r="AK24" s="139"/>
-      <c r="AL24" s="139"/>
-      <c r="AM24" s="139"/>
-      <c r="AN24" s="133"/>
-      <c r="AO24" s="133"/>
-      <c r="AP24" s="133"/>
-      <c r="AQ24" s="133"/>
-      <c r="AR24" s="133"/>
-      <c r="AS24" s="133"/>
-      <c r="AT24" s="133"/>
-      <c r="AU24" s="133"/>
-      <c r="AV24" s="133"/>
-      <c r="AW24" s="133"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="146"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="146"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="149"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="149"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="143"/>
+      <c r="U24" s="143"/>
+      <c r="V24" s="150"/>
+      <c r="W24" s="150"/>
+      <c r="X24" s="150"/>
+      <c r="Y24" s="150"/>
+      <c r="Z24" s="150"/>
+      <c r="AA24" s="150"/>
+      <c r="AB24" s="150"/>
+      <c r="AC24" s="150"/>
+      <c r="AD24" s="150"/>
+      <c r="AE24" s="150"/>
+      <c r="AF24" s="150"/>
+      <c r="AG24" s="150"/>
+      <c r="AH24" s="150"/>
+      <c r="AI24" s="150"/>
+      <c r="AJ24" s="150"/>
+      <c r="AK24" s="150"/>
+      <c r="AL24" s="150"/>
+      <c r="AM24" s="150"/>
+      <c r="AN24" s="143"/>
+      <c r="AO24" s="143"/>
+      <c r="AP24" s="143"/>
+      <c r="AQ24" s="143"/>
+      <c r="AR24" s="143"/>
+      <c r="AS24" s="143"/>
+      <c r="AT24" s="143"/>
+      <c r="AU24" s="143"/>
+      <c r="AV24" s="143"/>
+      <c r="AW24" s="143"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="58"/>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="140"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="141"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="133"/>
-      <c r="T25" s="133"/>
-      <c r="U25" s="133"/>
-      <c r="V25" s="139"/>
-      <c r="W25" s="139"/>
-      <c r="X25" s="139"/>
-      <c r="Y25" s="139"/>
-      <c r="Z25" s="139"/>
-      <c r="AA25" s="139"/>
-      <c r="AB25" s="139"/>
-      <c r="AC25" s="139"/>
-      <c r="AD25" s="139"/>
-      <c r="AE25" s="139"/>
-      <c r="AF25" s="139"/>
-      <c r="AG25" s="139"/>
-      <c r="AH25" s="139"/>
-      <c r="AI25" s="139"/>
-      <c r="AJ25" s="139"/>
-      <c r="AK25" s="139"/>
-      <c r="AL25" s="139"/>
-      <c r="AM25" s="139"/>
-      <c r="AN25" s="133"/>
-      <c r="AO25" s="133"/>
-      <c r="AP25" s="133"/>
-      <c r="AQ25" s="133"/>
-      <c r="AR25" s="133"/>
-      <c r="AS25" s="133"/>
-      <c r="AT25" s="133"/>
-      <c r="AU25" s="133"/>
-      <c r="AV25" s="133"/>
-      <c r="AW25" s="133"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="146"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="149"/>
+      <c r="O25" s="149"/>
+      <c r="P25" s="149"/>
+      <c r="Q25" s="149"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="150"/>
+      <c r="W25" s="150"/>
+      <c r="X25" s="150"/>
+      <c r="Y25" s="150"/>
+      <c r="Z25" s="150"/>
+      <c r="AA25" s="150"/>
+      <c r="AB25" s="150"/>
+      <c r="AC25" s="150"/>
+      <c r="AD25" s="150"/>
+      <c r="AE25" s="150"/>
+      <c r="AF25" s="150"/>
+      <c r="AG25" s="150"/>
+      <c r="AH25" s="150"/>
+      <c r="AI25" s="150"/>
+      <c r="AJ25" s="150"/>
+      <c r="AK25" s="150"/>
+      <c r="AL25" s="150"/>
+      <c r="AM25" s="150"/>
+      <c r="AN25" s="143"/>
+      <c r="AO25" s="143"/>
+      <c r="AP25" s="143"/>
+      <c r="AQ25" s="143"/>
+      <c r="AR25" s="143"/>
+      <c r="AS25" s="143"/>
+      <c r="AT25" s="143"/>
+      <c r="AU25" s="143"/>
+      <c r="AV25" s="143"/>
+      <c r="AW25" s="143"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="140"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="141"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="133"/>
-      <c r="T26" s="133"/>
-      <c r="U26" s="133"/>
-      <c r="V26" s="139"/>
-      <c r="W26" s="139"/>
-      <c r="X26" s="139"/>
-      <c r="Y26" s="139"/>
-      <c r="Z26" s="139"/>
-      <c r="AA26" s="139"/>
-      <c r="AB26" s="139"/>
-      <c r="AC26" s="139"/>
-      <c r="AD26" s="139"/>
-      <c r="AE26" s="139"/>
-      <c r="AF26" s="139"/>
-      <c r="AG26" s="139"/>
-      <c r="AH26" s="139"/>
-      <c r="AI26" s="139"/>
-      <c r="AJ26" s="139"/>
-      <c r="AK26" s="139"/>
-      <c r="AL26" s="139"/>
-      <c r="AM26" s="139"/>
-      <c r="AN26" s="133"/>
-      <c r="AO26" s="133"/>
-      <c r="AP26" s="133"/>
-      <c r="AQ26" s="133"/>
-      <c r="AR26" s="133"/>
-      <c r="AS26" s="133"/>
-      <c r="AT26" s="133"/>
-      <c r="AU26" s="133"/>
-      <c r="AV26" s="133"/>
-      <c r="AW26" s="133"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="146"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="146"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="149"/>
+      <c r="O26" s="149"/>
+      <c r="P26" s="149"/>
+      <c r="Q26" s="149"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="150"/>
+      <c r="W26" s="150"/>
+      <c r="X26" s="150"/>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="150"/>
+      <c r="AA26" s="150"/>
+      <c r="AB26" s="150"/>
+      <c r="AC26" s="150"/>
+      <c r="AD26" s="150"/>
+      <c r="AE26" s="150"/>
+      <c r="AF26" s="150"/>
+      <c r="AG26" s="150"/>
+      <c r="AH26" s="150"/>
+      <c r="AI26" s="150"/>
+      <c r="AJ26" s="150"/>
+      <c r="AK26" s="150"/>
+      <c r="AL26" s="150"/>
+      <c r="AM26" s="150"/>
+      <c r="AN26" s="143"/>
+      <c r="AO26" s="143"/>
+      <c r="AP26" s="143"/>
+      <c r="AQ26" s="143"/>
+      <c r="AR26" s="143"/>
+      <c r="AS26" s="143"/>
+      <c r="AT26" s="143"/>
+      <c r="AU26" s="143"/>
+      <c r="AV26" s="143"/>
+      <c r="AW26" s="143"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
-      <c r="B27" s="134"/>
-      <c r="C27" s="134"/>
-      <c r="D27" s="134"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="136"/>
-      <c r="K27" s="136"/>
-      <c r="L27" s="136"/>
-      <c r="M27" s="140"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="133"/>
-      <c r="T27" s="133"/>
-      <c r="U27" s="133"/>
-      <c r="V27" s="139"/>
-      <c r="W27" s="139"/>
-      <c r="X27" s="139"/>
-      <c r="Y27" s="139"/>
-      <c r="Z27" s="139"/>
-      <c r="AA27" s="139"/>
-      <c r="AB27" s="139"/>
-      <c r="AC27" s="139"/>
-      <c r="AD27" s="139"/>
-      <c r="AE27" s="139"/>
-      <c r="AF27" s="139"/>
-      <c r="AG27" s="139"/>
-      <c r="AH27" s="139"/>
-      <c r="AI27" s="139"/>
-      <c r="AJ27" s="139"/>
-      <c r="AK27" s="139"/>
-      <c r="AL27" s="139"/>
-      <c r="AM27" s="139"/>
-      <c r="AN27" s="133"/>
-      <c r="AO27" s="133"/>
-      <c r="AP27" s="133"/>
-      <c r="AQ27" s="133"/>
-      <c r="AR27" s="133"/>
-      <c r="AS27" s="133"/>
-      <c r="AT27" s="133"/>
-      <c r="AU27" s="133"/>
-      <c r="AV27" s="133"/>
-      <c r="AW27" s="133"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="146"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="146"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="149"/>
+      <c r="P27" s="149"/>
+      <c r="Q27" s="149"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="150"/>
+      <c r="W27" s="150"/>
+      <c r="X27" s="150"/>
+      <c r="Y27" s="150"/>
+      <c r="Z27" s="150"/>
+      <c r="AA27" s="150"/>
+      <c r="AB27" s="150"/>
+      <c r="AC27" s="150"/>
+      <c r="AD27" s="150"/>
+      <c r="AE27" s="150"/>
+      <c r="AF27" s="150"/>
+      <c r="AG27" s="150"/>
+      <c r="AH27" s="150"/>
+      <c r="AI27" s="150"/>
+      <c r="AJ27" s="150"/>
+      <c r="AK27" s="150"/>
+      <c r="AL27" s="150"/>
+      <c r="AM27" s="150"/>
+      <c r="AN27" s="143"/>
+      <c r="AO27" s="143"/>
+      <c r="AP27" s="143"/>
+      <c r="AQ27" s="143"/>
+      <c r="AR27" s="143"/>
+      <c r="AS27" s="143"/>
+      <c r="AT27" s="143"/>
+      <c r="AU27" s="143"/>
+      <c r="AV27" s="143"/>
+      <c r="AW27" s="143"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
-      <c r="B28" s="134"/>
-      <c r="C28" s="134"/>
-      <c r="D28" s="134"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="133"/>
-      <c r="T28" s="133"/>
-      <c r="U28" s="133"/>
-      <c r="V28" s="139"/>
-      <c r="W28" s="139"/>
-      <c r="X28" s="139"/>
-      <c r="Y28" s="139"/>
-      <c r="Z28" s="139"/>
-      <c r="AA28" s="139"/>
-      <c r="AB28" s="139"/>
-      <c r="AC28" s="139"/>
-      <c r="AD28" s="139"/>
-      <c r="AE28" s="139"/>
-      <c r="AF28" s="139"/>
-      <c r="AG28" s="139"/>
-      <c r="AH28" s="139"/>
-      <c r="AI28" s="139"/>
-      <c r="AJ28" s="139"/>
-      <c r="AK28" s="139"/>
-      <c r="AL28" s="139"/>
-      <c r="AM28" s="139"/>
-      <c r="AN28" s="133"/>
-      <c r="AO28" s="133"/>
-      <c r="AP28" s="133"/>
-      <c r="AQ28" s="133"/>
-      <c r="AR28" s="133"/>
-      <c r="AS28" s="133"/>
-      <c r="AT28" s="133"/>
-      <c r="AU28" s="133"/>
-      <c r="AV28" s="133"/>
-      <c r="AW28" s="133"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="149"/>
+      <c r="N28" s="149"/>
+      <c r="O28" s="149"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="149"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="143"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="143"/>
+      <c r="V28" s="150"/>
+      <c r="W28" s="150"/>
+      <c r="X28" s="150"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="150"/>
+      <c r="AA28" s="150"/>
+      <c r="AB28" s="150"/>
+      <c r="AC28" s="150"/>
+      <c r="AD28" s="150"/>
+      <c r="AE28" s="150"/>
+      <c r="AF28" s="150"/>
+      <c r="AG28" s="150"/>
+      <c r="AH28" s="150"/>
+      <c r="AI28" s="150"/>
+      <c r="AJ28" s="150"/>
+      <c r="AK28" s="150"/>
+      <c r="AL28" s="150"/>
+      <c r="AM28" s="150"/>
+      <c r="AN28" s="143"/>
+      <c r="AO28" s="143"/>
+      <c r="AP28" s="143"/>
+      <c r="AQ28" s="143"/>
+      <c r="AR28" s="143"/>
+      <c r="AS28" s="143"/>
+      <c r="AT28" s="143"/>
+      <c r="AU28" s="143"/>
+      <c r="AV28" s="143"/>
+      <c r="AW28" s="143"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
-      <c r="B29" s="134"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="141"/>
-      <c r="R29" s="141"/>
-      <c r="S29" s="133"/>
-      <c r="T29" s="133"/>
-      <c r="U29" s="133"/>
-      <c r="V29" s="139"/>
-      <c r="W29" s="139"/>
-      <c r="X29" s="139"/>
-      <c r="Y29" s="139"/>
-      <c r="Z29" s="139"/>
-      <c r="AA29" s="139"/>
-      <c r="AB29" s="139"/>
-      <c r="AC29" s="139"/>
-      <c r="AD29" s="139"/>
-      <c r="AE29" s="139"/>
-      <c r="AF29" s="139"/>
-      <c r="AG29" s="139"/>
-      <c r="AH29" s="139"/>
-      <c r="AI29" s="139"/>
-      <c r="AJ29" s="139"/>
-      <c r="AK29" s="139"/>
-      <c r="AL29" s="139"/>
-      <c r="AM29" s="139"/>
-      <c r="AN29" s="133"/>
-      <c r="AO29" s="133"/>
-      <c r="AP29" s="133"/>
-      <c r="AQ29" s="133"/>
-      <c r="AR29" s="133"/>
-      <c r="AS29" s="133"/>
-      <c r="AT29" s="133"/>
-      <c r="AU29" s="133"/>
-      <c r="AV29" s="133"/>
-      <c r="AW29" s="133"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="149"/>
+      <c r="P29" s="149"/>
+      <c r="Q29" s="149"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="143"/>
+      <c r="T29" s="143"/>
+      <c r="U29" s="143"/>
+      <c r="V29" s="150"/>
+      <c r="W29" s="150"/>
+      <c r="X29" s="150"/>
+      <c r="Y29" s="150"/>
+      <c r="Z29" s="150"/>
+      <c r="AA29" s="150"/>
+      <c r="AB29" s="150"/>
+      <c r="AC29" s="150"/>
+      <c r="AD29" s="150"/>
+      <c r="AE29" s="150"/>
+      <c r="AF29" s="150"/>
+      <c r="AG29" s="150"/>
+      <c r="AH29" s="150"/>
+      <c r="AI29" s="150"/>
+      <c r="AJ29" s="150"/>
+      <c r="AK29" s="150"/>
+      <c r="AL29" s="150"/>
+      <c r="AM29" s="150"/>
+      <c r="AN29" s="143"/>
+      <c r="AO29" s="143"/>
+      <c r="AP29" s="143"/>
+      <c r="AQ29" s="143"/>
+      <c r="AR29" s="143"/>
+      <c r="AS29" s="143"/>
+      <c r="AT29" s="143"/>
+      <c r="AU29" s="143"/>
+      <c r="AV29" s="143"/>
+      <c r="AW29" s="143"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
-      <c r="B30" s="134"/>
-      <c r="C30" s="134"/>
-      <c r="D30" s="134"/>
-      <c r="E30" s="135"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="140"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="141"/>
-      <c r="R30" s="141"/>
-      <c r="S30" s="133"/>
-      <c r="T30" s="133"/>
-      <c r="U30" s="133"/>
-      <c r="V30" s="139"/>
-      <c r="W30" s="139"/>
-      <c r="X30" s="139"/>
-      <c r="Y30" s="139"/>
-      <c r="Z30" s="139"/>
-      <c r="AA30" s="139"/>
-      <c r="AB30" s="139"/>
-      <c r="AC30" s="139"/>
-      <c r="AD30" s="139"/>
-      <c r="AE30" s="139"/>
-      <c r="AF30" s="139"/>
-      <c r="AG30" s="139"/>
-      <c r="AH30" s="139"/>
-      <c r="AI30" s="139"/>
-      <c r="AJ30" s="139"/>
-      <c r="AK30" s="139"/>
-      <c r="AL30" s="139"/>
-      <c r="AM30" s="139"/>
-      <c r="AN30" s="133"/>
-      <c r="AO30" s="133"/>
-      <c r="AP30" s="133"/>
-      <c r="AQ30" s="133"/>
-      <c r="AR30" s="133"/>
-      <c r="AS30" s="133"/>
-      <c r="AT30" s="133"/>
-      <c r="AU30" s="133"/>
-      <c r="AV30" s="133"/>
-      <c r="AW30" s="133"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="152"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="149"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="143"/>
+      <c r="T30" s="143"/>
+      <c r="U30" s="143"/>
+      <c r="V30" s="150"/>
+      <c r="W30" s="150"/>
+      <c r="X30" s="150"/>
+      <c r="Y30" s="150"/>
+      <c r="Z30" s="150"/>
+      <c r="AA30" s="150"/>
+      <c r="AB30" s="150"/>
+      <c r="AC30" s="150"/>
+      <c r="AD30" s="150"/>
+      <c r="AE30" s="150"/>
+      <c r="AF30" s="150"/>
+      <c r="AG30" s="150"/>
+      <c r="AH30" s="150"/>
+      <c r="AI30" s="150"/>
+      <c r="AJ30" s="150"/>
+      <c r="AK30" s="150"/>
+      <c r="AL30" s="150"/>
+      <c r="AM30" s="150"/>
+      <c r="AN30" s="143"/>
+      <c r="AO30" s="143"/>
+      <c r="AP30" s="143"/>
+      <c r="AQ30" s="143"/>
+      <c r="AR30" s="143"/>
+      <c r="AS30" s="143"/>
+      <c r="AT30" s="143"/>
+      <c r="AU30" s="143"/>
+      <c r="AV30" s="143"/>
+      <c r="AW30" s="143"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
-      <c r="B31" s="134"/>
-      <c r="C31" s="134"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="135"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="141"/>
-      <c r="S31" s="133"/>
-      <c r="T31" s="133"/>
-      <c r="U31" s="133"/>
-      <c r="V31" s="139"/>
-      <c r="W31" s="139"/>
-      <c r="X31" s="139"/>
-      <c r="Y31" s="139"/>
-      <c r="Z31" s="139"/>
-      <c r="AA31" s="139"/>
-      <c r="AB31" s="139"/>
-      <c r="AC31" s="139"/>
-      <c r="AD31" s="139"/>
-      <c r="AE31" s="139"/>
-      <c r="AF31" s="139"/>
-      <c r="AG31" s="139"/>
-      <c r="AH31" s="139"/>
-      <c r="AI31" s="139"/>
-      <c r="AJ31" s="139"/>
-      <c r="AK31" s="139"/>
-      <c r="AL31" s="139"/>
-      <c r="AM31" s="139"/>
-      <c r="AN31" s="133"/>
-      <c r="AO31" s="133"/>
-      <c r="AP31" s="133"/>
-      <c r="AQ31" s="133"/>
-      <c r="AR31" s="133"/>
-      <c r="AS31" s="133"/>
-      <c r="AT31" s="133"/>
-      <c r="AU31" s="133"/>
-      <c r="AV31" s="133"/>
-      <c r="AW31" s="133"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="152"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="149"/>
+      <c r="P31" s="149"/>
+      <c r="Q31" s="149"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="143"/>
+      <c r="T31" s="143"/>
+      <c r="U31" s="143"/>
+      <c r="V31" s="150"/>
+      <c r="W31" s="150"/>
+      <c r="X31" s="150"/>
+      <c r="Y31" s="150"/>
+      <c r="Z31" s="150"/>
+      <c r="AA31" s="150"/>
+      <c r="AB31" s="150"/>
+      <c r="AC31" s="150"/>
+      <c r="AD31" s="150"/>
+      <c r="AE31" s="150"/>
+      <c r="AF31" s="150"/>
+      <c r="AG31" s="150"/>
+      <c r="AH31" s="150"/>
+      <c r="AI31" s="150"/>
+      <c r="AJ31" s="150"/>
+      <c r="AK31" s="150"/>
+      <c r="AL31" s="150"/>
+      <c r="AM31" s="150"/>
+      <c r="AN31" s="143"/>
+      <c r="AO31" s="143"/>
+      <c r="AP31" s="143"/>
+      <c r="AQ31" s="143"/>
+      <c r="AR31" s="143"/>
+      <c r="AS31" s="143"/>
+      <c r="AT31" s="143"/>
+      <c r="AU31" s="143"/>
+      <c r="AV31" s="143"/>
+      <c r="AW31" s="143"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
-      <c r="B32" s="134"/>
-      <c r="C32" s="134"/>
-      <c r="D32" s="134"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135"/>
-      <c r="I32" s="135"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="140"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="141"/>
-      <c r="Q32" s="141"/>
-      <c r="R32" s="141"/>
-      <c r="S32" s="133"/>
-      <c r="T32" s="133"/>
-      <c r="U32" s="133"/>
-      <c r="V32" s="139"/>
-      <c r="W32" s="139"/>
-      <c r="X32" s="139"/>
-      <c r="Y32" s="139"/>
-      <c r="Z32" s="139"/>
-      <c r="AA32" s="139"/>
-      <c r="AB32" s="139"/>
-      <c r="AC32" s="139"/>
-      <c r="AD32" s="139"/>
-      <c r="AE32" s="139"/>
-      <c r="AF32" s="139"/>
-      <c r="AG32" s="139"/>
-      <c r="AH32" s="139"/>
-      <c r="AI32" s="139"/>
-      <c r="AJ32" s="139"/>
-      <c r="AK32" s="139"/>
-      <c r="AL32" s="139"/>
-      <c r="AM32" s="139"/>
-      <c r="AN32" s="133"/>
-      <c r="AO32" s="133"/>
-      <c r="AP32" s="133"/>
-      <c r="AQ32" s="133"/>
-      <c r="AR32" s="133"/>
-      <c r="AS32" s="133"/>
-      <c r="AT32" s="133"/>
-      <c r="AU32" s="133"/>
-      <c r="AV32" s="133"/>
-      <c r="AW32" s="133"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="152"/>
+      <c r="N32" s="149"/>
+      <c r="O32" s="149"/>
+      <c r="P32" s="149"/>
+      <c r="Q32" s="149"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="143"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="150"/>
+      <c r="W32" s="150"/>
+      <c r="X32" s="150"/>
+      <c r="Y32" s="150"/>
+      <c r="Z32" s="150"/>
+      <c r="AA32" s="150"/>
+      <c r="AB32" s="150"/>
+      <c r="AC32" s="150"/>
+      <c r="AD32" s="150"/>
+      <c r="AE32" s="150"/>
+      <c r="AF32" s="150"/>
+      <c r="AG32" s="150"/>
+      <c r="AH32" s="150"/>
+      <c r="AI32" s="150"/>
+      <c r="AJ32" s="150"/>
+      <c r="AK32" s="150"/>
+      <c r="AL32" s="150"/>
+      <c r="AM32" s="150"/>
+      <c r="AN32" s="143"/>
+      <c r="AO32" s="143"/>
+      <c r="AP32" s="143"/>
+      <c r="AQ32" s="143"/>
+      <c r="AR32" s="143"/>
+      <c r="AS32" s="143"/>
+      <c r="AT32" s="143"/>
+      <c r="AU32" s="143"/>
+      <c r="AV32" s="143"/>
+      <c r="AW32" s="143"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="134"/>
-      <c r="C33" s="134"/>
-      <c r="D33" s="134"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="135"/>
-      <c r="H33" s="135"/>
-      <c r="I33" s="135"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="140"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="141"/>
-      <c r="S33" s="133"/>
-      <c r="T33" s="133"/>
-      <c r="U33" s="133"/>
-      <c r="V33" s="139"/>
-      <c r="W33" s="139"/>
-      <c r="X33" s="139"/>
-      <c r="Y33" s="139"/>
-      <c r="Z33" s="139"/>
-      <c r="AA33" s="139"/>
-      <c r="AB33" s="139"/>
-      <c r="AC33" s="139"/>
-      <c r="AD33" s="139"/>
-      <c r="AE33" s="139"/>
-      <c r="AF33" s="139"/>
-      <c r="AG33" s="139"/>
-      <c r="AH33" s="139"/>
-      <c r="AI33" s="139"/>
-      <c r="AJ33" s="139"/>
-      <c r="AK33" s="139"/>
-      <c r="AL33" s="139"/>
-      <c r="AM33" s="139"/>
-      <c r="AN33" s="133"/>
-      <c r="AO33" s="133"/>
-      <c r="AP33" s="133"/>
-      <c r="AQ33" s="133"/>
-      <c r="AR33" s="133"/>
-      <c r="AS33" s="133"/>
-      <c r="AT33" s="133"/>
-      <c r="AU33" s="133"/>
-      <c r="AV33" s="133"/>
-      <c r="AW33" s="133"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="152"/>
+      <c r="N33" s="149"/>
+      <c r="O33" s="149"/>
+      <c r="P33" s="149"/>
+      <c r="Q33" s="149"/>
+      <c r="R33" s="149"/>
+      <c r="S33" s="143"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="143"/>
+      <c r="V33" s="150"/>
+      <c r="W33" s="150"/>
+      <c r="X33" s="150"/>
+      <c r="Y33" s="150"/>
+      <c r="Z33" s="150"/>
+      <c r="AA33" s="150"/>
+      <c r="AB33" s="150"/>
+      <c r="AC33" s="150"/>
+      <c r="AD33" s="150"/>
+      <c r="AE33" s="150"/>
+      <c r="AF33" s="150"/>
+      <c r="AG33" s="150"/>
+      <c r="AH33" s="150"/>
+      <c r="AI33" s="150"/>
+      <c r="AJ33" s="150"/>
+      <c r="AK33" s="150"/>
+      <c r="AL33" s="150"/>
+      <c r="AM33" s="150"/>
+      <c r="AN33" s="143"/>
+      <c r="AO33" s="143"/>
+      <c r="AP33" s="143"/>
+      <c r="AQ33" s="143"/>
+      <c r="AR33" s="143"/>
+      <c r="AS33" s="143"/>
+      <c r="AT33" s="143"/>
+      <c r="AU33" s="143"/>
+      <c r="AV33" s="143"/>
+      <c r="AW33" s="143"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="134"/>
-      <c r="C34" s="134"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="136"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="137"/>
-      <c r="N34" s="138"/>
-      <c r="O34" s="138"/>
-      <c r="P34" s="138"/>
-      <c r="Q34" s="138"/>
-      <c r="R34" s="138"/>
-      <c r="S34" s="133"/>
-      <c r="T34" s="133"/>
-      <c r="U34" s="133"/>
-      <c r="V34" s="139"/>
-      <c r="W34" s="139"/>
-      <c r="X34" s="139"/>
-      <c r="Y34" s="139"/>
-      <c r="Z34" s="139"/>
-      <c r="AA34" s="139"/>
-      <c r="AB34" s="139"/>
-      <c r="AC34" s="139"/>
-      <c r="AD34" s="139"/>
-      <c r="AE34" s="139"/>
-      <c r="AF34" s="139"/>
-      <c r="AG34" s="139"/>
-      <c r="AH34" s="139"/>
-      <c r="AI34" s="139"/>
-      <c r="AJ34" s="139"/>
-      <c r="AK34" s="139"/>
-      <c r="AL34" s="139"/>
-      <c r="AM34" s="139"/>
-      <c r="AN34" s="133"/>
-      <c r="AO34" s="133"/>
-      <c r="AP34" s="133"/>
-      <c r="AQ34" s="133"/>
-      <c r="AR34" s="133"/>
-      <c r="AS34" s="133"/>
-      <c r="AT34" s="133"/>
-      <c r="AU34" s="133"/>
-      <c r="AV34" s="133"/>
-      <c r="AW34" s="133"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="146"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="156"/>
+      <c r="N34" s="157"/>
+      <c r="O34" s="157"/>
+      <c r="P34" s="157"/>
+      <c r="Q34" s="157"/>
+      <c r="R34" s="157"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="143"/>
+      <c r="U34" s="143"/>
+      <c r="V34" s="150"/>
+      <c r="W34" s="150"/>
+      <c r="X34" s="150"/>
+      <c r="Y34" s="150"/>
+      <c r="Z34" s="150"/>
+      <c r="AA34" s="150"/>
+      <c r="AB34" s="150"/>
+      <c r="AC34" s="150"/>
+      <c r="AD34" s="150"/>
+      <c r="AE34" s="150"/>
+      <c r="AF34" s="150"/>
+      <c r="AG34" s="150"/>
+      <c r="AH34" s="150"/>
+      <c r="AI34" s="150"/>
+      <c r="AJ34" s="150"/>
+      <c r="AK34" s="150"/>
+      <c r="AL34" s="150"/>
+      <c r="AM34" s="150"/>
+      <c r="AN34" s="143"/>
+      <c r="AO34" s="143"/>
+      <c r="AP34" s="143"/>
+      <c r="AQ34" s="143"/>
+      <c r="AR34" s="143"/>
+      <c r="AS34" s="143"/>
+      <c r="AT34" s="143"/>
+      <c r="AU34" s="143"/>
+      <c r="AV34" s="143"/>
+      <c r="AW34" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="249">
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN33:AR33"/>
+    <mergeCell ref="AS33:AW33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:AM34"/>
+    <mergeCell ref="AN34:AR34"/>
+    <mergeCell ref="AS34:AW34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
     <mergeCell ref="AN5:AR5"/>
     <mergeCell ref="AS5:AW5"/>
     <mergeCell ref="B6:D6"/>
@@ -7040,230 +7230,15 @@
     <mergeCell ref="M5:R5"/>
     <mergeCell ref="S5:U5"/>
     <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN33:AR33"/>
-    <mergeCell ref="AS33:AW33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:AM34"/>
-    <mergeCell ref="AN34:AR34"/>
-    <mergeCell ref="AS34:AW34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:AM33"/>
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7344,14 +7319,14 @@
       <c r="AL1" s="34"/>
       <c r="AM1" s="34"/>
       <c r="AN1" s="35"/>
-      <c r="AO1" s="160">
+      <c r="AO1" s="164">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
-      <c r="AP1" s="161"/>
-      <c r="AQ1" s="161"/>
-      <c r="AR1" s="161"/>
-      <c r="AS1" s="162"/>
+      <c r="AP1" s="165"/>
+      <c r="AQ1" s="165"/>
+      <c r="AR1" s="165"/>
+      <c r="AS1" s="166"/>
       <c r="AT1" s="33" t="s">
         <v>24</v>
       </c>
@@ -7360,17 +7335,17 @@
       <c r="AW1" s="34"/>
       <c r="AX1" s="34"/>
       <c r="AY1" s="35"/>
-      <c r="AZ1" s="163" t="str">
+      <c r="AZ1" s="167" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
-      <c r="BA1" s="164"/>
-      <c r="BB1" s="164"/>
-      <c r="BC1" s="164"/>
-      <c r="BD1" s="164"/>
-      <c r="BE1" s="164"/>
-      <c r="BF1" s="164"/>
-      <c r="BG1" s="165"/>
+      <c r="BA1" s="168"/>
+      <c r="BB1" s="168"/>
+      <c r="BC1" s="168"/>
+      <c r="BD1" s="168"/>
+      <c r="BE1" s="168"/>
+      <c r="BF1" s="168"/>
+      <c r="BG1" s="169"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="36" t="s">
@@ -7423,11 +7398,11 @@
       <c r="AL2" s="34"/>
       <c r="AM2" s="34"/>
       <c r="AN2" s="35"/>
-      <c r="AO2" s="160"/>
-      <c r="AP2" s="161"/>
-      <c r="AQ2" s="161"/>
-      <c r="AR2" s="161"/>
-      <c r="AS2" s="162"/>
+      <c r="AO2" s="164"/>
+      <c r="AP2" s="165"/>
+      <c r="AQ2" s="165"/>
+      <c r="AR2" s="165"/>
+      <c r="AS2" s="166"/>
       <c r="AT2" s="33" t="s">
         <v>25</v>
       </c>
@@ -7436,14 +7411,14 @@
       <c r="AW2" s="34"/>
       <c r="AX2" s="34"/>
       <c r="AY2" s="35"/>
-      <c r="AZ2" s="163"/>
-      <c r="BA2" s="164"/>
-      <c r="BB2" s="164"/>
-      <c r="BC2" s="164"/>
-      <c r="BD2" s="164"/>
-      <c r="BE2" s="164"/>
-      <c r="BF2" s="164"/>
-      <c r="BG2" s="165"/>
+      <c r="AZ2" s="167"/>
+      <c r="BA2" s="168"/>
+      <c r="BB2" s="168"/>
+      <c r="BC2" s="168"/>
+      <c r="BD2" s="168"/>
+      <c r="BE2" s="168"/>
+      <c r="BF2" s="168"/>
+      <c r="BG2" s="169"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
@@ -8262,7 +8237,7 @@
       <c r="AB29" s="9"/>
       <c r="AC29" s="9"/>
       <c r="AD29" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AE29" s="9"/>
       <c r="AF29" s="9"/>
@@ -8439,7 +8414,7 @@
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
       <c r="AI33" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AJ33" s="11"/>
       <c r="AK33" s="11"/>
@@ -8464,11 +8439,11 @@
     <row r="34" spans="1:66" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="G34" s="9"/>
       <c r="J34" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N34" s="9"/>
       <c r="P34" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
@@ -8488,7 +8463,7 @@
       <c r="AG34" s="9"/>
       <c r="AH34" s="9"/>
       <c r="AI34" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AJ34" s="11"/>
       <c r="AK34" s="11"/>
@@ -8840,10 +8815,10 @@
     </row>
     <row r="45" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A45" s="28"/>
-      <c r="B45" s="168" t="s">
+      <c r="B45" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="C45" s="169"/>
+      <c r="C45" s="161"/>
       <c r="D45" s="91" t="s">
         <v>101</v>
       </c>
@@ -8926,10 +8901,10 @@
     </row>
     <row r="46" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A46" s="28"/>
-      <c r="B46" s="166">
+      <c r="B46" s="162">
         <v>1</v>
       </c>
-      <c r="C46" s="167"/>
+      <c r="C46" s="163"/>
       <c r="D46" s="96" t="s">
         <v>131</v>
       </c>
@@ -9004,10 +8979,10 @@
     </row>
     <row r="47" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A47" s="28"/>
-      <c r="B47" s="166">
+      <c r="B47" s="162">
         <v>2</v>
       </c>
-      <c r="C47" s="167"/>
+      <c r="C47" s="163"/>
       <c r="D47" s="96" t="s">
         <v>108</v>
       </c>
@@ -9050,7 +9025,7 @@
       <c r="AK47" s="158"/>
       <c r="AL47" s="159"/>
       <c r="AM47" s="86" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AN47" s="87"/>
       <c r="AO47" s="87"/>
@@ -9082,10 +9057,10 @@
     </row>
     <row r="48" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A48" s="28"/>
-      <c r="B48" s="166">
+      <c r="B48" s="162">
         <v>3</v>
       </c>
-      <c r="C48" s="167"/>
+      <c r="C48" s="163"/>
       <c r="D48" s="96" t="s">
         <v>108</v>
       </c>
@@ -9096,7 +9071,7 @@
       <c r="I48" s="89"/>
       <c r="J48" s="97"/>
       <c r="K48" s="96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L48" s="89"/>
       <c r="M48" s="89"/>
@@ -9160,10 +9135,10 @@
     </row>
     <row r="49" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A49" s="28"/>
-      <c r="B49" s="166">
+      <c r="B49" s="162">
         <v>4</v>
       </c>
-      <c r="C49" s="167"/>
+      <c r="C49" s="163"/>
       <c r="D49" s="109" t="s">
         <v>108</v>
       </c>
@@ -9174,7 +9149,7 @@
       <c r="I49" s="89"/>
       <c r="J49" s="110"/>
       <c r="K49" s="109" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
@@ -9238,10 +9213,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="28"/>
-      <c r="B50" s="166">
+      <c r="B50" s="162">
         <v>5</v>
       </c>
-      <c r="C50" s="167"/>
+      <c r="C50" s="163"/>
       <c r="D50" s="96" t="s">
         <v>108</v>
       </c>
@@ -9316,12 +9291,12 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="28"/>
-      <c r="B51" s="166">
+      <c r="B51" s="162">
         <v>6</v>
       </c>
-      <c r="C51" s="167"/>
+      <c r="C51" s="163"/>
       <c r="D51" s="109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E51" s="89"/>
       <c r="F51" s="89"/>
@@ -9330,7 +9305,7 @@
       <c r="I51" s="89"/>
       <c r="J51" s="110"/>
       <c r="K51" s="109" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L51" s="89"/>
       <c r="M51" s="89"/>
@@ -9394,12 +9369,12 @@
     </row>
     <row r="52" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A52" s="28"/>
-      <c r="B52" s="166">
+      <c r="B52" s="162">
         <v>7</v>
       </c>
-      <c r="C52" s="167"/>
+      <c r="C52" s="163"/>
       <c r="D52" s="109" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E52" s="89"/>
       <c r="F52" s="89"/>
@@ -9408,7 +9383,7 @@
       <c r="I52" s="89"/>
       <c r="J52" s="110"/>
       <c r="K52" s="109" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L52" s="89"/>
       <c r="M52" s="89"/>
@@ -9477,6 +9452,32 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="AI46:AJ46"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AO2:AS2"/>
+    <mergeCell ref="AZ1:BG1"/>
+    <mergeCell ref="AZ2:BG2"/>
+    <mergeCell ref="AK46:AL46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AG46:AH46"/>
+    <mergeCell ref="AG50:AH50"/>
+    <mergeCell ref="AG47:AH47"/>
+    <mergeCell ref="AE48:AF48"/>
+    <mergeCell ref="AG48:AH48"/>
+    <mergeCell ref="AE49:AF49"/>
+    <mergeCell ref="AG49:AH49"/>
+    <mergeCell ref="AE50:AF50"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="AE52:AF52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="AE51:AF51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="AI52:AJ52"/>
     <mergeCell ref="AG52:AH52"/>
     <mergeCell ref="AK47:AL47"/>
@@ -9489,34 +9490,8 @@
     <mergeCell ref="AK49:AL49"/>
     <mergeCell ref="AK50:AL50"/>
     <mergeCell ref="AG51:AH51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="AE50:AF50"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="AE52:AF52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="AE51:AF51"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AG46:AH46"/>
-    <mergeCell ref="AG50:AH50"/>
-    <mergeCell ref="AG47:AH47"/>
-    <mergeCell ref="AE48:AF48"/>
-    <mergeCell ref="AG48:AH48"/>
-    <mergeCell ref="AE49:AF49"/>
-    <mergeCell ref="AG49:AH49"/>
     <mergeCell ref="AK51:AL51"/>
     <mergeCell ref="AI51:AJ51"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AO2:AS2"/>
-    <mergeCell ref="AZ1:BG1"/>
-    <mergeCell ref="AZ2:BG2"/>
-    <mergeCell ref="AK46:AL46"/>
-    <mergeCell ref="AI46:AJ46"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -9640,7 +9615,7 @@
       <c r="CA1" s="34"/>
       <c r="CB1" s="34"/>
       <c r="CC1" s="35"/>
-      <c r="CD1" s="160">
+      <c r="CD1" s="164">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -9662,7 +9637,7 @@
       <c r="CR1" s="34"/>
       <c r="CS1" s="34"/>
       <c r="CT1" s="35"/>
-      <c r="CU1" s="163" t="str">
+      <c r="CU1" s="167" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -9793,7 +9768,7 @@
       <c r="CR2" s="34"/>
       <c r="CS2" s="34"/>
       <c r="CT2" s="35"/>
-      <c r="CU2" s="163"/>
+      <c r="CU2" s="167"/>
       <c r="CV2" s="170"/>
       <c r="CW2" s="170"/>
       <c r="CX2" s="170"/>
@@ -9886,7 +9861,7 @@
   <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R39"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
@@ -10009,37 +9984,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="150" t="s">
+      <c r="D6" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="150" t="s">
+      <c r="E6" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="150" t="s">
+      <c r="F6" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="150" t="s">
+      <c r="G6" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="150" t="s">
+      <c r="H6" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="178" t="s">
+      <c r="I6" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="178" t="s">
+      <c r="J6" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="150" t="s">
+      <c r="K6" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="150" t="s">
+      <c r="L6" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="150" t="s">
+      <c r="M6" s="135" t="s">
         <v>32</v>
       </c>
       <c r="N6" s="70" t="s">
@@ -10047,24 +10022,24 @@
       </c>
       <c r="O6" s="70"/>
       <c r="P6" s="70"/>
-      <c r="Q6" s="178" t="s">
+      <c r="Q6" s="176" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="150"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="150"/>
-      <c r="H7" s="150"/>
-      <c r="I7" s="178"/>
-      <c r="J7" s="178"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="150"/>
-      <c r="M7" s="150"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
       <c r="N7" s="42" t="s">
         <v>79</v>
       </c>
@@ -10074,7 +10049,7 @@
       <c r="P7" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="178"/>
+      <c r="Q7" s="176"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
@@ -10133,7 +10108,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>140</v>
@@ -10230,37 +10205,37 @@
     <row r="13" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="150" t="s">
+      <c r="D13" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="150" t="s">
+      <c r="E13" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="150" t="s">
+      <c r="F13" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="150" t="s">
+      <c r="G13" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="150" t="s">
+      <c r="H13" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="176" t="s">
+      <c r="I13" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="178" t="s">
+      <c r="J13" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="150" t="s">
+      <c r="K13" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="150" t="s">
+      <c r="L13" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="150" t="s">
+      <c r="M13" s="135" t="s">
         <v>32</v>
       </c>
       <c r="N13" s="70" t="s">
@@ -10268,24 +10243,24 @@
       </c>
       <c r="O13" s="70"/>
       <c r="P13" s="70"/>
-      <c r="Q13" s="176" t="s">
+      <c r="Q13" s="177" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="150"/>
+      <c r="C14" s="135"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
       <c r="N14" s="42" t="s">
         <v>79</v>
       </c>
@@ -10295,7 +10270,7 @@
       <c r="P14" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q14" s="177"/>
+      <c r="Q14" s="178"/>
     </row>
     <row r="15" spans="1:18" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
@@ -10310,7 +10285,7 @@
         <v>194</v>
       </c>
       <c r="F15" s="123" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>196</v>
@@ -10325,7 +10300,7 @@
         <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>160</v>
@@ -10359,7 +10334,7 @@
         <v>195</v>
       </c>
       <c r="F16" s="123" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>196</v>
@@ -10374,7 +10349,7 @@
         <v>36</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>160</v>
@@ -10441,7 +10416,7 @@
         <v>164</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
@@ -10457,7 +10432,7 @@
         <v>143</v>
       </c>
       <c r="F18" s="123" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G18" s="43" t="s">
         <v>35</v>
@@ -10478,19 +10453,19 @@
         <v>118</v>
       </c>
       <c r="M18" s="123" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>33</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -10506,7 +10481,7 @@
         <v>166</v>
       </c>
       <c r="F19" s="123" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G19" s="15" t="s">
         <v>145</v>
@@ -10524,7 +10499,7 @@
         <v>159</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>33</v>
@@ -10579,7 +10554,7 @@
         <v>47</v>
       </c>
       <c r="N20" s="124" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>33</v>
@@ -10610,37 +10585,37 @@
     <row r="24" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="14"/>
       <c r="B24" s="62"/>
-      <c r="C24" s="150" t="s">
+      <c r="C24" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="150" t="s">
+      <c r="D24" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="150" t="s">
+      <c r="E24" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="150" t="s">
+      <c r="F24" s="135" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="150" t="s">
+      <c r="G24" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="150" t="s">
+      <c r="H24" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="178" t="s">
+      <c r="I24" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="J24" s="178" t="s">
+      <c r="J24" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="K24" s="150" t="s">
+      <c r="K24" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="150" t="s">
+      <c r="L24" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="150" t="s">
+      <c r="M24" s="135" t="s">
         <v>32</v>
       </c>
       <c r="N24" s="70" t="s">
@@ -10648,24 +10623,24 @@
       </c>
       <c r="O24" s="70"/>
       <c r="P24" s="70"/>
-      <c r="Q24" s="178" t="s">
+      <c r="Q24" s="176" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="14"/>
       <c r="B25" s="62"/>
-      <c r="C25" s="150"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
       <c r="N25" s="42" t="s">
         <v>79</v>
       </c>
@@ -10675,7 +10650,7 @@
       <c r="P25" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q25" s="178"/>
+      <c r="Q25" s="176"/>
     </row>
     <row r="26" spans="1:17" s="49" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="55"/>
@@ -10760,7 +10735,7 @@
         <v>149</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>45</v>
@@ -10809,7 +10784,7 @@
         <v>150</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>45</v>
@@ -10858,7 +10833,7 @@
         <v>151</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>45</v>
@@ -10888,7 +10863,7 @@
         <v>34</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>34</v>
@@ -10922,7 +10897,7 @@
         <v>34</v>
       </c>
       <c r="K31" s="123" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>34</v>
@@ -10940,7 +10915,7 @@
         <v>34</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
@@ -10971,7 +10946,7 @@
         <v>34</v>
       </c>
       <c r="K32" s="123" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>34</v>
@@ -10992,7 +10967,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="57" x14ac:dyDescent="0.15">
       <c r="A33" s="14"/>
       <c r="B33" s="62"/>
       <c r="C33" s="7">
@@ -11020,7 +10995,7 @@
         <v>34</v>
       </c>
       <c r="K33" s="123" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>34</v>
@@ -11038,76 +11013,49 @@
         <v>34</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>224</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="14"/>
       <c r="B34" s="62"/>
       <c r="C34" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="14"/>
       <c r="B35" s="62"/>
       <c r="D35" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="14"/>
       <c r="B36" s="62"/>
-      <c r="D36" s="5" t="s">
-        <v>320</v>
-      </c>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
     </row>
     <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="14"/>
       <c r="B37" s="62"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-    </row>
-    <row r="38" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="14"/>
-      <c r="B38" s="62"/>
-    </row>
-    <row r="39" spans="1:17" s="50" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B39" s="64"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="M39" s="51"/>
-      <c r="Q39" s="51"/>
+    </row>
+    <row r="38" spans="1:17" s="50" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="64"/>
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="M38" s="51"/>
+      <c r="Q38" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="I24:I25"/>
@@ -11124,6 +11072,26 @@
     <mergeCell ref="H24:H25"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="E24:E25"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="M24:M25"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11200,7 +11168,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="160">
+      <c r="AI1" s="164">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -11216,7 +11184,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="163" t="str">
+      <c r="AT1" s="167" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -11287,7 +11255,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="163"/>
+      <c r="AT2" s="167"/>
       <c r="AU2" s="170"/>
       <c r="AV2" s="170"/>
       <c r="AW2" s="170"/>
@@ -12003,7 +11971,7 @@
       <c r="K18" s="23"/>
       <c r="L18" s="73"/>
       <c r="O18" s="98" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P18" s="98"/>
       <c r="Q18" s="98"/>
@@ -12052,7 +12020,7 @@
       <c r="K19" s="112"/>
       <c r="L19" s="113"/>
       <c r="O19" s="116" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P19" s="116"/>
       <c r="Q19" s="116"/>
@@ -12101,7 +12069,7 @@
       <c r="K20" s="112"/>
       <c r="L20" s="113"/>
       <c r="O20" s="116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P20" s="116"/>
       <c r="Q20" s="116"/>
@@ -12150,7 +12118,7 @@
       <c r="K21" s="112"/>
       <c r="L21" s="113"/>
       <c r="O21" s="116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P21" s="116"/>
       <c r="Q21" s="116"/>
@@ -12199,7 +12167,7 @@
       <c r="K22" s="112"/>
       <c r="L22" s="113"/>
       <c r="O22" s="116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P22" s="116"/>
       <c r="Q22" s="116"/>
@@ -12297,7 +12265,7 @@
       <c r="K24" s="112"/>
       <c r="L24" s="113"/>
       <c r="O24" s="116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P24" s="116"/>
       <c r="Q24" s="116"/>
@@ -12444,7 +12412,7 @@
       <c r="K27" s="23"/>
       <c r="L27" s="73"/>
       <c r="O27" s="98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P27" s="98"/>
       <c r="Q27" s="98"/>
@@ -12494,7 +12462,7 @@
       <c r="L28" s="113"/>
       <c r="N28" s="116"/>
       <c r="O28" s="116" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P28" s="116"/>
       <c r="Q28" s="116"/>
@@ -12545,7 +12513,7 @@
       <c r="N29" s="116"/>
       <c r="O29" s="116"/>
       <c r="P29" s="116" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q29" s="116"/>
       <c r="R29" s="116"/>
@@ -12560,7 +12528,7 @@
         <v>171</v>
       </c>
       <c r="AA29" s="116" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AB29" s="116"/>
       <c r="AC29" s="116"/>
@@ -12599,7 +12567,7 @@
       <c r="N30" s="116"/>
       <c r="O30" s="116"/>
       <c r="P30" s="116" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q30" s="116"/>
       <c r="R30" s="116"/>
@@ -12614,7 +12582,7 @@
         <v>171</v>
       </c>
       <c r="AA30" s="116" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB30" s="116"/>
       <c r="AC30" s="116"/>
@@ -12813,7 +12781,7 @@
       <c r="W34" s="116"/>
       <c r="X34" s="116"/>
       <c r="Z34" s="116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA34" s="116"/>
       <c r="AB34" s="116"/>
@@ -12852,7 +12820,7 @@
       <c r="M35" s="115"/>
       <c r="N35" s="115"/>
       <c r="O35" s="116" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P35" s="116"/>
       <c r="Q35" s="116"/>
@@ -12867,7 +12835,7 @@
         <v>171</v>
       </c>
       <c r="AA35" s="101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB35" s="116"/>
       <c r="AC35" s="116"/>
@@ -12974,7 +12942,7 @@
       <c r="K38" s="112"/>
       <c r="L38" s="113"/>
       <c r="O38" s="116" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P38" s="116"/>
       <c r="Q38" s="116"/>
@@ -13023,7 +12991,7 @@
       <c r="K39" s="112"/>
       <c r="L39" s="113"/>
       <c r="O39" s="116" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P39" s="116"/>
       <c r="Q39" s="116"/>
@@ -13072,7 +13040,7 @@
       <c r="K40" s="112"/>
       <c r="L40" s="113"/>
       <c r="O40" s="116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P40" s="116"/>
       <c r="Q40" s="116"/>
@@ -13121,7 +13089,7 @@
       <c r="K41" s="112"/>
       <c r="L41" s="113"/>
       <c r="O41" s="116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P41" s="116"/>
       <c r="Q41" s="116"/>
@@ -13170,7 +13138,7 @@
       <c r="K42" s="112"/>
       <c r="L42" s="113"/>
       <c r="O42" s="116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P42" s="116"/>
       <c r="Q42" s="116"/>
@@ -13418,7 +13386,7 @@
       <c r="K47" s="112"/>
       <c r="L47" s="113"/>
       <c r="O47" s="116" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P47" s="116"/>
       <c r="Q47" s="116"/>
@@ -13467,7 +13435,7 @@
       <c r="K48" s="112"/>
       <c r="L48" s="113"/>
       <c r="O48" s="116" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P48" s="116"/>
       <c r="Q48" s="116"/>
@@ -13516,7 +13484,7 @@
       <c r="K49" s="112"/>
       <c r="L49" s="113"/>
       <c r="O49" s="116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P49" s="116"/>
       <c r="Q49" s="116"/>
@@ -13565,7 +13533,7 @@
       <c r="K50" s="112"/>
       <c r="L50" s="113"/>
       <c r="O50" s="116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P50" s="116"/>
       <c r="Q50" s="116"/>
@@ -13614,7 +13582,7 @@
       <c r="K51" s="112"/>
       <c r="L51" s="113"/>
       <c r="O51" s="116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P51" s="116"/>
       <c r="Q51" s="116"/>
@@ -13810,7 +13778,7 @@
       <c r="K55" s="112"/>
       <c r="L55" s="113"/>
       <c r="O55" s="116" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P55" s="116"/>
       <c r="Q55" s="116"/>
@@ -14021,7 +13989,7 @@
       <c r="W59" s="116"/>
       <c r="X59" s="116"/>
       <c r="Z59" s="116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA59" s="116"/>
       <c r="AB59" s="116"/>
@@ -14060,7 +14028,7 @@
       <c r="M60" s="115"/>
       <c r="N60" s="115"/>
       <c r="O60" s="116" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P60" s="116"/>
       <c r="Q60" s="116"/>
@@ -14075,7 +14043,7 @@
         <v>171</v>
       </c>
       <c r="AA60" s="101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB60" s="116"/>
       <c r="AC60" s="116"/>
@@ -14182,7 +14150,7 @@
       <c r="K63" s="112"/>
       <c r="L63" s="113"/>
       <c r="O63" s="116" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P63" s="116"/>
       <c r="Q63" s="116"/>
@@ -14231,7 +14199,7 @@
       <c r="K64" s="112"/>
       <c r="L64" s="113"/>
       <c r="O64" s="116" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P64" s="116"/>
       <c r="Q64" s="116"/>
@@ -14280,7 +14248,7 @@
       <c r="K65" s="112"/>
       <c r="L65" s="113"/>
       <c r="O65" s="116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P65" s="116"/>
       <c r="Q65" s="116"/>
@@ -14329,7 +14297,7 @@
       <c r="K66" s="112"/>
       <c r="L66" s="113"/>
       <c r="O66" s="116" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P66" s="116"/>
       <c r="Q66" s="116"/>
@@ -14378,7 +14346,7 @@
       <c r="K67" s="112"/>
       <c r="L67" s="113"/>
       <c r="O67" s="116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P67" s="116"/>
       <c r="Q67" s="116"/>
@@ -14475,7 +14443,7 @@
       <c r="J69" s="112"/>
       <c r="K69" s="112"/>
       <c r="L69" s="113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M69" s="112"/>
       <c r="N69" s="112"/>
@@ -14627,7 +14595,7 @@
       <c r="K72" s="23"/>
       <c r="L72" s="73"/>
       <c r="O72" s="99" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P72" s="99"/>
       <c r="Q72" s="99"/>
@@ -14725,7 +14693,7 @@
       <c r="K74" s="112"/>
       <c r="L74" s="113"/>
       <c r="O74" s="117" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P74" s="117"/>
       <c r="Q74" s="117"/>
@@ -14774,7 +14742,7 @@
       <c r="K75" s="112"/>
       <c r="L75" s="113"/>
       <c r="O75" s="117" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P75" s="117"/>
       <c r="Q75" s="117"/>
@@ -14823,7 +14791,7 @@
       <c r="K76" s="112"/>
       <c r="L76" s="113"/>
       <c r="O76" s="117" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P76" s="117"/>
       <c r="Q76" s="117"/>
@@ -14969,7 +14937,7 @@
       <c r="L79" s="113"/>
       <c r="O79" s="117"/>
       <c r="P79" s="117" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q79" s="117"/>
       <c r="R79" s="117"/>
@@ -15113,7 +15081,7 @@
       <c r="K82" s="112"/>
       <c r="L82" s="113"/>
       <c r="O82" s="117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P82" s="117"/>
       <c r="Q82" s="117"/>
@@ -15162,7 +15130,7 @@
       <c r="K83" s="112"/>
       <c r="L83" s="113"/>
       <c r="O83" s="117" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P83" s="115"/>
       <c r="Q83" s="115"/>
@@ -15214,7 +15182,7 @@
       <c r="N84" s="115"/>
       <c r="O84" s="117"/>
       <c r="P84" s="115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q84" s="115"/>
       <c r="R84" s="115"/>
@@ -15229,7 +15197,7 @@
         <v>171</v>
       </c>
       <c r="AA84" s="115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AB84" s="115"/>
       <c r="AC84" s="115"/>
@@ -15269,7 +15237,7 @@
       <c r="N85" s="115"/>
       <c r="O85" s="117"/>
       <c r="P85" s="115" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="Q85" s="115"/>
       <c r="R85" s="115"/>
@@ -15284,7 +15252,7 @@
         <v>171</v>
       </c>
       <c r="AA85" s="115" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AB85" s="115"/>
       <c r="AC85" s="115"/>
@@ -15373,7 +15341,7 @@
       <c r="N87" s="115"/>
       <c r="O87" s="117"/>
       <c r="P87" s="115" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q87" s="115"/>
       <c r="R87" s="115"/>
@@ -15388,7 +15356,7 @@
         <v>171</v>
       </c>
       <c r="AA87" s="115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AB87" s="115"/>
       <c r="AC87" s="115"/>
@@ -15428,7 +15396,7 @@
       <c r="N88" s="75"/>
       <c r="O88" s="99"/>
       <c r="P88" s="115" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q88" s="75"/>
       <c r="R88" s="75"/>
@@ -15443,7 +15411,7 @@
         <v>171</v>
       </c>
       <c r="AA88" s="75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB88" s="75"/>
       <c r="AC88" s="75"/>
@@ -15482,7 +15450,7 @@
       <c r="M89" s="115"/>
       <c r="N89" s="115"/>
       <c r="O89" s="117" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P89" s="115"/>
       <c r="Q89" s="115"/>
@@ -15534,7 +15502,7 @@
       <c r="N90" s="115"/>
       <c r="O90" s="117"/>
       <c r="P90" s="115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q90" s="115"/>
       <c r="R90" s="115"/>
@@ -15549,7 +15517,7 @@
         <v>171</v>
       </c>
       <c r="AA90" s="115" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AB90" s="115"/>
       <c r="AC90" s="115"/>
@@ -15589,7 +15557,7 @@
       <c r="N91" s="115"/>
       <c r="O91" s="117"/>
       <c r="P91" s="115" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q91" s="115"/>
       <c r="R91" s="115"/>
@@ -15604,7 +15572,7 @@
         <v>171</v>
       </c>
       <c r="AA91" s="115" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AB91" s="115"/>
       <c r="AC91" s="115"/>
@@ -15644,7 +15612,7 @@
       <c r="N92" s="115"/>
       <c r="O92" s="117"/>
       <c r="P92" s="115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q92" s="115"/>
       <c r="R92" s="115"/>
@@ -15659,7 +15627,7 @@
         <v>171</v>
       </c>
       <c r="AA92" s="115" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AB92" s="115"/>
       <c r="AC92" s="115"/>
@@ -15699,7 +15667,7 @@
       <c r="N93" s="115"/>
       <c r="O93" s="117"/>
       <c r="P93" s="115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q93" s="115"/>
       <c r="R93" s="115"/>
@@ -15714,7 +15682,7 @@
         <v>171</v>
       </c>
       <c r="AA93" s="115" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AB93" s="115"/>
       <c r="AC93" s="115"/>
@@ -15754,7 +15722,7 @@
       <c r="N94" s="115"/>
       <c r="O94" s="117"/>
       <c r="P94" s="115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q94" s="115"/>
       <c r="R94" s="115"/>
@@ -15769,7 +15737,7 @@
         <v>171</v>
       </c>
       <c r="AA94" s="115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AB94" s="115"/>
       <c r="AC94" s="115"/>
@@ -15860,7 +15828,7 @@
       <c r="N96" s="115"/>
       <c r="O96" s="117"/>
       <c r="P96" s="115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q96" s="115"/>
       <c r="R96" s="115"/>
@@ -15875,7 +15843,7 @@
         <v>171</v>
       </c>
       <c r="AA96" s="115" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB96" s="115"/>
       <c r="AC96" s="115"/>
@@ -15915,7 +15883,7 @@
       <c r="N97" s="115"/>
       <c r="O97" s="117"/>
       <c r="P97" s="115" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q97" s="115"/>
       <c r="R97" s="115"/>
@@ -15930,7 +15898,7 @@
         <v>171</v>
       </c>
       <c r="AA97" s="115" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB97" s="115"/>
       <c r="AC97" s="115"/>
@@ -15970,7 +15938,7 @@
       <c r="N98" s="115"/>
       <c r="O98" s="117"/>
       <c r="P98" s="115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q98" s="115"/>
       <c r="R98" s="115"/>
@@ -15985,7 +15953,7 @@
         <v>171</v>
       </c>
       <c r="AA98" s="115" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB98" s="115"/>
       <c r="AC98" s="115"/>
@@ -16025,7 +15993,7 @@
       <c r="N99" s="115"/>
       <c r="O99" s="117"/>
       <c r="P99" s="115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q99" s="115"/>
       <c r="R99" s="115"/>
@@ -16040,7 +16008,7 @@
         <v>171</v>
       </c>
       <c r="AA99" s="115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB99" s="115"/>
       <c r="AC99" s="115"/>
@@ -16080,7 +16048,7 @@
       <c r="N100" s="115"/>
       <c r="O100" s="117"/>
       <c r="P100" s="115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q100" s="115"/>
       <c r="R100" s="115"/>
@@ -16095,7 +16063,7 @@
         <v>171</v>
       </c>
       <c r="AA100" s="115" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB100" s="115"/>
       <c r="AC100" s="115"/>
@@ -16186,7 +16154,7 @@
       <c r="N102" s="115"/>
       <c r="O102" s="117"/>
       <c r="P102" s="115" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q102" s="115"/>
       <c r="R102" s="115"/>
@@ -16201,7 +16169,7 @@
         <v>171</v>
       </c>
       <c r="AA102" s="115" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AB102" s="115"/>
       <c r="AC102" s="115"/>
@@ -16241,7 +16209,7 @@
       <c r="N103" s="115"/>
       <c r="O103" s="117"/>
       <c r="P103" s="115" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q103" s="115"/>
       <c r="R103" s="115"/>
@@ -16256,7 +16224,7 @@
         <v>171</v>
       </c>
       <c r="AA103" s="118" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB103" s="115"/>
       <c r="AC103" s="115"/>
@@ -16347,7 +16315,7 @@
       <c r="N105" s="115"/>
       <c r="O105" s="117"/>
       <c r="P105" s="115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q105" s="115"/>
       <c r="R105" s="115"/>
@@ -16362,7 +16330,7 @@
         <v>171</v>
       </c>
       <c r="AA105" s="115" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB105" s="115"/>
       <c r="AC105" s="115"/>
@@ -16402,7 +16370,7 @@
       <c r="N106" s="115"/>
       <c r="O106" s="117"/>
       <c r="P106" s="115" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q106" s="115"/>
       <c r="R106" s="115"/>
@@ -16417,7 +16385,7 @@
         <v>171</v>
       </c>
       <c r="AA106" s="115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB106" s="115"/>
       <c r="AC106" s="115"/>
@@ -16457,7 +16425,7 @@
       <c r="N107" s="115"/>
       <c r="O107" s="117"/>
       <c r="P107" s="115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q107" s="115"/>
       <c r="R107" s="115"/>
@@ -16472,7 +16440,7 @@
         <v>171</v>
       </c>
       <c r="AA107" s="115" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB107" s="115"/>
       <c r="AC107" s="115"/>
@@ -16512,7 +16480,7 @@
       <c r="N108" s="115"/>
       <c r="O108" s="117"/>
       <c r="P108" s="115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q108" s="115"/>
       <c r="R108" s="115"/>
@@ -16527,7 +16495,7 @@
         <v>171</v>
       </c>
       <c r="AA108" s="115" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB108" s="115"/>
       <c r="AC108" s="115"/>
@@ -16567,7 +16535,7 @@
       <c r="N109" s="115"/>
       <c r="O109" s="117"/>
       <c r="P109" s="115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q109" s="115"/>
       <c r="R109" s="115"/>
@@ -16582,7 +16550,7 @@
         <v>171</v>
       </c>
       <c r="AA109" s="115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AB109" s="115"/>
       <c r="AC109" s="115"/>
@@ -16622,7 +16590,7 @@
       <c r="N110" s="115"/>
       <c r="O110" s="117"/>
       <c r="P110" s="115" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q110" s="115"/>
       <c r="R110" s="115"/>
@@ -16637,7 +16605,7 @@
         <v>171</v>
       </c>
       <c r="AA110" s="115" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AB110" s="115"/>
       <c r="AC110" s="115"/>
@@ -16841,7 +16809,7 @@
         <v>171</v>
       </c>
       <c r="AA114" s="120" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AB114" s="119"/>
       <c r="AC114" s="119"/>
@@ -16889,7 +16857,7 @@
       <c r="X115" s="116"/>
       <c r="Y115" s="111"/>
       <c r="Z115" s="116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA115" s="116"/>
       <c r="AB115" s="116"/>
@@ -16931,7 +16899,7 @@
       <c r="M116" s="115"/>
       <c r="N116" s="115"/>
       <c r="O116" s="116" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P116" s="116"/>
       <c r="Q116" s="116"/>
@@ -16946,7 +16914,7 @@
         <v>171</v>
       </c>
       <c r="AA116" s="101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB116" s="116"/>
       <c r="AC116" s="116"/>
@@ -16992,7 +16960,7 @@
       <c r="W117" s="98"/>
       <c r="X117" s="98"/>
       <c r="Z117" s="98" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AA117" s="98"/>
       <c r="AB117" s="98"/>
@@ -17044,7 +17012,7 @@
         <v>171</v>
       </c>
       <c r="AA118" s="98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB118" s="98"/>
       <c r="AC118" s="98"/>
@@ -17095,7 +17063,7 @@
         <v>171</v>
       </c>
       <c r="AA119" s="98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB119" s="98"/>
       <c r="AC119" s="98"/>
@@ -17184,7 +17152,7 @@
       <c r="M122" s="115"/>
       <c r="N122" s="115"/>
       <c r="O122" s="117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AM122" s="115"/>
       <c r="AN122" s="115"/>
@@ -17212,7 +17180,7 @@
       <c r="M123" s="115"/>
       <c r="N123" s="115"/>
       <c r="O123" s="117" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AM123" s="115"/>
       <c r="AN123" s="115"/>
@@ -17240,7 +17208,7 @@
       <c r="M124" s="115"/>
       <c r="N124" s="115"/>
       <c r="O124" s="117" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM124" s="115"/>
       <c r="AN124" s="115"/>
@@ -17268,7 +17236,7 @@
       <c r="M125" s="115"/>
       <c r="N125" s="115"/>
       <c r="O125" s="117" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AM125" s="115"/>
       <c r="AN125" s="115"/>
@@ -17296,7 +17264,7 @@
       <c r="M126" s="75"/>
       <c r="N126" s="75"/>
       <c r="O126" s="117" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM126" s="75"/>
       <c r="AN126" s="75"/>
@@ -17324,7 +17292,7 @@
       <c r="M127" s="75"/>
       <c r="N127" s="75"/>
       <c r="O127" s="117" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AM127" s="75"/>
       <c r="AN127" s="75"/>
@@ -17380,7 +17348,7 @@
       <c r="M129" s="75"/>
       <c r="N129" s="75"/>
       <c r="O129" s="117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM129" s="75"/>
       <c r="AN129" s="75"/>
@@ -17488,7 +17456,7 @@
       <c r="M133" s="75"/>
       <c r="N133" s="75"/>
       <c r="O133" s="117" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AM133" s="75"/>
       <c r="AN133" s="75"/>
@@ -17516,7 +17484,7 @@
       <c r="M134" s="75"/>
       <c r="N134" s="75"/>
       <c r="O134" s="111" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM134" s="75"/>
       <c r="AN134" s="75"/>
@@ -17691,7 +17659,7 @@
       <c r="K138" s="112"/>
       <c r="L138" s="113"/>
       <c r="O138" s="117" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="P138" s="117"/>
       <c r="Q138" s="117"/>
@@ -17740,7 +17708,7 @@
       <c r="K139" s="112"/>
       <c r="L139" s="113"/>
       <c r="O139" s="117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P139" s="117"/>
       <c r="Q139" s="117"/>
@@ -17789,7 +17757,7 @@
       <c r="K140" s="112"/>
       <c r="L140" s="113"/>
       <c r="O140" s="117" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P140" s="117"/>
       <c r="Q140" s="117"/>
@@ -17838,7 +17806,7 @@
       <c r="K141" s="112"/>
       <c r="L141" s="113"/>
       <c r="O141" s="117" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P141" s="117"/>
       <c r="Q141" s="117"/>
@@ -17984,7 +17952,7 @@
       <c r="L144" s="113"/>
       <c r="O144" s="117"/>
       <c r="P144" s="117" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q144" s="117"/>
       <c r="R144" s="117"/>
@@ -18128,7 +18096,7 @@
       <c r="K147" s="112"/>
       <c r="L147" s="113"/>
       <c r="O147" s="117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P147" s="117"/>
       <c r="Q147" s="117"/>
@@ -18229,7 +18197,7 @@
       <c r="N149" s="115"/>
       <c r="O149" s="117"/>
       <c r="P149" s="115" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q149" s="115"/>
       <c r="R149" s="115"/>
@@ -18244,7 +18212,7 @@
         <v>171</v>
       </c>
       <c r="AA149" s="115" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AB149" s="115"/>
       <c r="AC149" s="115"/>
@@ -18284,7 +18252,7 @@
       <c r="N150" s="115"/>
       <c r="O150" s="117"/>
       <c r="P150" s="115" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q150" s="115"/>
       <c r="R150" s="115"/>
@@ -18299,7 +18267,7 @@
         <v>171</v>
       </c>
       <c r="AA150" s="115" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AB150" s="115"/>
       <c r="AC150" s="115"/>
@@ -18338,7 +18306,7 @@
       <c r="M151" s="115"/>
       <c r="N151" s="115"/>
       <c r="O151" s="117" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P151" s="115"/>
       <c r="Q151" s="115"/>
@@ -18390,7 +18358,7 @@
       <c r="N152" s="115"/>
       <c r="O152" s="117"/>
       <c r="P152" s="115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q152" s="115"/>
       <c r="R152" s="115"/>
@@ -18405,7 +18373,7 @@
         <v>171</v>
       </c>
       <c r="AA152" s="115" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="AB152" s="115"/>
       <c r="AC152" s="115"/>
@@ -18445,7 +18413,7 @@
       <c r="N153" s="115"/>
       <c r="O153" s="117"/>
       <c r="P153" s="115" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q153" s="115"/>
       <c r="R153" s="115"/>
@@ -18460,7 +18428,7 @@
         <v>171</v>
       </c>
       <c r="AA153" s="115" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AB153" s="115"/>
       <c r="AC153" s="115"/>
@@ -18500,7 +18468,7 @@
       <c r="N154" s="115"/>
       <c r="O154" s="117"/>
       <c r="P154" s="115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q154" s="115"/>
       <c r="R154" s="115"/>
@@ -18515,7 +18483,7 @@
         <v>171</v>
       </c>
       <c r="AA154" s="115" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AB154" s="115"/>
       <c r="AC154" s="115"/>
@@ -18555,7 +18523,7 @@
       <c r="N155" s="115"/>
       <c r="O155" s="117"/>
       <c r="P155" s="115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q155" s="115"/>
       <c r="R155" s="115"/>
@@ -18570,7 +18538,7 @@
         <v>171</v>
       </c>
       <c r="AA155" s="115" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AB155" s="115"/>
       <c r="AC155" s="115"/>
@@ -18610,7 +18578,7 @@
       <c r="N156" s="115"/>
       <c r="O156" s="117"/>
       <c r="P156" s="115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q156" s="115"/>
       <c r="R156" s="115"/>
@@ -18625,7 +18593,7 @@
         <v>171</v>
       </c>
       <c r="AA156" s="115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AB156" s="115"/>
       <c r="AC156" s="115"/>
@@ -18716,7 +18684,7 @@
       <c r="N158" s="115"/>
       <c r="O158" s="117"/>
       <c r="P158" s="115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q158" s="115"/>
       <c r="R158" s="115"/>
@@ -18731,7 +18699,7 @@
         <v>171</v>
       </c>
       <c r="AA158" s="115" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AB158" s="115"/>
       <c r="AC158" s="115"/>
@@ -18771,7 +18739,7 @@
       <c r="N159" s="115"/>
       <c r="O159" s="117"/>
       <c r="P159" s="115" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q159" s="115"/>
       <c r="R159" s="115"/>
@@ -18786,7 +18754,7 @@
         <v>171</v>
       </c>
       <c r="AA159" s="115" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AB159" s="115"/>
       <c r="AC159" s="115"/>
@@ -18826,7 +18794,7 @@
       <c r="N160" s="115"/>
       <c r="O160" s="117"/>
       <c r="P160" s="115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q160" s="115"/>
       <c r="R160" s="115"/>
@@ -18841,7 +18809,7 @@
         <v>171</v>
       </c>
       <c r="AA160" s="115" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB160" s="115"/>
       <c r="AC160" s="115"/>
@@ -18881,7 +18849,7 @@
       <c r="N161" s="115"/>
       <c r="O161" s="117"/>
       <c r="P161" s="115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q161" s="115"/>
       <c r="R161" s="115"/>
@@ -18896,7 +18864,7 @@
         <v>171</v>
       </c>
       <c r="AA161" s="115" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AB161" s="115"/>
       <c r="AC161" s="115"/>
@@ -18936,7 +18904,7 @@
       <c r="N162" s="115"/>
       <c r="O162" s="117"/>
       <c r="P162" s="115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q162" s="115"/>
       <c r="R162" s="115"/>
@@ -18951,7 +18919,7 @@
         <v>171</v>
       </c>
       <c r="AA162" s="115" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AB162" s="115"/>
       <c r="AC162" s="115"/>
@@ -19042,7 +19010,7 @@
       <c r="N164" s="115"/>
       <c r="O164" s="117"/>
       <c r="P164" s="115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q164" s="115"/>
       <c r="R164" s="115"/>
@@ -19057,7 +19025,7 @@
         <v>171</v>
       </c>
       <c r="AA164" s="115" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB164" s="115"/>
       <c r="AC164" s="115"/>
@@ -19097,7 +19065,7 @@
       <c r="N165" s="115"/>
       <c r="O165" s="117"/>
       <c r="P165" s="115" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q165" s="115"/>
       <c r="R165" s="115"/>
@@ -19112,7 +19080,7 @@
         <v>171</v>
       </c>
       <c r="AA165" s="115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB165" s="115"/>
       <c r="AC165" s="115"/>
@@ -19152,7 +19120,7 @@
       <c r="N166" s="115"/>
       <c r="O166" s="117"/>
       <c r="P166" s="115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q166" s="115"/>
       <c r="R166" s="115"/>
@@ -19167,7 +19135,7 @@
         <v>171</v>
       </c>
       <c r="AA166" s="115" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB166" s="115"/>
       <c r="AC166" s="115"/>
@@ -19207,7 +19175,7 @@
       <c r="N167" s="115"/>
       <c r="O167" s="117"/>
       <c r="P167" s="115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q167" s="115"/>
       <c r="R167" s="115"/>
@@ -19222,7 +19190,7 @@
         <v>171</v>
       </c>
       <c r="AA167" s="115" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB167" s="115"/>
       <c r="AC167" s="115"/>
@@ -19262,7 +19230,7 @@
       <c r="N168" s="115"/>
       <c r="O168" s="117"/>
       <c r="P168" s="115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q168" s="115"/>
       <c r="R168" s="115"/>
@@ -19277,7 +19245,7 @@
         <v>171</v>
       </c>
       <c r="AA168" s="115" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AB168" s="115"/>
       <c r="AC168" s="115"/>
@@ -19480,7 +19448,7 @@
         <v>171</v>
       </c>
       <c r="AA172" s="120" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AB172" s="119"/>
       <c r="AC172" s="119"/>
@@ -19527,7 +19495,7 @@
       <c r="W173" s="116"/>
       <c r="X173" s="116"/>
       <c r="Z173" s="116" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA173" s="116"/>
       <c r="AB173" s="116"/>
@@ -19566,7 +19534,7 @@
       <c r="M174" s="115"/>
       <c r="N174" s="115"/>
       <c r="O174" s="116" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P174" s="116"/>
       <c r="Q174" s="116"/>
@@ -19581,7 +19549,7 @@
         <v>171</v>
       </c>
       <c r="AA174" s="101" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AB174" s="116"/>
       <c r="AC174" s="116"/>
@@ -19615,7 +19583,7 @@
       <c r="M175" s="115"/>
       <c r="N175" s="115"/>
       <c r="O175" s="116" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P175" s="116"/>
       <c r="Q175" s="116"/>
@@ -19627,7 +19595,7 @@
       <c r="W175" s="116"/>
       <c r="X175" s="116"/>
       <c r="Z175" s="116" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AA175" s="116"/>
       <c r="AB175" s="116"/>
@@ -19679,7 +19647,7 @@
         <v>171</v>
       </c>
       <c r="AA176" s="116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AB176" s="116"/>
       <c r="AC176" s="116"/>
@@ -19730,7 +19698,7 @@
         <v>171</v>
       </c>
       <c r="AA177" s="116" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB177" s="116"/>
       <c r="AC177" s="116"/>
@@ -19819,7 +19787,7 @@
       <c r="M180" s="115"/>
       <c r="N180" s="115"/>
       <c r="O180" s="117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AM180" s="115"/>
       <c r="AN180" s="115"/>
@@ -19847,7 +19815,7 @@
       <c r="M181" s="115"/>
       <c r="N181" s="115"/>
       <c r="O181" s="117" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AM181" s="115"/>
       <c r="AN181" s="115"/>
@@ -19875,7 +19843,7 @@
       <c r="M182" s="115"/>
       <c r="N182" s="115"/>
       <c r="O182" s="117" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM182" s="115"/>
       <c r="AN182" s="115"/>
@@ -19903,7 +19871,7 @@
       <c r="M183" s="115"/>
       <c r="N183" s="115"/>
       <c r="O183" s="117" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AM183" s="115"/>
       <c r="AN183" s="115"/>
@@ -19931,7 +19899,7 @@
       <c r="M184" s="115"/>
       <c r="N184" s="115"/>
       <c r="O184" s="117" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AM184" s="115"/>
       <c r="AN184" s="115"/>
@@ -19959,7 +19927,7 @@
       <c r="M185" s="115"/>
       <c r="N185" s="115"/>
       <c r="O185" s="117" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AM185" s="115"/>
       <c r="AN185" s="115"/>
@@ -19987,7 +19955,7 @@
       <c r="M186" s="115"/>
       <c r="N186" s="115"/>
       <c r="O186" s="117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM186" s="115"/>
       <c r="AN186" s="115"/>
@@ -20095,7 +20063,7 @@
       <c r="M190" s="115"/>
       <c r="N190" s="115"/>
       <c r="O190" s="117" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AM190" s="115"/>
       <c r="AN190" s="115"/>
@@ -20123,7 +20091,7 @@
       <c r="M191" s="115"/>
       <c r="N191" s="115"/>
       <c r="O191" s="111" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM191" s="115"/>
       <c r="AN191" s="115"/>
@@ -20191,7 +20159,7 @@
       <c r="F193" s="114"/>
       <c r="G193" s="113"/>
       <c r="L193" s="113" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M193" s="116"/>
       <c r="N193" s="116"/>
@@ -20231,7 +20199,7 @@
       <c r="F194" s="114"/>
       <c r="G194" s="113"/>
       <c r="L194" s="113" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M194" s="116"/>
       <c r="N194" s="116"/>
@@ -20272,7 +20240,7 @@
       <c r="G195" s="113"/>
       <c r="L195" s="113"/>
       <c r="M195" s="116" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N195" s="116"/>
       <c r="O195" s="116"/>
@@ -20313,7 +20281,7 @@
       <c r="L196" s="113"/>
       <c r="M196" s="116"/>
       <c r="N196" s="116" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O196" s="116"/>
       <c r="P196" s="116"/>
@@ -27975,7 +27943,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="160">
+      <c r="AI1" s="164">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -27991,7 +27959,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="163" t="str">
+      <c r="AT1" s="167" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -28062,7 +28030,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="163"/>
+      <c r="AT2" s="167"/>
       <c r="AU2" s="170"/>
       <c r="AV2" s="170"/>
       <c r="AW2" s="170"/>
@@ -28524,7 +28492,7 @@
       <c r="H11" s="112"/>
       <c r="I11" s="114"/>
       <c r="J11" s="20" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
@@ -28538,7 +28506,7 @@
       <c r="R11" s="21"/>
       <c r="S11" s="22"/>
       <c r="T11" s="21" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
@@ -28550,7 +28518,7 @@
       <c r="AB11" s="21"/>
       <c r="AC11" s="21"/>
       <c r="AD11" s="125" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AE11" s="126"/>
       <c r="AF11" s="126"/>
@@ -28657,7 +28625,7 @@
       <c r="AB13" s="21"/>
       <c r="AC13" s="21"/>
       <c r="AD13" s="129" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AE13" s="21"/>
       <c r="AF13" s="21"/>
@@ -33295,7 +33263,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AZ210"/>
+  <dimension ref="A1:AZ209"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -33353,7 +33321,7 @@
       <c r="AF1" s="34"/>
       <c r="AG1" s="34"/>
       <c r="AH1" s="35"/>
-      <c r="AI1" s="160">
+      <c r="AI1" s="164">
         <f>変更履歴!E5</f>
         <v>43711</v>
       </c>
@@ -33369,7 +33337,7 @@
       <c r="AQ1" s="34"/>
       <c r="AR1" s="34"/>
       <c r="AS1" s="35"/>
-      <c r="AT1" s="163" t="str">
+      <c r="AT1" s="167" t="str">
         <f>変更履歴!AN5</f>
         <v>詹</v>
       </c>
@@ -33440,7 +33408,7 @@
       <c r="AQ2" s="34"/>
       <c r="AR2" s="34"/>
       <c r="AS2" s="35"/>
-      <c r="AT2" s="163"/>
+      <c r="AT2" s="167"/>
       <c r="AU2" s="170"/>
       <c r="AV2" s="170"/>
       <c r="AW2" s="170"/>
@@ -33722,26 +33690,64 @@
       <c r="AY7" s="55"/>
       <c r="AZ7" s="55"/>
     </row>
-    <row r="8" spans="1:52" s="102" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="108" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
+        <v>324</v>
+      </c>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="55"/>
+      <c r="AF8" s="55"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="55"/>
+      <c r="AI8" s="55"/>
+      <c r="AJ8" s="55"/>
+      <c r="AK8" s="55"/>
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
+      <c r="AO8" s="55"/>
+      <c r="AP8" s="55"/>
+      <c r="AQ8" s="55"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="55"/>
+      <c r="AU8" s="55"/>
+      <c r="AV8" s="55"/>
+      <c r="AW8" s="55"/>
+      <c r="AX8" s="55"/>
+      <c r="AY8" s="55"/>
+      <c r="AZ8" s="55"/>
     </row>
     <row r="9" spans="1:52" s="102" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="108" t="s">
-        <v>292</v>
-      </c>
+      <c r="C9" s="107"/>
       <c r="D9" s="104"/>
       <c r="E9" s="105"/>
       <c r="F9" s="105"/>
@@ -33753,26 +33759,66 @@
       <c r="L9" s="103"/>
       <c r="M9" s="103"/>
       <c r="N9" s="103"/>
-    </row>
-    <row r="10" spans="1:52" s="102" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="107"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="103"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="103"/>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="103"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="103"/>
-      <c r="T10" s="103"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="103"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="103"/>
+      <c r="T9" s="103"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.15">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="55"/>
+      <c r="AF10" s="55"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="55"/>
+      <c r="AO10" s="55"/>
+      <c r="AP10" s="55"/>
+      <c r="AQ10" s="55"/>
+      <c r="AR10" s="55"/>
+      <c r="AS10" s="55"/>
+      <c r="AT10" s="55"/>
+      <c r="AU10" s="55"/>
+      <c r="AV10" s="55"/>
+      <c r="AW10" s="55"/>
+      <c r="AX10" s="55"/>
+      <c r="AY10" s="55"/>
+      <c r="AZ10" s="55"/>
     </row>
     <row r="11" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A11" s="55"/>
@@ -44520,60 +44566,6 @@
       <c r="AY209" s="55"/>
       <c r="AZ209" s="55"/>
     </row>
-    <row r="210" spans="1:52" x14ac:dyDescent="0.15">
-      <c r="A210" s="55"/>
-      <c r="B210" s="55"/>
-      <c r="C210" s="55"/>
-      <c r="D210" s="55"/>
-      <c r="E210" s="55"/>
-      <c r="F210" s="55"/>
-      <c r="G210" s="55"/>
-      <c r="H210" s="55"/>
-      <c r="I210" s="55"/>
-      <c r="J210" s="55"/>
-      <c r="K210" s="55"/>
-      <c r="L210" s="55"/>
-      <c r="M210" s="55"/>
-      <c r="N210" s="55"/>
-      <c r="O210" s="55"/>
-      <c r="P210" s="55"/>
-      <c r="Q210" s="55"/>
-      <c r="R210" s="55"/>
-      <c r="S210" s="55"/>
-      <c r="T210" s="55"/>
-      <c r="U210" s="55"/>
-      <c r="V210" s="55"/>
-      <c r="W210" s="55"/>
-      <c r="X210" s="55"/>
-      <c r="Y210" s="55"/>
-      <c r="Z210" s="55"/>
-      <c r="AA210" s="55"/>
-      <c r="AB210" s="55"/>
-      <c r="AC210" s="55"/>
-      <c r="AD210" s="55"/>
-      <c r="AE210" s="55"/>
-      <c r="AF210" s="55"/>
-      <c r="AG210" s="55"/>
-      <c r="AH210" s="55"/>
-      <c r="AI210" s="55"/>
-      <c r="AJ210" s="55"/>
-      <c r="AK210" s="55"/>
-      <c r="AL210" s="55"/>
-      <c r="AM210" s="55"/>
-      <c r="AN210" s="55"/>
-      <c r="AO210" s="55"/>
-      <c r="AP210" s="55"/>
-      <c r="AQ210" s="55"/>
-      <c r="AR210" s="55"/>
-      <c r="AS210" s="55"/>
-      <c r="AT210" s="55"/>
-      <c r="AU210" s="55"/>
-      <c r="AV210" s="55"/>
-      <c r="AW210" s="55"/>
-      <c r="AX210" s="55"/>
-      <c r="AY210" s="55"/>
-      <c r="AZ210" s="55"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="AI1:AM1"/>
@@ -44601,6 +44593,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -44758,12 +44756,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
@@ -44773,6 +44765,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44788,13 +44789,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>